--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1416">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5920,6 +5920,6719 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>fa chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cynosure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visceral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irritation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inhale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bricklayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illuminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subreption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enormity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neonate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quondam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deracinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shudder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裂缝；(意见)分歧</t>
+    <rPh sb="2" eb="3">
+      <t>lie feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fen qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.憔悴的，瘦削的</t>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou xue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.注意的焦点</t>
+    <rPh sb="2" eb="3">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiao dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.内心深处的；内脏的</t>
+    <rPh sb="4" eb="5">
+      <t>nei xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nei zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胆小鬼</t>
+    <rPh sb="2" eb="3">
+      <t>dan xiao gui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愤怒，恼怒</t>
+    <rPh sb="2" eb="3">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nao nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偏离，迷路 adj.迷路的；零落的</t>
+    <rPh sb="2" eb="3">
+      <t>pian li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mi lu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mi lu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ling luo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.繁荣的，兴旺的</t>
+    <rPh sb="4" eb="5">
+      <t>fan rong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing wang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.宣告，公布；显示，表明</t>
+    <rPh sb="2" eb="3">
+      <t>xuan gao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>biao ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吸入，吸气</t>
+    <rPh sb="2" eb="3">
+      <t>xi ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摇摇欲坠；步履蹒跚；踌躇</t>
+    <rPh sb="2" eb="3">
+      <t>yao yao yu zui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu lü pan shan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chou chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.反抗，抵制  n.雄鹿；雄兔；元，钱</t>
+    <rPh sb="2" eb="3">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiong lu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.监禁</t>
+    <rPh sb="2" eb="3">
+      <t>jian jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.砖匠</t>
+    <rPh sb="2" eb="3">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.污物；猥亵的东西</t>
+    <rPh sb="2" eb="3">
+      <t>wu wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.阐明，解释；照亮</t>
+    <rPh sb="2" eb="3">
+      <t>chan ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhao liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大叫，大喊</t>
+    <rPh sb="2" eb="3">
+      <t>da jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.隐瞒真相，歪曲事实</t>
+    <rPh sb="2" eb="3">
+      <t>yin man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai qu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 凸起，膨胀</t>
+    <rPh sb="6" eb="7">
+      <t>tu qi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>peng zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发怒，恼怒；冒烟</t>
+    <rPh sb="2" eb="3">
+      <t>fa nu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nao nu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.烟；愤怒，恼怒</t>
+    <rPh sb="2" eb="3">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nao nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.极恶；暴行；巨大</t>
+    <rPh sb="2" eb="3">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ju da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.开玩笑，戏弄</t>
+    <rPh sb="2" eb="3">
+      <t>kai wan xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi nong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.保留，保持</t>
+    <rPh sb="2" eb="3">
+      <t>bao liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.遣回；召回</t>
+    <rPh sb="2" eb="3">
+      <t>qian hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhao hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.新生儿</t>
+    <rPh sb="2" eb="3">
+      <t>xin sheng er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.原来的，以前的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan lai a</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi qian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.根除，灭绝</t>
+    <rPh sb="2" eb="3">
+      <t>gen chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mie jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.急急忙忙的</t>
+    <rPh sb="4" eb="5">
+      <t>ji ji mang mang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.隔开；隔墙</t>
+    <rPh sb="2" eb="3">
+      <t>ge kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ge qiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清算；清偿</t>
+    <rPh sb="2" eb="3">
+      <t>qing suan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.／n. 战栗，发抖</t>
+    <rPh sb="6" eb="7">
+      <t>zhan li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stickler </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potentate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>engulf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moldy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impertinence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vicar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>induction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feisty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coarsen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irremediable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vernal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spendthrift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>febrile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flagellate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garrulity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.坚持细节的人</t>
+    <rPh sb="2" eb="3">
+      <t>jian chi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.统治者，君主</t>
+    <rPh sb="2" eb="3">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jun zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吞噬</t>
+    <rPh sb="2" eb="3">
+      <t>tun shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吱嘎磨碎；使人烦躁，刺激</t>
+    <rPh sb="2" eb="3">
+      <t>zhi ga</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mo sui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fan zao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.短暂，稍纵即逝</t>
+    <rPh sb="2" eb="3">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shao zong ji shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发霉的</t>
+    <rPh sb="4" eb="5">
+      <t>fa mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.哀号，哭号</t>
+    <rPh sb="2" eb="3">
+      <t>ai hao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ku hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无礼，粗鲁</t>
+    <rPh sb="2" eb="3">
+      <t>wu li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cu lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(缝纫时的)一针  v.缝合</t>
+    <rPh sb="3" eb="4">
+      <t>feng ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>feng he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.储备 adj.常备的  n.存货</t>
+    <rPh sb="2" eb="3">
+      <t>chu bei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chang bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>cun huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 和谈；会谈</t>
+    <rPh sb="6" eb="7">
+      <t>he tan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.教区牧师</t>
+    <rPh sb="2" eb="3">
+      <t>jiao qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.就职；归纳</t>
+    <rPh sb="2" eb="3">
+      <t>jiu zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui na</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.假笑，傻笑</t>
+    <rPh sb="2" eb="3">
+      <t>jia xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sha xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.活跃的；易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>huo yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)变粗糙</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cu cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无法治愈的，无法纠正的</t>
+    <rPh sb="4" eb="5">
+      <t>eu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiu zheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.春季的；春季般的，青春的</t>
+    <rPh sb="4" eb="5">
+      <t>chun ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chun ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qing chun</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.西梅干  v.修剪(树木等)</t>
+    <rPh sb="2" eb="3">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.任性的；鲁莽的</t>
+    <rPh sb="4" eb="5">
+      <t>ren xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lu mang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./n. 挥金如土的(人)</t>
+    <rPh sb="8" eb="9">
+      <t>hui jin ru tu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使丰富，使充满</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>feng fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chong man</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.发烧的，热病的</t>
+    <rPh sb="4" eb="5">
+      <t>fa shao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re bing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.蠢人，笨蛋</t>
+    <rPh sb="2" eb="3">
+      <t>chun ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.鞭打，鞭笞</t>
+    <rPh sb="2" eb="3">
+      <t>bian da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大量；造币厂</t>
+    <rPh sb="2" eb="3">
+      <t>da liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zao bi chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.唠叨，饶舌</t>
+    <rPh sb="2" eb="3">
+      <t>lao dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rao she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.干涉，妨碍</t>
+    <rPh sb="2" eb="3">
+      <t>gan she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang ai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可怕的</t>
+    <rPh sb="4" eb="5">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stupendous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lesion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>futility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dedication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilly-shally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandemonium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticklish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feasible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liberality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imprecation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leeward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concatenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.易货贸易</t>
+    <rPh sb="2" eb="3">
+      <t>yi huo mao yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易于……的；恰当的</t>
+    <rPh sb="4" eb="5">
+      <t>yi yu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qia dang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.爆裂声；裂缝  v.裂开；破解</t>
+    <rPh sb="2" eb="3">
+      <t>bao lie sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie feng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lie kai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>po jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大摇大摆地走</t>
+    <rPh sb="2" eb="3">
+      <t>da yao da bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巨大的，惊人的</t>
+    <rPh sb="4" eb="5">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jing ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.损害，损伤</t>
+    <rPh sb="2" eb="3">
+      <t>sun hai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sun shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无用，无益</t>
+    <rPh sb="2" eb="3">
+      <t>wu yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奉献，献身</t>
+    <rPh sb="2" eb="3">
+      <t>feng xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有益健康的</t>
+    <rPh sb="4" eb="5">
+      <t>you yi jian kang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.语言风格；惯用语</t>
+    <rPh sb="2" eb="3">
+      <t>yu yan feng ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan yong yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.犹豫不决；虚度光阴</t>
+    <rPh sb="2" eb="3">
+      <t>you yu bu jue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu du guang yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.喧嚣，大混乱</t>
+    <rPh sb="2" eb="3">
+      <t>xuan xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.怕痒的；易怒的</t>
+    <rPh sb="4" eb="5">
+      <t>pa yang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可行的，可能的</t>
+    <rPh sb="4" eb="5">
+      <t>ke xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.亵渎，玷污</t>
+    <rPh sb="2" eb="3">
+      <t>xie du</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.揭露</t>
+    <rPh sb="2" eb="3">
+      <t>jie lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.慷慨；心胸开阔</t>
+    <rPh sb="2" eb="3">
+      <t>kang kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin xiong kai kuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诅咒</t>
+    <rPh sb="2" eb="3">
+      <t>zu zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.背风的</t>
+    <rPh sb="4" eb="5">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.一致，符合；结清</t>
+    <rPh sb="2" eb="3">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺入，刺穿</t>
+    <rPh sb="2" eb="3">
+      <t>ci ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使苏醒；使再流行</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>su xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欢喜，高兴</t>
+    <rPh sb="2" eb="3">
+      <t>huan xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.连结；连锁</t>
+    <rPh sb="2" eb="3">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.犹豫；退缩</t>
+    <rPh sb="2" eb="3">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掌掴，拍打(在屁股上)</t>
+    <rPh sb="2" eb="3">
+      <t>zhang guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai da</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pi gu shng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dolorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweltering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sportive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fractional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specifics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crackpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trudge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poncho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sparring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.猜字谜游戏  v.凭动作猜字谜</t>
+    <rPh sb="2" eb="3">
+      <t>cai zi mi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ping</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai zi mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲哀的，忧伤的</t>
+    <rPh sb="4" eb="5">
+      <t>bei ai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you shang de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发臭味；冒烟</t>
+    <rPh sb="2" eb="3">
+      <t>fa chou wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mao yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.补偿</t>
+    <rPh sb="2" eb="3">
+      <t>bu chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.嬉戏的，欢闹的</t>
+    <rPh sb="4" eb="5">
+      <t>xi xi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huan nao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.微小的，极少的，微不足道的</t>
+    <rPh sb="4" eb="5">
+      <t>wei xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji shao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei bu zu dao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.给予，分配；测量  n.边界</t>
+    <rPh sb="2" eb="3">
+      <t>ji yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen pei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ce liang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bian jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.细小的问题，细节</t>
+    <rPh sb="2" eb="3">
+      <t>xi xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xi jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怪人，疯子；狂想家</t>
+    <rPh sb="2" eb="3">
+      <t>guai ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>feng zi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuang xiang jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.柳叶刀</t>
+    <rPh sb="2" eb="3">
+      <t>liu ye dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.跋涉</t>
+    <rPh sb="2" eb="3">
+      <t>ba she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.颤动；颤抖，战栗</t>
+    <rPh sb="2" eb="3">
+      <t>chan dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan dou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.牵连(于罪行中)；暗示</t>
+    <rPh sb="2" eb="3">
+      <t>qian lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>an shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.斗篷；雨披</t>
+    <rPh sb="2" eb="3">
+      <t>dou peng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.突起物，隆起物；设计，规划</t>
+    <rPh sb="2" eb="3">
+      <t>tu qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>she ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gui hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射，投射</t>
+    <rPh sb="0" eb="1">
+      <t>fa she</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tou she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.拳击，争斗</t>
+    <rPh sb="2" eb="3">
+      <t>quan ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.癫狂；狂热</t>
+    <rPh sb="2" eb="3">
+      <t>dian kuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kuang re</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pamper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jettison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingratiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoddy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounteous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stodgy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>culmination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lingual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stutter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beckon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lusty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidiary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resilience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.纵容，过分关怀</t>
+    <rPh sb="2" eb="3">
+      <t>zong rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo fen</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>guan huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(船等)向外抛弃货物</t>
+    <rPh sb="3" eb="4">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiang wai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pao qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抛弃的货物；抛弃</t>
+    <rPh sb="2" eb="3">
+      <t>pao qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pao qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.花费，支出；支出额</t>
+    <rPh sb="2" eb="3">
+      <t>hua fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi chu e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.逢迎，讨好</t>
+    <rPh sb="2" eb="3">
+      <t>feng ying</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.描写；画</t>
+    <rPh sb="2" eb="3">
+      <t>miao xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.劣质的，假冒的</t>
+    <rPh sb="4" eb="5">
+      <t>lie zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia mao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.慷慨的；丰富的</t>
+    <rPh sb="4" eb="5">
+      <t>kang kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.授权，认可</t>
+    <rPh sb="2" eb="3">
+      <t>shou quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.罪有应得的；适宜的</t>
+    <rPh sb="4" eb="5">
+      <t>zui you ying de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.美化，改观</t>
+    <rPh sb="2" eb="3">
+      <t>mei hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.枯燥无味的</t>
+    <rPh sb="4" eb="5">
+      <t>ku zao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(液体等)渗漏</t>
+    <rPh sb="3" eb="4">
+      <t>ye ti deng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shen chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.顶点；高潮</t>
+    <rPh sb="2" eb="3">
+      <t>ding dian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.马笼头  v.抑制，控制</t>
+    <rPh sb="2" eb="3">
+      <t>ma long tou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kong hzi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.舌的；语言的</t>
+    <rPh sb="4" eb="5">
+      <t>she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yu yan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.擦亮，磨光</t>
+    <rPh sb="2" eb="3">
+      <t>ca liang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.口吃，结巴  n.口吃</t>
+    <rPh sb="2" eb="3">
+      <t>kou chi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie ba</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kou chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.召唤，示意</t>
+    <rPh sb="2" eb="3">
+      <t>zhao huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.潦草地写，乱涂</t>
+    <rPh sb="2" eb="3">
+      <t>liao cao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>luan tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.充满活力的，精力充沛的</t>
+    <rPh sb="4" eb="5">
+      <t>chong man huo li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jing li chong pei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辅助的；次要的</t>
+    <rPh sb="4" eb="5">
+      <t>fu zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抢劫，掠夺</t>
+    <rPh sb="2" eb="3">
+      <t>qiang jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lue duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显而易见的  n.专利权(证书)</t>
+    <rPh sb="4" eb="5">
+      <t>xian er yi jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhuan li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zheng hsu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.包含，包括</t>
+    <rPh sb="2" eb="3">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao kuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.口角，小争论</t>
+    <rPh sb="2" eb="3">
+      <t>kou jue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao zheng lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.斜视，送秋波</t>
+    <rPh sb="2" eb="3">
+      <t>xie shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>song qiu bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愤怒，愤慨</t>
+    <rPh sb="2" eb="3">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假的，欺骗的</t>
+    <rPh sb="4" eb="5">
+      <t>jia de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的；著名的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.册，卷；大部头的书</t>
+    <rPh sb="2" eb="3">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da bu tou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺穿；渗入；了解</t>
+    <rPh sb="2" eb="3">
+      <t>ci chuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen ru</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liao jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.接合，拼接</t>
+    <rPh sb="2" eb="3">
+      <t>jie he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.恢复力，弹力</t>
+    <rPh sb="2" eb="3">
+      <t>hui fu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scruffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detergent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forswear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsessive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inflammation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deputize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presupposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallelism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cauterize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bewildering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obloquy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coterminous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sodden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blanch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backslide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepossessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gruesome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jabber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crepuscular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肮脏的，不洁的</t>
+    <rPh sb="4" eb="5">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.甜瓜</t>
+    <rPh sb="2" eb="3">
+      <t>tian gua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.清洁剂</t>
+    <rPh sb="2" eb="3">
+      <t>qing jie ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.瞎扯，唠叨</t>
+    <rPh sb="2" eb="3">
+      <t>xia che</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lao dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.最后，最终；终曲</t>
+    <rPh sb="2" eb="3">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.誓绝，发誓放弃</t>
+    <rPh sb="2" eb="3">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.强迫性的，急迫的；使人着迷的</t>
+    <rPh sb="4" eb="5">
+      <t>qiang po xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji po</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi ren</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhao mi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.翡翠  adj.翠绿色的</t>
+    <rPh sb="2" eb="3">
+      <t>fei cui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cui lü se</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.诡计</t>
+    <rPh sb="2" eb="3">
+      <t>gui ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.集合；合计</t>
+    <rPh sb="2" eb="3">
+      <t>ji he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发脾气，发怒</t>
+    <rPh sb="2" eb="3">
+      <t>fa pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fa nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发炎；炎症</t>
+    <rPh sb="2" eb="3">
+      <t>fa yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蹲下  adj.矮胖的</t>
+    <rPh sb="2" eb="3">
+      <t>dun xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ai pang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.代理，代表</t>
+    <rPh sb="2" eb="3">
+      <t>dai li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.预想，臆测</t>
+    <rPh sb="2" eb="3">
+      <t>yu xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi ce</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.平行，类似</t>
+    <rPh sb="2" eb="3">
+      <t>ping xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lei si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(用腐蚀性物质或烙铁)烧灼(表皮)以消毒</t>
+    <rPh sb="3" eb="4">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lao tie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shao zhuo</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>biao pi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiao du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或止血</t>
+    <rPh sb="0" eb="1">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人困惑的；令人费解的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fei jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.整洁漂亮的；动作敏捷的</t>
+    <rPh sb="4" eb="5">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>piao liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.辱骂，斥责</t>
+    <rPh sb="2" eb="3">
+      <t>ru ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chi ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.分成区  n.地区</t>
+    <rPh sb="2" eb="3">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.毗连的，有共同边界的</t>
+    <rPh sb="4" eb="5">
+      <t>pi lian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong tong bian jie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.浸透了的</t>
+    <rPh sb="4" eb="5">
+      <t>jin tou le de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.正派，端庄体面</t>
+    <rPh sb="2" eb="3">
+      <t>zheng pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.存放；使沉积</t>
+    <rPh sb="2" eb="3">
+      <t>cun fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chen ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.调色板，颜料配置</t>
+    <rPh sb="2" eb="3">
+      <t>tiao se ban</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yan liao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pei zhi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使变白；使(脸色)变苍白</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian bai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lian se</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>cang bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.故态复萌</t>
+    <rPh sb="2" eb="3">
+      <t>gu tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.给人好感的</t>
+    <rPh sb="4" eb="5">
+      <t>gei ewn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hao gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人毛骨悚然的，阴森的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mao gu song ran</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin sen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.快而含糊地说</t>
+    <rPh sb="2" eb="3">
+      <t>kuai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>han hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.补偿，抵消</t>
+    <rPh sb="2" eb="3">
+      <t>bu chang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.朦胧的，微明的</t>
+    <rPh sb="4" eb="5">
+      <t>meng long</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.预感</t>
+    <rPh sb="2" eb="3">
+      <t>yu gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使纯净，净化</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chun jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jing hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.擦伤，磨损</t>
+    <rPh sb="2" eb="3">
+      <t>ca shang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo sun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inchoate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linguistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acedia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bouquet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disavow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nemesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plaudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gerontocracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polemical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nausea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neophyte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bracelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subpoena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.迷路；落伍；蔓延</t>
+    <rPh sb="2" eb="3">
+      <t>mi lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>luo wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>man yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.活的，有生命的</t>
+    <rPh sb="4" eb="5">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赋予生命</t>
+    <rPh sb="2" eb="3">
+      <t>fu yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不安，良心的谴责</t>
+    <rPh sb="2" eb="3">
+      <t>bu an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liang xin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qian ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愤怒  v.激怒</t>
+    <rPh sb="2" eb="3">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji nu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.刚开始的；未充分发展的，不成熟的</t>
+    <rPh sb="4" eb="5">
+      <t>gang kai shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chong fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fa zan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu cheng shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.语言学</t>
+    <rPh sb="2" eb="3">
+      <t>yu yan xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.广阔的，宽敞的</t>
+    <rPh sb="4" eb="5">
+      <t>guang kuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuan chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.窝，巢穴；躲避出</t>
+    <rPh sb="2" eb="3">
+      <t>wo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chao xue</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo bi chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扭动，摆动</t>
+    <rPh sb="2" eb="3">
+      <t>niu qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bai dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.饶舌，爱说话 </t>
+    <rPh sb="2" eb="3">
+      <t>rao she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai shuo hau</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.空谈，瞎扯；闲逛，游荡</t>
+    <rPh sb="2" eb="3">
+      <t>kong tan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia che</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian guang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you dang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.兜售</t>
+    <rPh sb="2" eb="3">
+      <t>dou sshou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.威胁；即将发生</t>
+    <rPh sb="2" eb="3">
+      <t>wei xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji jiang fa sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.托付；承诺；犯罪</t>
+    <rPh sb="2" eb="3">
+      <t>tuo fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng nuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(用不正当手段)操纵，垄断</t>
+    <rPh sb="3" eb="4">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu zheng dang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou duan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cao zong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>long duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无精打采的样子；懒惰</t>
+    <rPh sb="2" eb="3">
+      <t>wu jing da cai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang zi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lan duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有风的；冗长的；夸夸其谈的</t>
+    <rPh sb="4" eb="5">
+      <t>you feng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rong chang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kua kua qi tan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.天赋，本领，天资</t>
+    <rPh sb="2" eb="3">
+      <t>tian fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben ling</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tian zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.花束；芳香</t>
+    <rPh sb="2" eb="3">
+      <t>hua shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.否认，否定，抵赖</t>
+    <rPh sb="2" eb="3">
+      <t>fou ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fou ding</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.报应</t>
+    <rPh sb="2" eb="3">
+      <t>bao ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.老人统治的政府</t>
+    <rPh sb="2" eb="3">
+      <t>lao ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tong zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喝彩，赞扬</t>
+    <rPh sb="2" eb="3">
+      <t>he cai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zan yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.憔悴的</t>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.进取心，魄力；精明强干</t>
+    <rPh sb="2" eb="3">
+      <t>jin qu xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>po li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing ming</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qiang gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.引起争论的，好辩的</t>
+    <rPh sb="4" eb="5">
+      <t>yin qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zheng lun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hao bian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.作呕，恶心</t>
+    <rPh sb="2" eb="3">
+      <t>zuo ou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.侧柱</t>
+    <rPh sb="2" eb="3">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.初学者，新手</t>
+    <rPh sb="2" eb="3">
+      <t>chu xue z</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.手镯，臂镯</t>
+    <rPh sb="2" eb="3">
+      <t>shou zhuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.传票  v.传讯</t>
+    <rPh sb="2" eb="3">
+      <t>chuan piao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grievous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grievance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statuary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nominate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrimp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blandishment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naysay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aspire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>betoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancillary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star-crossed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rambunctious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muzzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emissary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.痛苦的，悲伤的；极严重的</t>
+    <rPh sb="4" eb="5">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bei shang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yan zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.委屈，抱怨，牢骚</t>
+    <rPh sb="2" eb="3">
+      <t>wei qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao yuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lao sao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疯狂的</t>
+    <rPh sb="4" eb="5">
+      <t>feng kuang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.传唤；召集</t>
+    <rPh sb="2" eb="3">
+      <t>chuan huan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhao ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.雕像；雕像艺术</t>
+    <rPh sb="2" eb="3">
+      <t>diao xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>diao xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不足额；赤字</t>
+    <rPh sb="2" eb="3">
+      <t>bu zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chi zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.提名；任命，指定</t>
+    <rPh sb="2" eb="3">
+      <t>ti ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ren ming</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.总结，概要；总数，合计</t>
+    <rPh sb="2" eb="3">
+      <t>zong jie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gai yao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zong shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.审视，细看；浏览，扫描；标出格律</t>
+    <rPh sb="2" eb="3">
+      <t>shen shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi kan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu lan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sao miao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>biao chu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ge lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.出庭律师；律师</t>
+    <rPh sb="2" eb="3">
+      <t>chu ting</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lü shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lü s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.节省，精打细算</t>
+    <rPh sb="2" eb="3">
+      <t>jie sheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing da xi suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.颠倒顺序，调换</t>
+    <rPh sb="2" eb="3">
+      <t>dian dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shun xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.大声而刺耳地发出(叫唤或声音)</t>
+    <rPh sb="2" eb="3">
+      <t>da sheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci er</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jiao huan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>sheng yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奉承，讨好</t>
+    <rPh sb="2" eb="3">
+      <t>feng cheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.不满，抱怨</t>
+    <rPh sb="2" eb="3">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拒绝，否认，反对</t>
+    <rPh sb="2" eb="3">
+      <t>ju jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fou ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扑灭，熄灭；解 (渴);止(渴)</t>
+    <rPh sb="2" eb="3">
+      <t>pu mie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi mie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie ke</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渴望，追求，向往</t>
+    <rPh sb="2" eb="3">
+      <t>ke wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui qiu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预示，表示</t>
+    <rPh sb="2" eb="3">
+      <t>yu shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.伪造者；打铁匠</t>
+    <rPh sb="2" eb="3">
+      <t>wei zao zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da tie jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.辅助的 n.助手</t>
+    <rPh sb="4" eb="5">
+      <t>fu zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhu shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使暗淡，使模糊 adj.昏暗的，暗淡的</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an dan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mo hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hu nan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>an dan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.时运不济的</t>
+    <rPh sb="4" eb="5">
+      <t>shi yun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.类型，种类</t>
+    <rPh sb="2" eb="3">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骚乱的，喧闹的</t>
+    <rPh sb="4" eb="5">
+      <t>sao luan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xuan nao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.赦免，免除</t>
+    <rPh sb="2" eb="3">
+      <t>she mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.花费；用光</t>
+    <rPh sb="2" eb="3">
+      <t>hua fei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yong guang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.头脑糊涂的</t>
+    <rPh sb="4" eb="5">
+      <t>tou nao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hu t</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刮，擦；擦掉</t>
+    <rPh sb="2" eb="3">
+      <t>gua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ca</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ca diao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掠夺；垄断；折磨</t>
+    <rPh sb="2" eb="3">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>long duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.密使，特使</t>
+    <rPh sb="2" eb="3">
+      <t>mi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放弃，抛弃</t>
+    <rPh sb="2" eb="3">
+      <t>fang qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pao qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other-directed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevaricate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curfew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bovine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monopoly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preponderant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mawkish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disaffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conjoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.受人支配的</t>
+    <rPh sb="4" eb="5">
+      <t>shou ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi pei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.支吾其词，搪塞</t>
+    <rPh sb="4" eb="5">
+      <t>qi ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tang se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.掠夺的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>lue duo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.吸引人的花招，噱头</t>
+    <rPh sb="2" eb="3">
+      <t>xi yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua zhao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xue tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.宵禁</t>
+    <rPh sb="2" eb="3">
+      <t>xiao jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(似)牛的；迟钝的</t>
+    <rPh sb="5" eb="6">
+      <t>si</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>niu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi dun</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.垄断；专利权</t>
+    <rPh sb="2" eb="3">
+      <t>long duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan li quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.渗出，慢慢流出；洋溢</t>
+    <rPh sb="2" eb="3">
+      <t>shen chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>man man</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liu chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yang yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.占优势的，突出的，压倒性的</t>
+    <rPh sb="4" eb="5">
+      <t>zhan you shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ya dao xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自作多情的，过度伤感的；</t>
+    <rPh sb="4" eb="5">
+      <t>zi zuo duo qing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sahng gan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡而无味的，(味道上)令人作呕的</t>
+    <rPh sb="0" eb="1">
+      <t>dan er wu wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei dao shang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo ou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.盲从的</t>
+  </si>
+  <si>
+    <t>v.使不满；使疏远</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu man</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使结合</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jie he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻，缓和</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.竞争，争夺；争论，争辩</t>
+    <rPh sb="2" eb="3">
+      <t>jing zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng duo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zheng lun</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zheng bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.各式各样的，各种的</t>
+    <rPh sb="4" eb="5">
+      <t>ge shi ge yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ge zhong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.锤子，槌 v.锤击，锤打</t>
+    <rPh sb="2" eb="3">
+      <t>chui z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chui ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsurge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adulterate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>informed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verboten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superfluity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naysayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insolence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>empyreal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高涨，高潮</t>
+    <rPh sb="2" eb="3">
+      <t>gao zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吃得下；容忍</t>
+    <rPh sb="2" eb="3">
+      <t>chi de xia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.正式批准</t>
+    <rPh sb="2" eb="3">
+      <t>zheng shi pi zhun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.堤岸，防洪堤</t>
+    <rPh sb="2" eb="3">
+      <t>di</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang hong di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.配给  v.定量配给</t>
+    <rPh sb="2" eb="3">
+      <t>pei ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ding liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pei ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.掺杂，掺假  adj.掺杂的，掺假的</t>
+    <rPh sb="2" eb="3">
+      <t>chan za</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan jia</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chn za</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chan jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.慢吞吞地说  n.慢吞吞地说话方式</t>
+    <rPh sb="2" eb="3">
+      <t>man tun tun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>man tun tun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shuo hua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fang shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有学识的；见多识广的，消息灵通的</t>
+    <rPh sb="4" eb="5">
+      <t>you xue shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian duo shi guang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiao xi ling tong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.禁止的，严禁的</t>
+    <rPh sb="4" eb="5">
+      <t>jin zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.过剩</t>
+    <rPh sb="2" eb="3">
+      <t>guo sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.旋转的  v.旋转，回旋</t>
+    <rPh sb="4" eb="5">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疲乏，劳累</t>
+    <rPh sb="2" eb="3">
+      <t>pi fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lao lei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怀疑者，否定者</t>
+    <rPh sb="2" eb="3">
+      <t>huai yi zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fou ding zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.傲慢，无礼</t>
+    <rPh sb="2" eb="3">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.肢，翼</t>
+    <rPh sb="2" eb="3">
+      <t>zhi ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.天空的</t>
+    <rPh sb="4" eb="5">
+      <t>tian kong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.洪流，急流</t>
+    <rPh sb="2" eb="3">
+      <t>hong liu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.毒液；毒物；恶意</t>
+    <rPh sb="2" eb="3">
+      <t>du ye</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>du wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>e yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.竞争；质疑</t>
+    <rPh sb="2" eb="3">
+      <t>jing zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.制止，镇压</t>
+    <rPh sb="2" eb="3">
+      <t>zhi zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发出(光、热、声音等)</t>
+    <rPh sb="2" eb="3">
+      <t>fa chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>re</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.激发，刺激</t>
+    <rPh sb="2" eb="3">
+      <t>ji fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atheism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torrential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lassitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pauper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>splashy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piscatorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gleam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marsupial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejaculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idolatrize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gambol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rakish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gangway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vestment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.障碍物</t>
+    <rPh sb="2" eb="3">
+      <t>zhang ai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啃，咬；腐蚀，侵蚀</t>
+    <rPh sb="2" eb="3">
+      <t>kne</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qin shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conj.虽然，尽管</t>
+    <rPh sb="5" eb="6">
+      <t>sui ran</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.无神论，不信神</t>
+    <rPh sb="2" eb="3">
+      <t>wu shen lun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奔流的，洪流的，湍流的</t>
+    <rPh sb="4" eb="5">
+      <t>ben liu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hong liu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tuan liu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.绕过，回避</t>
+    <rPh sb="2" eb="3">
+      <t>rao guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疲倦无力，无精打采</t>
+    <rPh sb="2" eb="3">
+      <t>pi juan wu li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wu jing da cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.命令，法令  v.发布命令</t>
+    <rPh sb="2" eb="3">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa ling</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ming ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摇摆；旋转  n.秋千</t>
+    <rPh sb="2" eb="3">
+      <t>yao bai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qiu qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.贫民；乞丐</t>
+    <rPh sb="2" eb="3">
+      <t>pin min</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi gai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.容易溅开的；炫耀显眼的</t>
+    <rPh sb="4" eb="5">
+      <t>rong yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jian kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xuan yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xian yan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.捕鱼的，渔业的</t>
+    <rPh sb="4" eb="5">
+      <t>bu yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu ye</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v. 睡眠，安眠  n.安眠</t>
+    <rPh sb="3" eb="4">
+      <t>shui mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>an mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.同意，赞成</t>
+    <rPh sb="2" eb="3">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.微光，闪光  v.发微光，闪烁</t>
+    <rPh sb="2" eb="3">
+      <t>wei guang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan guang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei guang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shan shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./adj. 有袋动物(的)</t>
+    <rPh sb="8" eb="9">
+      <t>you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dong wu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突然叫出或说出；射出</t>
+    <rPh sb="2" eb="3">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shuo chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>she chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.残余，遗迹</t>
+    <rPh sb="2" eb="3">
+      <t>can yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.奉为偶像，盲目崇拜</t>
+    <rPh sb="2" eb="3">
+      <t>feng wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ou xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mang mu chong bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄脏，玷污  n.污点，污迹</t>
+    <rPh sb="2" eb="3">
+      <t>nong zang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wu dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wu ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v./n. 呻吟，叹息</t>
+    <rPh sb="6" eb="7">
+      <t>shen yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tan xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.欢乐的，快乐的</t>
+    <rPh sb="4" eb="5">
+      <t>huan le</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kuai le</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.混合，掺杂</t>
+    <rPh sb="2" eb="3">
+      <t>hun he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan za</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.迷宫</t>
+    <rPh sb="2" eb="3">
+      <t>mi gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.诽谤，中伤</t>
+    <rPh sb="2" eb="3">
+      <t>fei bang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong shng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.雀跃；嬉戏  v.雀跃；耍闹</t>
+    <rPh sb="2" eb="3">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shua nao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使悲伤，使难过</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nan guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.潇洒的；放荡的</t>
+    <rPh sb="4" eb="5">
+      <t>xiao sa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(上下船的)跳板；样板；旋梯</t>
+    <rPh sb="3" eb="4">
+      <t>shang xia chuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tiao ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yang ban</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xuan ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.官服，礼服；法衣，祭袍</t>
+    <rPh sb="2" eb="3">
+      <t>guan fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji si</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sideshow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonplace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waggish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firearm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lumen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicitous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cadence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interstice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chandelier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obstinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulverize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejuvenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudburst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desuetude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imputation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diligence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snappish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demented</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnipresent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.碰撞  n.碰撞声</t>
+    <rPh sb="2" eb="3">
+      <t>peng zhuang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>peng zhuang sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.杂耍，穿插表演</t>
+    <rPh sb="2" eb="3">
+      <t>za shua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chuan cha</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>biao yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偷看</t>
+    <rPh sb="2" eb="3">
+      <t>tou kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.衣服</t>
+    <rPh sb="2" eb="3">
+      <t>yi fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.普通的，平庸的</t>
+    <rPh sb="4" eb="5">
+      <t>pu tong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ping yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.慢慢前进，慢慢移动</t>
+    <rPh sb="2" eb="3">
+      <t>man man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian jin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>man man</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.诙谐的，滑稽的</t>
+    <rPh sb="4" eb="5">
+      <t>hui xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hua ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(便携式)枪支</t>
+    <rPh sb="3" eb="4">
+      <t>bian xie shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiang zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.流明(光通量单位)</t>
+    <rPh sb="2" eb="3">
+      <t>liu ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang tong liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.两面派的，奸诈的；双重的</t>
+    <rPh sb="4" eb="5">
+      <t>liang mian pai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian zha</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shuang chong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抑扬顿挫；节奏，韵律</t>
+    <rPh sb="2" eb="3">
+      <t>yi yang dun cuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie z</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yun lü</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裂隙，空隙</t>
+    <rPh sb="2" eb="3">
+      <t>lie xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.男子气概；刚强有力</t>
+    <rPh sb="2" eb="3">
+      <t>nan zi qi gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gang qiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>you li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.生病</t>
+    <rPh sb="2" eb="3">
+      <t>sheng bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.枝形吊灯(烛灯)</t>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao dneg</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.丑角；愚蠢的人</t>
+    <rPh sb="2" eb="3">
+      <t>chou jue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.余烬，煤渣</t>
+    <rPh sb="2" eb="3">
+      <t>yu jin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.固执的，倔强的</t>
+    <rPh sb="4" eb="5">
+      <t>gu zhi d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jue jiang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚实的；简洁的  n.合同，协议</t>
+    <rPh sb="4" eb="5">
+      <t>jian shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xie yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成粉末，粉碎；彻底击败</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen m</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen sui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>che di ji bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使痛苦，使难受</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>nan shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使变得年轻</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大暴雨</t>
+    <rPh sb="2" eb="3">
+      <t>da bao yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.废止，不用</t>
+    <rPh sb="2" eb="3">
+      <t>fei zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.归咎，归罪</t>
+    <rPh sb="2" eb="3">
+      <t>gui jiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui zui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.勤勉，勤奋</t>
+    <rPh sb="2" eb="3">
+      <t>qin mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qin fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.脾气暴躁的</t>
+    <rPh sb="4" eb="5">
+      <t>pi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao zao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.坚固的，结实的；实质的</t>
+    <rPh sb="4" eb="5">
+      <t>jian gu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无处不在的</t>
+    <rPh sb="4" eb="5">
+      <t>wu chu bu ai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.扭伤</t>
+    <rPh sb="2" eb="3">
+      <t>niu qu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.深入探究，钻研</t>
+    <rPh sb="2" eb="3">
+      <t>shen ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tan jiu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.宣告无罪；脱卸义务和责任</t>
+    <rPh sb="2" eb="3">
+      <t>xuan gao wu zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tuo xie</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi wu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>he</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ze ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还清(债务)</t>
+    <rPh sb="0" eb="1">
+      <t>huan qing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhai wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.高射炮；抨击</t>
+    <rPh sb="2" eb="3">
+      <t>gao she pao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>peng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hortative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propulsion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nonplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutinous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vilify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chicanery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiscal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medieval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palatial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disheveled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inebriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>askew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expeditious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colloquy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>erect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vapid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profligate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>militia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belligerence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despotism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dingy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortgage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laxative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devotee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.长篇的攻击性演说</t>
+    <rPh sb="2" eb="3">
+      <t>chang pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong ji xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.劝告的；激励的</t>
+    <rPh sb="4" eb="5">
+      <t>quan gao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(头发)灰白的；古老的</t>
+    <rPh sb="5" eb="6">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui bai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gu lao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.推进力</t>
+    <rPh sb="2" eb="3">
+      <t>tui jin li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.锻炼；调和，使缓和  n.脾气，性情</t>
+    <rPh sb="2" eb="3">
+      <t>duan lian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tiao he</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>p qi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xing qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使困惑  n.迷惑，困惑</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kun huo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mi huo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kun huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.叛变的；反抗的</t>
+    <rPh sb="4" eb="5">
+      <t>pan bian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan kang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.辱骂，诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>ru ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.干旱，旱灾；干旱期</t>
+    <rPh sb="2" eb="3">
+      <t>gan han</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>han zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan han qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗，欺诈</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi zha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.摇摇欲坠；步履蹒跚</t>
+    <rPh sb="2" eb="3">
+      <t>yao yao yu zui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu lü pan shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.国库的；财政的</t>
+    <rPh sb="4" eb="5">
+      <t>guo ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cai zheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.中世纪的，中古的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong shi ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong gu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.宫殿般的；宏伟的</t>
+    <rPh sb="4" eb="5">
+      <t>gong dian ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hong wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.含糊不清地讲</t>
+    <rPh sb="2" eb="3">
+      <t>han hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(头发、服装等)不整的，凌乱的</t>
+    <rPh sb="5" eb="6">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu zhuang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bu zheng ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zheng jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ling luan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使……醉  n.酒鬼，酒徒</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu gui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiu tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.暴露  adj.赤裸的</t>
+    <rPh sb="2" eb="3">
+      <t>bao lu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chi luo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.发泄，报复；发泄怒火</t>
+    <rPh sb="2" eb="3">
+      <t>fa xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa xie nu huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.弱小的，孱弱的</t>
+    <rPh sb="4" eb="5">
+      <t>ruo xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan ruo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv. 歪斜的(地)</t>
+    <rPh sb="10" eb="11">
+      <t>wai xie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.旋转；纺纱  n.旋转</t>
+    <rPh sb="2" eb="3">
+      <t>xuan zhuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fang sha</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan zhuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.迅速的，敏捷的</t>
+    <rPh sb="4" eb="5">
+      <t>xun su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>min jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.变得憔悴，消瘦</t>
+    <rPh sb="2" eb="3">
+      <t>bian de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(非正式的)交谈，会谈</t>
+    <rPh sb="3" eb="4">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao tan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>hui tan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.步枪 v.抢夺，偷走</t>
+    <rPh sb="2" eb="3">
+      <t>bu qiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiang duo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tou zou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.竖立的，笔直的</t>
+    <rPh sb="4" eb="5">
+      <t>shu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi zhi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.索然无味的，无生气的</t>
+    <rPh sb="4" eb="5">
+      <t>suo ran wu wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu sheng qi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.挥霍的，浪费的  n.恣意挥霍者</t>
+    <rPh sb="4" eb="5">
+      <t>hui huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lang fei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zi yi hui huo</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.民兵</t>
+    <rPh sb="2" eb="3">
+      <t>min bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.交战；好战性，斗争性</t>
+    <rPh sb="2" eb="3">
+      <t>jiao zhan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao zhan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dou zheng xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.专政；暴政</t>
+    <rPh sb="2" eb="3">
+      <t>zhuan zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bao zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.肮脏的，昏暗的</t>
+    <rPh sb="4" eb="5">
+      <t>ang zang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hu nan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.环境，气氛</t>
+    <rPh sb="2" eb="3">
+      <t>huan jing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抵押；抵押证书  v.用……作抵押</t>
+    <rPh sb="2" eb="3">
+      <t>di ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di ya</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>di ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.天蓝色  adj.蔚蓝的</t>
+    <rPh sb="2" eb="3">
+      <t>tian lan se</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei lan se</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(药)通便的  n.轻泻药</t>
+    <rPh sb="5" eb="6">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong bian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.撕开的，分裂的</t>
+    <rPh sb="4" eb="5">
+      <t>si kai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fen lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.爱好者，献身者</t>
+    <rPh sb="2" eb="3">
+      <t>ai hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian shen zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.水泥；黏合剂  v.黏合，巩固</t>
+    <rPh sb="2" eb="3">
+      <t>shui ni</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nian he ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nian he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gong gu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6244,10 +12957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B332"/>
+  <dimension ref="A1:B718"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A313" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A701" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B718" sqref="B718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8882,6 +15595,3070 @@
         <v>653</v>
       </c>
     </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>654</v>
+      </c>
+      <c r="B333" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>655</v>
+      </c>
+      <c r="B334" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>656</v>
+      </c>
+      <c r="B335" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>657</v>
+      </c>
+      <c r="B336" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>658</v>
+      </c>
+      <c r="B337" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>659</v>
+      </c>
+      <c r="B338" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>660</v>
+      </c>
+      <c r="B339" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>661</v>
+      </c>
+      <c r="B340" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>662</v>
+      </c>
+      <c r="B341" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>663</v>
+      </c>
+      <c r="B342" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>664</v>
+      </c>
+      <c r="B343" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>665</v>
+      </c>
+      <c r="B344" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>666</v>
+      </c>
+      <c r="B345" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>667</v>
+      </c>
+      <c r="B346" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>668</v>
+      </c>
+      <c r="B347" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>669</v>
+      </c>
+      <c r="B348" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>670</v>
+      </c>
+      <c r="B349" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>671</v>
+      </c>
+      <c r="B350" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>672</v>
+      </c>
+      <c r="B351" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>673</v>
+      </c>
+      <c r="B352" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>674</v>
+      </c>
+      <c r="B354" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>675</v>
+      </c>
+      <c r="B355" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>676</v>
+      </c>
+      <c r="B356" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>677</v>
+      </c>
+      <c r="B357" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>678</v>
+      </c>
+      <c r="B358" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>679</v>
+      </c>
+      <c r="B359" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>680</v>
+      </c>
+      <c r="B360" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>681</v>
+      </c>
+      <c r="B361" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>682</v>
+      </c>
+      <c r="B362" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>683</v>
+      </c>
+      <c r="B363" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>684</v>
+      </c>
+      <c r="B364" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>717</v>
+      </c>
+      <c r="B365" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>718</v>
+      </c>
+      <c r="B366" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>719</v>
+      </c>
+      <c r="B367" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>720</v>
+      </c>
+      <c r="B368" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>721</v>
+      </c>
+      <c r="B369" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>722</v>
+      </c>
+      <c r="B370" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>723</v>
+      </c>
+      <c r="B371" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>724</v>
+      </c>
+      <c r="B372" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>725</v>
+      </c>
+      <c r="B373" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>726</v>
+      </c>
+      <c r="B374" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>727</v>
+      </c>
+      <c r="B375" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>728</v>
+      </c>
+      <c r="B376" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>729</v>
+      </c>
+      <c r="B377" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>730</v>
+      </c>
+      <c r="B378" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>731</v>
+      </c>
+      <c r="B379" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>732</v>
+      </c>
+      <c r="B380" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>733</v>
+      </c>
+      <c r="B381" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>734</v>
+      </c>
+      <c r="B382" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>735</v>
+      </c>
+      <c r="B383" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>736</v>
+      </c>
+      <c r="B384" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>737</v>
+      </c>
+      <c r="B385" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>738</v>
+      </c>
+      <c r="B386" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>739</v>
+      </c>
+      <c r="B387" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>740</v>
+      </c>
+      <c r="B388" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>741</v>
+      </c>
+      <c r="B389" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>742</v>
+      </c>
+      <c r="B390" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>743</v>
+      </c>
+      <c r="B391" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>744</v>
+      </c>
+      <c r="B392" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>745</v>
+      </c>
+      <c r="B393" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>775</v>
+      </c>
+      <c r="B394" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>776</v>
+      </c>
+      <c r="B395" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>777</v>
+      </c>
+      <c r="B396" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>778</v>
+      </c>
+      <c r="B397" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>779</v>
+      </c>
+      <c r="B398" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>780</v>
+      </c>
+      <c r="B399" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>781</v>
+      </c>
+      <c r="B400" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>782</v>
+      </c>
+      <c r="B401" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>783</v>
+      </c>
+      <c r="B402" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>784</v>
+      </c>
+      <c r="B403" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>785</v>
+      </c>
+      <c r="B404" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>786</v>
+      </c>
+      <c r="B405" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>787</v>
+      </c>
+      <c r="B406" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>788</v>
+      </c>
+      <c r="B407" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>789</v>
+      </c>
+      <c r="B408" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>790</v>
+      </c>
+      <c r="B409" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>791</v>
+      </c>
+      <c r="B410" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>792</v>
+      </c>
+      <c r="B411" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>793</v>
+      </c>
+      <c r="B412" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>794</v>
+      </c>
+      <c r="B413" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>795</v>
+      </c>
+      <c r="B414" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>796</v>
+      </c>
+      <c r="B415" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>797</v>
+      </c>
+      <c r="B416" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>798</v>
+      </c>
+      <c r="B417" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>799</v>
+      </c>
+      <c r="B418" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>800</v>
+      </c>
+      <c r="B419" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>827</v>
+      </c>
+      <c r="B420" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>828</v>
+      </c>
+      <c r="B421" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>829</v>
+      </c>
+      <c r="B422" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>830</v>
+      </c>
+      <c r="B423" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>831</v>
+      </c>
+      <c r="B424" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>832</v>
+      </c>
+      <c r="B425" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>833</v>
+      </c>
+      <c r="B426" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>834</v>
+      </c>
+      <c r="B427" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>835</v>
+      </c>
+      <c r="B428" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>836</v>
+      </c>
+      <c r="B429" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>838</v>
+      </c>
+      <c r="B431" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>839</v>
+      </c>
+      <c r="B432" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>840</v>
+      </c>
+      <c r="B433" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>841</v>
+      </c>
+      <c r="B434" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>842</v>
+      </c>
+      <c r="B435" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>843</v>
+      </c>
+      <c r="B437" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>844</v>
+      </c>
+      <c r="B438" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>863</v>
+      </c>
+      <c r="B439" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>864</v>
+      </c>
+      <c r="B440" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>865</v>
+      </c>
+      <c r="B442" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>866</v>
+      </c>
+      <c r="B443" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>867</v>
+      </c>
+      <c r="B444" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>868</v>
+      </c>
+      <c r="B445" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>869</v>
+      </c>
+      <c r="B446" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>870</v>
+      </c>
+      <c r="B447" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>871</v>
+      </c>
+      <c r="B448" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>872</v>
+      </c>
+      <c r="B449" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>873</v>
+      </c>
+      <c r="B450" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>874</v>
+      </c>
+      <c r="B451" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>875</v>
+      </c>
+      <c r="B452" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>876</v>
+      </c>
+      <c r="B453" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>877</v>
+      </c>
+      <c r="B454" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>878</v>
+      </c>
+      <c r="B455" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>879</v>
+      </c>
+      <c r="B456" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>880</v>
+      </c>
+      <c r="B457" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>882</v>
+      </c>
+      <c r="B458" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>881</v>
+      </c>
+      <c r="B459" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>883</v>
+      </c>
+      <c r="B460" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>884</v>
+      </c>
+      <c r="B461" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>885</v>
+      </c>
+      <c r="B462" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>886</v>
+      </c>
+      <c r="B463" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>887</v>
+      </c>
+      <c r="B464" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>888</v>
+      </c>
+      <c r="B465" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>889</v>
+      </c>
+      <c r="B466" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>890</v>
+      </c>
+      <c r="B467" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>891</v>
+      </c>
+      <c r="B468" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>892</v>
+      </c>
+      <c r="B469" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>893</v>
+      </c>
+      <c r="B470" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>894</v>
+      </c>
+      <c r="B471" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>895</v>
+      </c>
+      <c r="B472" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>930</v>
+      </c>
+      <c r="B473" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>931</v>
+      </c>
+      <c r="B474" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>932</v>
+      </c>
+      <c r="B475" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>933</v>
+      </c>
+      <c r="B476" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>934</v>
+      </c>
+      <c r="B477" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>935</v>
+      </c>
+      <c r="B478" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>936</v>
+      </c>
+      <c r="B479" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>937</v>
+      </c>
+      <c r="B480" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>938</v>
+      </c>
+      <c r="B481" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>939</v>
+      </c>
+      <c r="B482" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>940</v>
+      </c>
+      <c r="B483" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>941</v>
+      </c>
+      <c r="B484" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>942</v>
+      </c>
+      <c r="B485" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>943</v>
+      </c>
+      <c r="B486" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>944</v>
+      </c>
+      <c r="B487" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>945</v>
+      </c>
+      <c r="B488" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>946</v>
+      </c>
+      <c r="B489" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B490" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>947</v>
+      </c>
+      <c r="B491" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>948</v>
+      </c>
+      <c r="B492" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>949</v>
+      </c>
+      <c r="B493" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>950</v>
+      </c>
+      <c r="B494" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>951</v>
+      </c>
+      <c r="B495" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>952</v>
+      </c>
+      <c r="B496" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>953</v>
+      </c>
+      <c r="B497" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>954</v>
+      </c>
+      <c r="B498" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>955</v>
+      </c>
+      <c r="B499" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>956</v>
+      </c>
+      <c r="B500" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>957</v>
+      </c>
+      <c r="B501" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>958</v>
+      </c>
+      <c r="B502" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>959</v>
+      </c>
+      <c r="B503" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>960</v>
+      </c>
+      <c r="B504" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>961</v>
+      </c>
+      <c r="B505" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>962</v>
+      </c>
+      <c r="B506" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>963</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>964</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>965</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B512" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B584" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B677" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1415</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2692">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22626,6 +22626,1519 @@
     <rPh sb="10" eb="11">
       <t>de</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unconscionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rendition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quibble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rapport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disfigure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hankering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbraid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crudity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlandish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remunerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highbrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-bodied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incongruent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whirlpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>massive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monocle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.悬荡，悬摆；吊胃口</t>
+    <rPh sb="8" eb="9">
+      <t>diao wei kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消除……的疲劳，使精神振作</t>
+    <rPh sb="2" eb="3">
+      <t>xiao chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pi lao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jing shen zhen zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.无节制的，过度的，不合理的</t>
+    <rPh sb="4" eb="5">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu he li</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.表演，演唱</t>
+    <rPh sb="2" eb="3">
+      <t>biao yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.配给，分配</t>
+    <rPh sb="2" eb="3">
+      <t>pei ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen pei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.遁词；</t>
+    <rPh sb="2" eb="3">
+      <t>dun ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹毛求疵的反对意见或批评</t>
+    <rPh sb="0" eb="1">
+      <t>chui mao qiu ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan dui yi jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pi ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.独白；长篇演说，长篇大论</t>
+    <rPh sb="2" eb="3">
+      <t>du bai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chang pian yan shuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chang pian da lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.融洽，和谐</t>
+    <rPh sb="2" eb="3">
+      <t>rong he</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.夸大的广告宣传</t>
+    <rPh sb="2" eb="3">
+      <t>kua da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang gao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.损毁……的外形；使变丑</t>
+    <rPh sb="2" eb="3">
+      <t>sun hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wai xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bian chou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.渴望，向往</t>
+    <rPh sb="2" eb="3">
+      <t>ke wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang wang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.斥责，责骂</t>
+    <rPh sb="2" eb="3">
+      <t>chi ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ze ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.粗糙，生硬</t>
+    <rPh sb="2" eb="3">
+      <t>cu cao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.榨取</t>
+    <rPh sb="2" eb="3">
+      <t>zha qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.古怪的</t>
+    <rPh sb="4" eb="5">
+      <t>gu guai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.格言，声明</t>
+    <rPh sb="2" eb="3">
+      <t>ge yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.／v. 散步，开车兜风</t>
+    <rPh sb="6" eb="7">
+      <t>san bu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai che</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dou feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.自负的；徒劳的</t>
+    <rPh sb="4" eb="5">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tu lao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.酬劳，赔偿</t>
+    <rPh sb="2" eb="3">
+      <t>chou lao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pei chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.恢复的</t>
+    <rPh sb="4" eb="5">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自以为文化修养很高的人</t>
+    <rPh sb="2" eb="3">
+      <t>zi yi wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu yang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hen gao de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>rne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.魁梧的；(味道)浓烈的；重要的</t>
+    <rPh sb="4" eb="5">
+      <t>kui wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei dao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nong lie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong yao</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不协调的，不和谐的，不合理的</t>
+    <rPh sb="4" eb="5">
+      <t>bu xie tiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu he xie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu he li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.漩涡</t>
+    <rPh sb="2" eb="3">
+      <t>xuan wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巨大的，厚重的</t>
+    <rPh sb="4" eb="5">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hou zhong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.单片眼镜</t>
+    <rPh sb="2" eb="3">
+      <t>dan pian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.从底层支持，加固……的底部</t>
+    <rPh sb="2" eb="3">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>di ceng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jia gu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>di bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palliative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huffy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herbivorous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vagary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idolize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>petty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pontifical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haggard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comestible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>munition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>votary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neurology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecstasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gladiator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osseous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulcer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tightfisted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.缓释剂  adj.减轻的，缓和的</t>
+    <rPh sb="2" eb="3">
+      <t>huan shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huan he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.齐发，群射  v.齐发，群射；截击</t>
+    <rPh sb="2" eb="3">
+      <t>qi fa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qun she</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.蜿蜒而流；漫步</t>
+    <rPh sb="2" eb="3">
+      <t>wan yan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>er</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>man bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.愤怒的，恼怒的</t>
+    <rPh sb="4" eb="5">
+      <t>fen nu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nao nu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.食草的</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.奇想，异想天开</t>
+    <rPh sb="2" eb="3">
+      <t>qi xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi xiang tian kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.狙击</t>
+    <rPh sb="2" eb="3">
+      <t>ju ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.将……当作偶像崇拜</t>
+    <rPh sb="2" eb="3">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dang zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ou xiang chong bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度仰慕，崇拜</t>
+    <rPh sb="0" eb="1">
+      <t>ji du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yang mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.幼兽；笨手笨脚的年轻人</t>
+    <rPh sb="2" eb="3">
+      <t>you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ben shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>nian qing ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.马的，似马的</t>
+    <rPh sb="4" eb="5">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.琐碎的，次要的；小气的</t>
+    <rPh sb="4" eb="5">
+      <t>suo sui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci yao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao qi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.垫子，席子  v.(使)缠绕；铺席于……上</t>
+    <rPh sb="2" eb="3">
+      <t>dian zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi zi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chan rao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严肃的，矜持的</t>
+    <rPh sb="4" eb="5">
+      <t>yan su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jin chi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恢复，振作；打扮；竖起</t>
+    <rPh sb="2" eb="3">
+      <t>hui f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen zuo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>da ban</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.回答，答辩</t>
+    <rPh sb="2" eb="3">
+      <t>hui da</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.教皇的；自负的；武断的</t>
+    <rPh sb="4" eb="5">
+      <t>jiao huang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zi fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu duan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.憔悴的，消瘦的</t>
+    <rPh sb="4" eb="5">
+      <t>qiao cui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.食物，食品  adj.可吃的</t>
+    <rPh sb="2" eb="3">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi pin</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ke chi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.军火，军需品</t>
+    <rPh sb="2" eb="3">
+      <t>jun huo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jun xu pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.崇拜者，热心支持者</t>
+    <rPh sb="2" eb="3">
+      <t>chong bai zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>re xin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi chi zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.神经学</t>
+    <rPh sb="2" eb="3">
+      <t>shen jing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欺凌，威吓</t>
+    <rPh sb="2" eb="3">
+      <t>qi ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狂喜；出神，入迷</t>
+    <rPh sb="2" eb="3">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chu shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ru mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.趾高气昂地走  n.支柱</t>
+    <rPh sb="2" eb="3">
+      <t>zhi gao qi ang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.角斗士，与野兽搏斗者</t>
+    <rPh sb="2" eb="3">
+      <t>jiao dou shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ye shou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bo dou zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.骨的，多骨的</t>
+    <rPh sb="4" eb="5">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.溃疡；腐烂物</t>
+    <rPh sb="2" eb="3">
+      <t>kui yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.烤箱，烤炉，灶</t>
+    <rPh sb="2" eb="3">
+      <t>kao xiang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kao lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.干涉，介入</t>
+    <rPh sb="2" eb="3">
+      <t>gann s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻拍，轻扣；使上下快速摆动</t>
+    <rPh sb="2" eb="3">
+      <t>qing pai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qing kou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang xia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bai dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.短暂、突然且猛烈的风暴</t>
+    <rPh sb="2" eb="3">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu rna</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>feng bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂的骚动</t>
+    <rPh sb="0" eb="1">
+      <t>duan zan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sao dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吝啬的</t>
+    <rPh sb="4" eb="5">
+      <t>lin se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potpourri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jockey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fissile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gulch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unearthly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>progenitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recherche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>philately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.欣喜，高兴</t>
+    <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gao xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.混合物，杂烩</t>
+    <rPh sb="2" eb="3">
+      <t>hun he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>za hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.香草，香子兰</t>
+    <rPh sb="2" eb="3">
+      <t>xiang cao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiang zi lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.骑师  v.谋取</t>
+    <rPh sb="2" eb="3">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mou qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.易分裂的</t>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.放荡的，无节制的</t>
+    <rPh sb="4" eb="5">
+      <t>fang dang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu jie zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.深谷，峡谷</t>
+    <rPh sb="2" eb="3">
+      <t>shen gu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.奇异的</t>
+    <rPh sb="4" eb="5">
+      <t>qi yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.花招，策略</t>
+    <rPh sb="2" eb="3">
+      <t>hua zhoa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce lue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.果仁，核心</t>
+    <rPh sb="2" eb="3">
+      <t>guo ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻微的，微小的</t>
+    <rPh sb="4" eb="5">
+      <t>qing wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei xiao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.怠慢，冷落</t>
+    <rPh sb="2" eb="3">
+      <t>dai man</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>leng luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.冒犯他人的行为、言语等</t>
+    <rPh sb="2" eb="3">
+      <t>mao fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ta ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.祖先</t>
+    <rPh sb="2" eb="3">
+      <t>zu xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.变直；轻松行事，放松</t>
+    <rPh sb="5" eb="6">
+      <t>qing song</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.精心挑选的；异国风味的</t>
+    <rPh sb="4" eb="5">
+      <t>jing xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tiao xuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>feng wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.集邮</t>
+    <rPh sb="2" eb="3">
+      <t>ji you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deflect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ugly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesticulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjunct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniquity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teetotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hangdog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecumenical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravitate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epigram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savvy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opalescence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renunciate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renege</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conducive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debonair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lachrymose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormancy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -22952,10 +24465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1295"/>
+  <dimension ref="A1:B1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1277" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1296" sqref="B1296"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1384" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A1394" sqref="A1394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33086,8 +34599,771 @@
         <v>2510</v>
       </c>
     </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1302" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1332" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1356" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1369" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1370" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>2691</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A310:B310"/>
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
     <mergeCell ref="A1000:B1000"/>
@@ -33097,12 +35373,6 @@
     <mergeCell ref="A597:B597"/>
     <mergeCell ref="A671:B671"/>
     <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A310:B310"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="2814">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24139,6 +24139,1229 @@
   </si>
   <si>
     <t>dormancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.偏离，转向</t>
+    <rPh sb="2" eb="3">
+      <t>pian li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小树林，树丛</t>
+    <rPh sb="2" eb="3">
+      <t>xiao shu lin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.缺乏的；穷困的</t>
+    <rPh sb="4" eb="5">
+      <t>que fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiong kun</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.令人不愉快的，难看的</t>
+    <rPh sb="4" eb="5">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu yu kuai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nan kan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.做手势表达</t>
+    <rPh sb="2" eb="3">
+      <t>zuo shou shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.附加物，附件</t>
+    <rPh sb="2" eb="3">
+      <t>fu jia wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.邪恶，不公正，不道德</t>
+    <rPh sb="2" eb="3">
+      <t>xie e</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu gong zheng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu dao de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.滴酒不沾的；完全的，全部的</t>
+    <rPh sb="4" eb="5">
+      <t>di jiu bu zhan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.气旋，飓风</t>
+    <rPh sb="2" eb="3">
+      <t>qi xuan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ju feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧愁的；低贱的</t>
+    <rPh sb="4" eb="5">
+      <t>you chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.布道，讲道</t>
+    <rPh sb="2" eb="3">
+      <t>bu dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.毁坏，毁损，(通过切、压等)损坏</t>
+    <rPh sb="2" eb="3">
+      <t>hui huai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ya</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.世界范围的，普遍的</t>
+    <rPh sb="4" eb="5">
+      <t>shi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>pu bian de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使眼色，眨眼示意  n.眨眼，眼色</t>
+    <rPh sb="2" eb="3">
+      <t>shi yan se</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zha yan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yan se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.被强烈地吸引</t>
+    <rPh sb="2" eb="3">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiang lie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受重力／阴历作用而运动</t>
+    <rPh sb="0" eb="1">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhong li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>er</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yun dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讽刺短诗，警句</t>
+    <rPh sb="2" eb="3">
+      <t>feng ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>duan shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有见识的，精明的</t>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jing ming</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.乳白光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.轻轻倒出</t>
+    <rPh sb="2" eb="3">
+      <t>qing qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dao chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.清洗，洗涤</t>
+    <rPh sb="2" eb="3">
+      <t>qing xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.放弃</t>
+    <rPh sb="2" eb="3">
+      <t>fang qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.污迹；黑穗病  v.弄脏</t>
+    <rPh sb="2" eb="3">
+      <t>wu ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nong zhang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.食言，违约</t>
+    <rPh sb="2" eb="3">
+      <t>shi yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.有助于……的，有益的</t>
+    <rPh sb="4" eb="5">
+      <t>you zhu yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>you yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.显著的，显而易见的</t>
+    <rPh sb="4" eb="5">
+      <t>xian zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian er yi jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.美丽的；温雅的</t>
+    <rPh sb="4" eb="5">
+      <t>mei li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen ya</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.爱哭的；引人落泪的</t>
+    <rPh sb="4" eb="5">
+      <t>ai ku</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin ren luo lei de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.休眠状态</t>
+    <rPh sb="2" eb="3">
+      <t>xiu mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuang tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rinse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annihilate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>besmirch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itermittent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremulous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggrieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravenous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asteroid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animadvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despoil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amnesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piecemeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lexical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>escalation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frowzy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jostle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disgruntle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fleet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hectic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harrowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taboo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vintage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.冲洗掉，漂洗</t>
+    <rPh sb="2" eb="3">
+      <t>chong xi diao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>piao xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.绘画的；用图片的</t>
+    <rPh sb="4" eb="5">
+      <t>hui hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tu pian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消灭</t>
+    <rPh sb="2" eb="3">
+      <t>xiao mie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸入；沉浸于</t>
+    <rPh sb="2" eb="3">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chen jin yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.诽谤</t>
+    <rPh sb="2" eb="3">
+      <t>fei bang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.断断续续的；间歇的</t>
+    <rPh sb="4" eb="5">
+      <t>duan duan xu xu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian xie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.颤动的</t>
+    <rPh sb="4" eb="5">
+      <t>chan dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.护目镜  v.瞪大眼睛看</t>
+    <rPh sb="2" eb="3">
+      <t>hu mu jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>kan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使受委屈，使痛苦</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tong ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.饥饿的；贪婪的</t>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tan lan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.玩乐，戏耍  n.玩乐</t>
+    <rPh sb="2" eb="3">
+      <t>wan le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi shua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.完全的；陡峭的；极薄的</t>
+    <rPh sb="4" eb="5">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dou qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小行星</t>
+    <rPh sb="2" eb="3">
+      <t>xiao xing xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.前言，序言；先兆</t>
+    <rPh sb="2" eb="3">
+      <t>qian yan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xu yan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.公平，公正</t>
+    <rPh sb="2" eb="3">
+      <t>gog ping</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.苛责，非难</t>
+    <rPh sb="2" eb="3">
+      <t>ke ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.夺取，抢夺</t>
+    <rPh sb="2" eb="3">
+      <t>duo qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang duo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.大赦，特赦</t>
+    <rPh sb="2" eb="3">
+      <t>da she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>te she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.威信，威望；影响力</t>
+    <rPh sb="2" eb="3">
+      <t>wei xin</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei wang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ying xiang li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.一件一件的，零碎的</t>
+    <rPh sb="4" eb="5">
+      <t>yi jian yi jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ling sui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.词汇的；词典的</t>
+    <rPh sb="4" eb="5">
+      <t>ci hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.逐步上升，逐步扩大</t>
+    <rPh sb="2" eb="3">
+      <t>zhu bu shang sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu bu kuo da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不整洁的，污秽的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zheng jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.排除；取消(抵押品的)赎回权</t>
+    <rPh sb="2" eb="3">
+      <t>pai chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qu xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di ya pin</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu hui quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.推挤；挤开通路</t>
+    <rPh sb="2" eb="3">
+      <t>tui ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji kai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 雀跃，跳跃</t>
+    <rPh sb="6" eb="7">
+      <t>que yue</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使不高兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stricture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.严厉谴责；束缚</t>
+    <rPh sb="2" eb="3">
+      <t>yan li qian ze</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.快速的 </t>
+    <rPh sb="4" eb="5">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.消磨，疾驰；飞逝，掠过</t>
+    <rPh sb="2" eb="3">
+      <t>xiao mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji chi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lue guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.兴奋的，繁忙的，忙乱的</t>
+    <rPh sb="4" eb="5">
+      <t>xing fen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fan mang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mang luan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.窥视的；好奇的；怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>kui shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huai yi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.摄取，吸收</t>
+    <rPh sb="2" eb="3">
+      <t>she qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.腌制，熏制</t>
+    <rPh sb="2" eb="3">
+      <t>yan zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xun zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.悲痛的，难受的</t>
+    <rPh sb="4" eb="5">
+      <t>bei tong de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>nan shou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忌讳的  n.禁忌</t>
+    <rPh sb="4" eb="5">
+      <t>ji hui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jin ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.经典的；最好的</t>
+    <rPh sb="4" eb="5">
+      <t>jing dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zui hoa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trumpery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infringe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oblige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.疲劳的，疲倦的</t>
+    <rPh sb="4" eb="5">
+      <t>pi lao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pi juan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人厌烦的，令人厌倦的</t>
+    <rPh sb="0" eb="1">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan fan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan juan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(使)厌烦，(使)疲倦</t>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pi juan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">n.小袋 </t>
+    <rPh sb="2" eb="3">
+      <t>xiao dai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成袋状；将(某物)装入袋中</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mou wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhuang ru dai zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.中看不中用的</t>
+    <rPh sb="4" eb="5">
+      <t>zhong kan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu zhong yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.违反，侵害</t>
+    <rPh sb="2" eb="3">
+      <t>wei fan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qin hai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.置于……之间；使介入</t>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.强迫，强制；施恩惠于……</t>
+    <rPh sb="2" eb="3">
+      <t>qiang po</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiang zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>en hui</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24465,10 +25688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1402"/>
+  <dimension ref="A1:B1459"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1384" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A1394" sqref="A1394"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1440" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C1445" sqref="C1445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33435,1935 +34658,2409 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1149" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>2230</v>
-      </c>
-    </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1150" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>2231</v>
-      </c>
+      <c r="A1150" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1150" s="1"/>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="B1151" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B1152" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B1153" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="B1154" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="B1155" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="B1156" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2238</v>
+        <v>2223</v>
       </c>
       <c r="B1157" t="s">
-        <v>2265</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="B1158" t="s">
-        <v>2266</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B1159" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="B1160" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="B1161" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B1162" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B1163" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B1164" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B1165" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B1166" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B1167" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B1168" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="B1169" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B1170" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B1171" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B1172" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="B1173" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B1174" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B1175" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B1176" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B1177" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B1178" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B1179" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B1180" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B1181" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B1182" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B1183" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2292</v>
+        <v>2263</v>
       </c>
       <c r="B1184" t="s">
-        <v>2323</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2293</v>
+        <v>2264</v>
       </c>
       <c r="B1185" t="s">
-        <v>2324</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B1186" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B1187" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B1188" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B1189" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B1190" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B1191" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B1192" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B1193" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B1194" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B1195" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B1196" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B1197" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B1198" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B1199" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="B1200" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B1201" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B1202" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B1203" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B1204" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B1205" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1206" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B1207" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1208" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B1209" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B1210" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B1211" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B1212" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B1213" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>2320</v>
+      </c>
       <c r="B1214" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1215" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1216" t="s">
-        <v>2355</v>
-      </c>
       <c r="B1216" t="s">
-        <v>2381</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2356</v>
+        <v>2322</v>
       </c>
       <c r="B1217" t="s">
-        <v>2382</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1218" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B1219" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1220" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B1221" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1222" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1223" t="s">
-        <v>2362</v>
-      </c>
-      <c r="B1223" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1224" t="s">
-        <v>2363</v>
-      </c>
-      <c r="B1224" t="s">
-        <v>2389</v>
-      </c>
+      <c r="A1224" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1224" s="1"/>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B1225" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="B1226" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B1227" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="B1228" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="B1229" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="B1230" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="B1231" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="B1232" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="B1233" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="B1234" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B1235" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="B1236" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="B1237" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B1238" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B1239" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="B1240" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="B1241" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2407</v>
+        <v>2377</v>
       </c>
       <c r="B1242" t="s">
-        <v>2436</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2408</v>
+        <v>2378</v>
       </c>
       <c r="B1243" t="s">
-        <v>2437</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2409</v>
+        <v>2379</v>
       </c>
       <c r="B1244" t="s">
-        <v>2438</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2410</v>
+        <v>2380</v>
       </c>
       <c r="B1245" t="s">
-        <v>2439</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B1246" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B1247" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B1248" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="B1249" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B1250" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B1251" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B1252" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="B1253" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>2415</v>
+      </c>
       <c r="B1254" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="B1255" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2420</v>
+        <v>2417</v>
       </c>
       <c r="B1256" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2421</v>
+        <v>2418</v>
       </c>
       <c r="B1257" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1258" t="s">
-        <v>2422</v>
-      </c>
       <c r="B1258" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="B1259" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B1260" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="B1261" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="B1262" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="B1263" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B1264" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="B1265" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="B1266" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="B1267" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>2428</v>
+      </c>
       <c r="B1268" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="B1269" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2433</v>
+        <v>2430</v>
       </c>
       <c r="B1270" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2434</v>
+        <v>2431</v>
       </c>
       <c r="B1271" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1272" t="s">
-        <v>2435</v>
-      </c>
       <c r="B1272" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>2432</v>
+      </c>
       <c r="B1273" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>2468</v>
+        <v>2433</v>
       </c>
       <c r="B1274" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2469</v>
+        <v>2434</v>
       </c>
       <c r="B1275" t="s">
-        <v>2491</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2470</v>
+        <v>2435</v>
       </c>
       <c r="B1276" t="s">
-        <v>2492</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1277" t="s">
-        <v>2471</v>
-      </c>
       <c r="B1277" t="s">
-        <v>2493</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="B1278" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="B1279" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="B1280" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="B1281" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="B1282" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B1283" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="B1284" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="B1285" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="B1286" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B1287" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="B1288" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="B1289" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="B1290" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="B1291" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="B1292" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="B1293" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="B1294" t="s">
-        <v>574</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="B1295" t="s">
-        <v>2510</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2511</v>
+        <v>2486</v>
       </c>
       <c r="B1296" t="s">
-        <v>2538</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2512</v>
+        <v>2487</v>
       </c>
       <c r="B1297" t="s">
-        <v>2539</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2513</v>
+        <v>2488</v>
       </c>
       <c r="B1298" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1299" t="s">
-        <v>2514</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>2541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1300" t="s">
-        <v>2515</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>2542</v>
-      </c>
+      <c r="A1300" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1300" s="1"/>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>2516</v>
+        <v>2489</v>
       </c>
       <c r="B1301" t="s">
-        <v>2543</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>2511</v>
+      </c>
       <c r="B1302" t="s">
-        <v>2544</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="B1303" t="s">
-        <v>2545</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="B1304" t="s">
-        <v>2546</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="B1305" t="s">
-        <v>2547</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2520</v>
+        <v>2515</v>
       </c>
       <c r="B1306" t="s">
-        <v>2548</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2521</v>
+        <v>2516</v>
       </c>
       <c r="B1307" t="s">
-        <v>2549</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1308" t="s">
-        <v>2522</v>
-      </c>
       <c r="B1308" t="s">
-        <v>2550</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="B1309" t="s">
-        <v>2551</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="B1310" t="s">
-        <v>2552</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="B1311" t="s">
-        <v>2553</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="B1312" t="s">
-        <v>2554</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="B1313" t="s">
-        <v>2555</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="B1314" t="s">
-        <v>2556</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="B1315" t="s">
-        <v>2557</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
       <c r="B1316" t="s">
-        <v>2558</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2531</v>
+        <v>2525</v>
       </c>
       <c r="B1317" t="s">
-        <v>2559</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
       <c r="B1318" t="s">
-        <v>2560</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2533</v>
+        <v>2527</v>
       </c>
       <c r="B1319" t="s">
-        <v>2561</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="B1320" t="s">
-        <v>2562</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2535</v>
+        <v>2529</v>
       </c>
       <c r="B1321" t="s">
-        <v>2563</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2536</v>
+        <v>2530</v>
       </c>
       <c r="B1322" t="s">
-        <v>2564</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
       <c r="B1323" t="s">
-        <v>2565</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2566</v>
+        <v>2532</v>
       </c>
       <c r="B1324" t="s">
-        <v>2598</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2567</v>
+        <v>2533</v>
       </c>
       <c r="B1325" t="s">
-        <v>2599</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2568</v>
+        <v>2534</v>
       </c>
       <c r="B1326" t="s">
-        <v>2600</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2569</v>
+        <v>2535</v>
       </c>
       <c r="B1327" t="s">
-        <v>2601</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2570</v>
+        <v>2536</v>
       </c>
       <c r="B1328" t="s">
-        <v>2602</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2571</v>
+        <v>2537</v>
       </c>
       <c r="B1329" t="s">
-        <v>2603</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2572</v>
+        <v>2566</v>
       </c>
       <c r="B1330" t="s">
-        <v>2604</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2573</v>
+        <v>2567</v>
       </c>
       <c r="B1331" t="s">
-        <v>2605</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>2568</v>
+      </c>
       <c r="B1332" t="s">
-        <v>2606</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
       <c r="B1333" t="s">
-        <v>2607</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2575</v>
+        <v>2570</v>
       </c>
       <c r="B1334" t="s">
-        <v>2608</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2576</v>
+        <v>2571</v>
       </c>
       <c r="B1335" t="s">
-        <v>2609</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2577</v>
+        <v>2572</v>
       </c>
       <c r="B1336" t="s">
-        <v>2610</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2578</v>
+        <v>2573</v>
       </c>
       <c r="B1337" t="s">
-        <v>2611</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1338" t="s">
-        <v>2579</v>
-      </c>
       <c r="B1338" t="s">
-        <v>2612</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2580</v>
+        <v>2574</v>
       </c>
       <c r="B1339" t="s">
-        <v>2613</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>2581</v>
+        <v>2575</v>
       </c>
       <c r="B1340" t="s">
-        <v>2614</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2582</v>
+        <v>2576</v>
       </c>
       <c r="B1341" t="s">
-        <v>2615</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2583</v>
+        <v>2577</v>
       </c>
       <c r="B1342" t="s">
-        <v>2616</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2584</v>
+        <v>2578</v>
       </c>
       <c r="B1343" t="s">
-        <v>2617</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2585</v>
+        <v>2579</v>
       </c>
       <c r="B1344" t="s">
-        <v>2618</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2586</v>
+        <v>2580</v>
       </c>
       <c r="B1345" t="s">
-        <v>2619</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2587</v>
+        <v>2581</v>
       </c>
       <c r="B1346" t="s">
-        <v>2620</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="B1347" t="s">
-        <v>2621</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2589</v>
+        <v>2583</v>
       </c>
       <c r="B1348" t="s">
-        <v>2622</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2590</v>
+        <v>2584</v>
       </c>
       <c r="B1349" t="s">
-        <v>2623</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2591</v>
+        <v>2585</v>
       </c>
       <c r="B1350" t="s">
-        <v>2624</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2592</v>
+        <v>2586</v>
       </c>
       <c r="B1351" t="s">
-        <v>2625</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2593</v>
+        <v>2587</v>
       </c>
       <c r="B1352" t="s">
-        <v>2626</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2594</v>
+        <v>2588</v>
       </c>
       <c r="B1353" t="s">
-        <v>2627</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2595</v>
+        <v>2589</v>
       </c>
       <c r="B1354" t="s">
-        <v>2628</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2596</v>
+        <v>2590</v>
       </c>
       <c r="B1355" t="s">
-        <v>2629</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>2591</v>
+      </c>
       <c r="B1356" t="s">
-        <v>2630</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2597</v>
+        <v>2592</v>
       </c>
       <c r="B1357" t="s">
-        <v>2631</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2632</v>
+        <v>2593</v>
       </c>
       <c r="B1358" t="s">
-        <v>2647</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2633</v>
+        <v>2594</v>
       </c>
       <c r="B1359" t="s">
-        <v>2648</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2634</v>
+        <v>2595</v>
       </c>
       <c r="B1360" t="s">
-        <v>2649</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2635</v>
+        <v>2596</v>
       </c>
       <c r="B1361" t="s">
-        <v>2650</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1362" t="s">
-        <v>2636</v>
-      </c>
       <c r="B1362" t="s">
-        <v>2651</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2637</v>
+        <v>2597</v>
       </c>
       <c r="B1363" t="s">
-        <v>2652</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>2638</v>
+        <v>2632</v>
       </c>
       <c r="B1364" t="s">
-        <v>2653</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2639</v>
+        <v>2633</v>
       </c>
       <c r="B1365" t="s">
-        <v>2654</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2640</v>
+        <v>2634</v>
       </c>
       <c r="B1366" t="s">
-        <v>2655</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2641</v>
+        <v>2635</v>
       </c>
       <c r="B1367" t="s">
-        <v>2656</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2642</v>
+        <v>2636</v>
       </c>
       <c r="B1368" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>2637</v>
+      </c>
       <c r="B1369" t="s">
-        <v>2658</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>2638</v>
+      </c>
       <c r="B1370" t="s">
-        <v>2659</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="B1371" t="s">
-        <v>2660</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="B1372" t="s">
-        <v>2661</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="B1373" t="s">
-        <v>2662</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1375" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1376" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1378" s="1"/>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
         <v>2646</v>
       </c>
-      <c r="B1374" t="s">
+      <c r="B1382" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1375" t="s">
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1376" t="s">
+      <c r="B1383" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1377" t="s">
+      <c r="B1384" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1378" t="s">
+      <c r="B1385" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1379" t="s">
+      <c r="B1386" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1380" t="s">
+      <c r="B1387" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1381" t="s">
+      <c r="B1388" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1382" t="s">
+      <c r="B1389" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1383" t="s">
+      <c r="B1390" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1384" t="s">
+      <c r="B1391" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1385" t="s">
+      <c r="B1392" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1386" t="s">
+      <c r="B1393" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
         <v>2675</v>
       </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1387" t="s">
+      <c r="B1394" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1388" t="s">
+      <c r="B1395" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1389" t="s">
+      <c r="B1396" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1390" t="s">
+      <c r="B1397" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1398" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1391" t="s">
+      <c r="B1399" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1392" t="s">
+      <c r="B1400" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1393" t="s">
+      <c r="B1401" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
         <v>2682</v>
       </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1394" t="s">
+      <c r="B1402" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
         <v>2683</v>
       </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1395" t="s">
+      <c r="B1403" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
         <v>2684</v>
       </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1396" t="s">
+      <c r="B1404" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1397" t="s">
+      <c r="B1405" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1398" t="s">
+      <c r="B1406" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1399" t="s">
+      <c r="B1407" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1400" t="s">
+      <c r="B1408" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1401" t="s">
+      <c r="B1409" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
         <v>2690</v>
       </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1402" t="s">
+      <c r="B1410" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
         <v>2691</v>
       </c>
+      <c r="B1411" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1441" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1450" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1451" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1453" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1456" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B1456" s="1"/>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>2812</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A310:B310"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1150:B1150"/>
+    <mergeCell ref="A1224:B1224"/>
+    <mergeCell ref="A1300:B1300"/>
+    <mergeCell ref="A1378:B1378"/>
+    <mergeCell ref="A1456:B1456"/>
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
     <mergeCell ref="A1000:B1000"/>
@@ -35373,6 +37070,12 @@
     <mergeCell ref="A597:B597"/>
     <mergeCell ref="A671:B671"/>
     <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A310:B310"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="2814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="3061">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25362,6 +25362,2311 @@
   </si>
   <si>
     <t>unit 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illuminati</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutineer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rarefaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minuet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fiat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imperil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>careworn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velvety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diatribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capsule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nerve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.先知者，先知</t>
+    <rPh sb="6" eb="7">
+      <t>xian zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(=plow)n.犁  v.犁地 </t>
+    <rPh sb="9" eb="10">
+      <t>li</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>li di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.反叛者，背叛者</t>
+    <rPh sb="2" eb="3">
+      <t>fan pan zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bei pan zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裁定，裁决</t>
+    <rPh sb="2" eb="3">
+      <t>cai ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai jue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使腐坏；使昏乱</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu huai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hun luan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.稀薄</t>
+    <rPh sb="2" eb="3">
+      <t>xi bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.浸软；使消瘦</t>
+    <rPh sb="2" eb="3">
+      <t>jin ruan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.慢性的，长期的</t>
+    <rPh sb="4" eb="5">
+      <t>man xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chang qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小步舞</t>
+    <rPh sb="2" eb="3">
+      <t>xiao bu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.法令，政令</t>
+    <rPh sb="2" eb="3">
+      <t>fa ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.发票，发货清单  v.给开发票</t>
+    <rPh sb="2" eb="3">
+      <t>fa piao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fa huo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing dan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fa piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使陷于危险，危及</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian yu wei xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.忧心忡忡的，饱经忧患的</t>
+    <rPh sb="4" eb="5">
+      <t>you xin chong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao jing you huan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.天鹅绒般柔软光滑的</t>
+    <rPh sb="4" eb="5">
+      <t>tian e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rou ruan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guang hua</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>醇和的，可口的</t>
+    <rPh sb="0" eb="1">
+      <t>chun he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke kou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.猛撞，猛砸，击碎；使受挫，挫败</t>
+    <rPh sb="2" eb="3">
+      <t>meng zhuang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>meng za</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji sui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cuo bai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使羞愧，是窘迫</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jiong po</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(口头或书面猛烈的)抨击</t>
+    <rPh sb="3" eb="4">
+      <t>kou tou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu mian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>meng lie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>peng ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.荚膜，蒴果；胶囊</t>
+    <rPh sb="2" eb="3">
+      <t>jia mo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao nang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.耕种的，栽培的；有教养的</t>
+    <rPh sb="4" eb="5">
+      <t>geng zhong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zai pei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiao yang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.勇气  v.给予力量</t>
+    <rPh sb="2" eb="3">
+      <t>yong iq</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gei yu li liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaundice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>euphoria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contumacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>penance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fragrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stampede</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proverbially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oblique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drainage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pulchritude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oversight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ripen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canvass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dreary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palliate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centrifugal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immunize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.削；修剪；削减，减缩</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu jian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xue jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian suo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.嘲笑；狼吞虎咽  n.嘲笑，笑柄</t>
+    <rPh sb="2" eb="3">
+      <t>chao xiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lang tun hu yan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chao xiao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xiao bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.偏见；黄疸</t>
+    <rPh sb="2" eb="3">
+      <t>pian jian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huang dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愉快的心情</t>
+    <rPh sb="2" eb="3">
+      <t>yu kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xin qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.抗命，不服从</t>
+    <rPh sb="2" eb="3">
+      <t>kang ming</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bu fu cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自我惩罚</t>
+    <rPh sb="2" eb="3">
+      <t>zi wo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.愚蠢，愚昧</t>
+    <rPh sb="2" eb="3">
+      <t>yu chun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu mei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.芳香的</t>
+    <rPh sb="4" eb="5">
+      <t>fang xiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.怒容  v.生气地皱眉；怒视</t>
+    <rPh sb="2" eb="3">
+      <t>nu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sheng qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhou mei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nu sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.惊跑，逃窜</t>
+    <rPh sb="2" eb="3">
+      <t>jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tao cuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(衣服上的)褶</t>
+    <rPh sb="3" eb="4">
+      <t>yi fu shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.人尽皆知地</t>
+    <rPh sb="4" eb="5">
+      <t>ren jin jie zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不直接的，不坦率的；斜的</t>
+    <rPh sb="4" eb="5">
+      <t>bu zhi jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu an shuai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tan shuai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.排水，排水系统；污水</t>
+    <rPh sb="2" eb="3">
+      <t>pai shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pai shui xi tong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wu shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.滑行，滑动；悄悄地溜走；渐变</t>
+    <rPh sb="2" eb="3">
+      <t>hua xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>di</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liu zou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.美丽，标致</t>
+    <rPh sb="2" eb="3">
+      <t>mei li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.竞争的  vie</t>
+    <rPh sb="4" eb="5">
+      <t>jing zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.烤焦，烧焦</t>
+    <rPh sb="2" eb="3">
+      <t>kao jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shao jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疏忽，失察，勘漏</t>
+    <rPh sb="2" eb="3">
+      <t>shu hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使成熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.进步，进展</t>
+    <rPh sb="2" eb="3">
+      <t>jin bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin zhan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.讽刺</t>
+    <rPh sb="2" eb="3">
+      <t>feng ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.潜行，悄悄踱步  n.四处觅寻，徘徊</t>
+    <rPh sb="2" eb="3">
+      <t>qian xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>si chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mi xun</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj./adv. 滚烫的(地)</t>
+    <rPh sb="10" eb="11">
+      <t>gun tang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.细查；拉选票</t>
+    <rPh sb="2" eb="3">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>la xuan piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.剪短(尾巴等)；扣去(薪水、津贴等)</t>
+    <rPh sb="2" eb="3">
+      <t>jian duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei ba</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kou qu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xin shui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jin tie</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.沉闷的，乏味的</t>
+    <rPh sb="4" eb="5">
+      <t>chen men</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fa wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.委托；托付</t>
+    <rPh sb="2" eb="3">
+      <t>wei tuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuo fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.减轻(痛苦)；掩饰(罪行)</t>
+    <rPh sb="2" eb="3">
+      <t>jian qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong ku</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zui ixng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.谨防的，怀疑的</t>
+    <rPh sb="4" eb="5">
+      <t>jin fang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huai yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.离心的</t>
+    <rPh sb="4" eb="5">
+      <t>li xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(通过接种)使免疫</t>
+    <rPh sb="3" eb="4">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prorogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exultant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backdrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejoinder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deceit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypocrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>municipality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstrous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supererogatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elegy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calumniate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scribble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fissure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coronation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glowing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masquerade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.休会；延期</t>
+    <rPh sb="2" eb="3">
+      <t>xiu hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.紧紧抓住；坚持</t>
+    <rPh sb="2" eb="3">
+      <t>jin jin zhua zhu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.免疫的；免除的，豁免的</t>
+    <rPh sb="4" eb="5">
+      <t>mian yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mian chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo mian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.非常高兴的，欢悦的，狂喜的</t>
+    <rPh sb="4" eb="5">
+      <t>fei chang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gao xing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huan yue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kuang xi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(事情的)背景；背景幕布</t>
+    <rPh sb="3" eb="4">
+      <t>shi qing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bei jing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bei jing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mu bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.回答</t>
+    <rPh sb="2" eb="3">
+      <t>hui da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欺骗，欺诈，诡计</t>
+    <rPh sb="2" eb="3">
+      <t>qi pian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi zha</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gui ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.伪善者，伪君子</t>
+    <rPh sb="2" eb="3">
+      <t>wei shan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei jun zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不忠，背叛</t>
+    <rPh sb="2" eb="3">
+      <t>bu zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei pan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.自治市</t>
+    <rPh sb="2" eb="3">
+      <t>zi zhi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政当局(指城市行政区及管理者)</t>
+    <rPh sb="0" eb="1">
+      <t>shi zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dang ju</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing zheng qu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan li zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.巨大的；丑陋的，外表可怕的</t>
+    <rPh sb="4" eb="5">
+      <t>ju da</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chou lou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wai biao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ke pa</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.总的；粗野的  n.全部，总额</t>
+    <rPh sb="4" eb="5">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cu ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zong e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.职责以外的；多余的</t>
+    <rPh sb="4" eb="5">
+      <t>zhi ze</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yi wai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>duo yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.憎恶，反感</t>
+    <rPh sb="2" eb="3">
+      <t>zeng wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fan gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.哀歌，挽歌</t>
+    <rPh sb="2" eb="3">
+      <t>ai ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wan ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.怀疑  n.嫌疑犯  adj.可疑的</t>
+    <rPh sb="2" eb="3">
+      <t>huai y</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian yi fan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>k yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.深思熟虑的；认真习得的</t>
+    <rPh sb="4" eb="5">
+      <t>shen si shu lü</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ren zhen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使穿衣；打扮  n.盛装，服装</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chuan yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da ban</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>sheng zhuang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.承认；公开宣称</t>
+    <rPh sb="2" eb="3">
+      <t>cheng ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong kai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.刺绣样品；样品检查员</t>
+    <rPh sb="2" eb="3">
+      <t>ci xiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yang pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yang pin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jian cha yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.颂词，赞词；贡物</t>
+    <rPh sb="2" eb="3">
+      <t>song ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zan ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.诽谤，中伤</t>
+    <rPh sb="2" eb="3">
+      <t>fei bang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.乱写，乱涂</t>
+    <rPh sb="2" eb="3">
+      <t>luan xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>luan tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.裂缝，裂隙</t>
+    <rPh sb="2" eb="3">
+      <t>lie feng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lie xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.刺痛；叮蛰  n.蛰刺</t>
+    <rPh sb="2" eb="3">
+      <t>ci tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.变化多端的，多变的</t>
+    <rPh sb="4" eb="5">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duo duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>duo bian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.加冕礼</t>
+    <rPh sb="2" eb="3">
+      <t>jia mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.热情赞扬的</t>
+    <rPh sb="4" eb="5">
+      <t>re qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zan yang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.化装舞会  v.伪装</t>
+    <rPh sb="2" eb="3">
+      <t>hua zhuang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu hui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travesty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>largess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>citation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bedraggled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infernal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whimper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charisma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beseech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jargon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stipple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stupefy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conscript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calorie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otiose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slobber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vaunting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stentorian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bleak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sturdy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apocryphal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(鸟用嘴)整理羽毛</t>
+    <rPh sb="3" eb="4">
+      <t>niao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zheng li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu mao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(人)打扮修饰</t>
+    <rPh sb="1" eb="2">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da ban</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiu shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.增加</t>
+    <rPh sb="2" eb="3">
+      <t>zeng jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.滑稽地模仿</t>
+    <rPh sb="2" eb="3">
+      <t>hua ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mo fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.赠送，赏赐；赠款，赏赐物</t>
+    <rPh sb="2" eb="3">
+      <t>zeng song</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang ci</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zeng kuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shang ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.引证；引文；传票</t>
+    <rPh sb="2" eb="3">
+      <t>yin zheng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin wen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chuan piao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(衣服、头发等)弄湿的</t>
+    <rPh sb="5" eb="6">
+      <t>yi fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>tou fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>nong shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌乱不堪的</t>
+    <rPh sb="0" eb="1">
+      <t>ling luan bu kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐烂的；极坏的</t>
+    <rPh sb="4" eb="5">
+      <t>fu lan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji huai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.同意给予；授予</t>
+    <rPh sb="2" eb="3">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gei yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.圆形的；循环的</t>
+    <rPh sb="4" eb="5">
+      <t>yuan xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xun huan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.地狱的；可恶的</t>
+    <rPh sb="4" eb="5">
+      <t>di yu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.演绎，推断</t>
+    <rPh sb="2" eb="3">
+      <t>yan yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.阴谋</t>
+    <rPh sb="2" eb="3">
+      <t>yin mou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.啜泣，呜咽</t>
+    <rPh sb="2" eb="3">
+      <t>chuo qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(大众爱戴的)领袖气质；魅力</t>
+    <rPh sb="3" eb="4">
+      <t>da zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ai dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ling xiu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qi zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>mei li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.恳求</t>
+    <rPh sb="2" eb="3">
+      <t>ken qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.胡言乱语；行话</t>
+    <rPh sb="2" eb="3">
+      <t>hu yan luan yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hang hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.点画，点描</t>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.脱掉(外衣、帽子)</t>
+    <rPh sb="2" eb="3">
+      <t>tuo diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wai yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mao zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使茫然，使惊讶</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mang ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.征兵，征召(某人)入伍</t>
+    <rPh sb="2" eb="3">
+      <t>zheng bing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng zhao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mou ren</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ru wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.保险柜，保险箱</t>
+    <rPh sb="2" eb="3">
+      <t>bao xian gui</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao xian xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.卡路里；卡(热量单位)</t>
+    <rPh sb="2" eb="3">
+      <t>ka lu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ka</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>re liang dan wi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.不必要的，多余的</t>
+    <rPh sb="4" eb="5">
+      <t>bu bi yao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>duo yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.口水 v.流口水；情不自禁地说</t>
+    <rPh sb="2" eb="3">
+      <t>kou shui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liu kou sh</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing bu zi jin</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.吹嘘的，傲慢的</t>
+    <rPh sb="4" eb="5">
+      <t>chui xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ao man</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.声音洪亮的</t>
+    <rPh sb="4" eb="5">
+      <t>sheng yin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hong liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.寒冷的；阴沉的；阴郁的，暗淡的</t>
+    <rPh sb="4" eb="5">
+      <t>han leng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yin chen</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>an dan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. (身体)强健的；结实的</t>
+    <rPh sb="6" eb="7">
+      <t>shen ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qiang jian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.假冒的，虚假的</t>
+    <rPh sb="4" eb="5">
+      <t>jia mao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xu jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.告别演说，告别词</t>
+    <rPh sb="2" eb="3">
+      <t>gao bie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan shuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gao bie ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kennel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expurgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chimera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acuity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.突然跌倒，突然下跌；倒塌</t>
+    <rPh sb="2" eb="3">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dir dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tu ran</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xia die</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dao ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沟，槽，辙；(刻出)字沟；习惯</t>
+    <rPh sb="2" eb="3">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xi guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.狗舍，狗窝</t>
+    <rPh sb="2" eb="3">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gou wo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.悲痛，悲哀；不幸，灾难</t>
+    <rPh sb="2" eb="3">
+      <t>bei tong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bei ai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu xing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.删除，删节</t>
+    <rPh sb="2" eb="3">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.活动过度，极度活跃</t>
+    <rPh sb="2" eb="3">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo du</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.神话动物；梦幻</t>
+    <rPh sb="2" eb="3">
+      <t>shen hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong uw</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>meng huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.偶然的；非正式的，随便的</t>
+    <rPh sb="4" eb="5">
+      <t>ou ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fei zheng shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>sui bian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(尤指思想或感官)敏锐</t>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si xiang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gan guan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>min rui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.猪</t>
+    <rPh sb="2" eb="3">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25688,10 +27993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1459"/>
+  <dimension ref="A1:B1587"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A1440" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C1445" sqref="C1445"/>
+      <selection activeCell="A1532" sqref="A1532:B1532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37054,13 +39359,1014 @@
         <v>2812</v>
       </c>
     </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1463" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1470" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1474" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1476" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1477" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1479" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1480" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1481" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1482" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1483" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1484" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1485" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1486" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1488" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1490" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1491" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1493" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1494" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1495" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1496" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1497" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1498" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1524" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1527" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1528" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1529" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1530" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1532" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B1532" s="1"/>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1534" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1535" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1536" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1537" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1538" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1539" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1540" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1541" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1542" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1543" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1544" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1545" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1546" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1547" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1548" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1550" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1551" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1552" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1553" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1554" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1557" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1558" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1559" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1560" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1561" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1562" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1563" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1564" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1565" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1566" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1567" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1572" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1573" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1574" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1575" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1576" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1578" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1579" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1580" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1581" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1582" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1583" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1584" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1585" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1587" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>3059</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1150:B1150"/>
-    <mergeCell ref="A1224:B1224"/>
-    <mergeCell ref="A1300:B1300"/>
-    <mergeCell ref="A1378:B1378"/>
-    <mergeCell ref="A1456:B1456"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1532:B1532"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A310:B310"/>
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
     <mergeCell ref="A1000:B1000"/>
@@ -37070,12 +40376,11 @@
     <mergeCell ref="A597:B597"/>
     <mergeCell ref="A671:B671"/>
     <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A1150:B1150"/>
+    <mergeCell ref="A1224:B1224"/>
+    <mergeCell ref="A1300:B1300"/>
+    <mergeCell ref="A1378:B1378"/>
+    <mergeCell ref="A1456:B1456"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -15058,19 +15058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.(使)烧焦，烤焦</t>
-    <rPh sb="3" eb="4">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shao jiao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>kao jiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.杰出人物，名人</t>
     <rPh sb="2" eb="3">
       <t>jie chu ren wu</t>
@@ -15093,16 +15080,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.腾跃，欢悦</t>
-    <rPh sb="2" eb="3">
-      <t>teng yue</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huan yue</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -27667,6 +27644,35 @@
   </si>
   <si>
     <t>unit 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(轻微地)烧焦，烤焦</t>
+    <rPh sb="3" eb="4">
+      <t>qing'wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shao jiao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kao jiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.腾跃，欢跃</t>
+    <rPh sb="2" eb="3">
+      <t>teng yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan yue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27993,10 +27999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1587"/>
+  <dimension ref="A1:B1589"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1440" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A1532" sqref="A1532:B1532"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A958" zoomScale="142" workbookViewId="0">
+      <selection activeCell="A967" sqref="A967:XFD967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28007,7 +28013,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -28293,7 +28299,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -28309,7 +28315,7 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -28455,7 +28461,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -28580,7 +28586,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B75" s="1"/>
     </row>
@@ -28738,7 +28744,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B95" t="s">
         <v>190</v>
@@ -28746,7 +28752,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B96" t="s">
         <v>191</v>
@@ -28869,7 +28875,7 @@
         <v>206</v>
       </c>
       <c r="B111" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -28997,7 +29003,7 @@
         <v>222</v>
       </c>
       <c r="B127" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -29154,7 +29160,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B148" s="1"/>
     </row>
@@ -29732,7 +29738,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B222" t="s">
         <v>422</v>
@@ -29828,7 +29834,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B235" s="1"/>
     </row>
@@ -30409,7 +30415,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B310" s="1"/>
     </row>
@@ -30988,7 +30994,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B384" s="1"/>
     </row>
@@ -31482,7 +31488,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="B447" s="1"/>
     </row>
@@ -32063,7 +32069,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="B522" s="1"/>
     </row>
@@ -32647,7 +32653,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="B597" s="1"/>
     </row>
@@ -33226,7 +33232,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="B671" s="1"/>
     </row>
@@ -33805,7 +33811,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="B745" s="1"/>
     </row>
@@ -34379,7 +34385,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="B818" s="1"/>
     </row>
@@ -34872,7 +34878,7 @@
         <v>1679</v>
       </c>
       <c r="B881" t="s">
-        <v>1690</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -34880,7 +34886,7 @@
         <v>1680</v>
       </c>
       <c r="B882" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
@@ -34888,7 +34894,7 @@
         <v>1681</v>
       </c>
       <c r="B883" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
@@ -34896,7 +34902,7 @@
         <v>1682</v>
       </c>
       <c r="B884" t="s">
-        <v>1693</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -34904,7 +34910,7 @@
         <v>1683</v>
       </c>
       <c r="B885" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
@@ -34912,7 +34918,7 @@
         <v>1684</v>
       </c>
       <c r="B886" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
@@ -34920,7 +34926,7 @@
         <v>1685</v>
       </c>
       <c r="B887" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
@@ -34928,234 +34934,234 @@
         <v>1686</v>
       </c>
       <c r="B888" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B889" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B890" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B891" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B892" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B893" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="B895" s="1"/>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B896" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B897" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B898" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B899" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B900" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B901" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B902" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B903" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B904" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B905" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B906" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B907" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B908" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B909" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B910" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B911" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B912" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B913" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B914" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B915" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B916" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B917" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B918" t="s">
         <v>1152</v>
@@ -35163,5204 +35169,5209 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B919" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B920" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B921" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B922" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B923" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B924" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B925" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B926" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B927" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B928" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B929" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B930" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B931" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B932" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B933" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B934" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B935" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B936" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B937" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B938" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B939" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B940" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B941" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B942" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B943" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B944" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B945" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B946" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B947" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B948" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B949" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B950" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B951" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B952" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B953" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B954" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B955" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B956" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B957" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B958" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B959" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B960" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B961" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B962" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B963" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B964" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B965" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B966" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A967" t="s">
-        <v>1853</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A968" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1869</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B969" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="B970" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="B971" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="B972" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="B973" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="B974" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="B975" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="B976" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="B977" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="B978" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>1861</v>
+      </c>
       <c r="B979" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B980" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A981" t="s">
-        <v>1866</v>
-      </c>
       <c r="B981" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="B982" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1891</v>
+        <v>1864</v>
       </c>
       <c r="B983" t="s">
-        <v>1905</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1892</v>
+        <v>1865</v>
       </c>
       <c r="B984" t="s">
-        <v>1906</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="B985" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="B986" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="B987" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="B988" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="B989" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="B990" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="B991" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="B992" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>1897</v>
+      </c>
       <c r="B993" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="B994" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A995" t="s">
-        <v>1902</v>
-      </c>
       <c r="B995" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="B996" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="B997" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
       <c r="B998" t="s">
-        <v>1946</v>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>1947</v>
+      <c r="A1000" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1002" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>1948</v>
-      </c>
+      <c r="A1002" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B1002" s="1"/>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="B1003" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="B1004" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="B1005" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="B1006" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="B1007" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="B1008" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="B1009" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B1010" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="B1011" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="B1012" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="B1013" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="B1014" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="B1015" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="B1016" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="B1017" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="B1018" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="B1019" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="B1020" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="B1021" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="B1022" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="B1023" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="B1024" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="B1025" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1972</v>
+        <v>1942</v>
       </c>
       <c r="B1026" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1973</v>
+        <v>1943</v>
       </c>
       <c r="B1027" t="s">
-        <v>1988</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="B1028" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="B1029" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="B1030" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="B1031" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="B1032" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="B1033" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="B1034" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="B1035" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="B1036" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="B1037" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="B1038" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>1981</v>
+      </c>
       <c r="B1039" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B1040" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1041" t="s">
-        <v>1986</v>
-      </c>
       <c r="B1041" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>2003</v>
+        <v>1983</v>
       </c>
       <c r="B1042" t="s">
-        <v>2034</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="B1043" t="s">
-        <v>2035</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B1044" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B1045" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B1046" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B1047" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B1048" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B1049" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B1050" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B1051" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B1052" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B1053" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B1054" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B1055" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B1056" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B1057" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B1058" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B1059" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B1060" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B1061" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B1062" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B1063" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B1064" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="B1065" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="B1066" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B1067" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B1068" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="B1069" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B1070" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="B1071" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B1072" t="s">
-        <v>2064</v>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2061</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1074" s="1" t="s">
-        <v>2211</v>
-      </c>
-      <c r="B1074" s="1"/>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>2081</v>
+      <c r="A1074" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2062</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1076" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>2082</v>
-      </c>
+      <c r="A1076" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1076" s="1"/>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="B1077" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="B1078" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B1079" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="B1080" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="B1081" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="B1082" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="B1083" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="B1084" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="B1085" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="B1086" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="B1087" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="B1088" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>2075</v>
+      </c>
       <c r="B1089" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="B1090" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1091" t="s">
-        <v>2080</v>
-      </c>
       <c r="B1091" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2100</v>
+        <v>2077</v>
       </c>
       <c r="B1092" t="s">
-        <v>2117</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2101</v>
+        <v>2078</v>
       </c>
       <c r="B1093" t="s">
-        <v>2118</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="B1094" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="B1095" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="B1096" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="B1097" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B1098" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="B1099" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="B1100" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="B1101" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="B1102" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="B1103" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="B1104" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="B1105" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="B1106" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="B1107" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2133</v>
+        <v>2113</v>
       </c>
       <c r="B1108" t="s">
-        <v>2156</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>2114</v>
+      </c>
       <c r="B1109" t="s">
-        <v>2157</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="B1110" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1111" t="s">
-        <v>2135</v>
-      </c>
       <c r="B1111" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="B1112" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="B1113" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="B1114" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="B1115" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="B1116" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>2137</v>
+      </c>
       <c r="B1117" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="B1118" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1119" t="s">
-        <v>2142</v>
-      </c>
       <c r="B1119" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B1120" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B1121" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="B1122" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B1123" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="B1124" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="B1125" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="B1126" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="B1127" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="B1128" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B1129" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="B1130" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B1131" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B1132" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2181</v>
+        <v>2152</v>
       </c>
       <c r="B1133" t="s">
-        <v>2192</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2182</v>
+        <v>2153</v>
       </c>
       <c r="B1134" t="s">
-        <v>2193</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="B1135" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="B1136" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="B1137" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="B1138" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="B1139" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="B1140" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="B1141" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="B1142" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="B1143" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2212</v>
+        <v>2188</v>
       </c>
       <c r="B1144" t="s">
-        <v>2225</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2213</v>
+        <v>2189</v>
       </c>
       <c r="B1145" t="s">
-        <v>2226</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="B1146" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="B1147" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="B1148" t="s">
-        <v>2229</v>
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>2226</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1150" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B1150" s="1"/>
-    </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1151" t="s">
-        <v>2217</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>2230</v>
+      <c r="A1150" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2227</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1152" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>2231</v>
-      </c>
+      <c r="A1152" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1152" s="1"/>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="B1153" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="B1154" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="B1155" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="B1156" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B1157" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="B1158" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2238</v>
+        <v>2221</v>
       </c>
       <c r="B1159" t="s">
-        <v>2265</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2239</v>
+        <v>2222</v>
       </c>
       <c r="B1160" t="s">
-        <v>2266</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="B1161" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="B1162" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="B1163" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="B1164" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="B1165" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="B1166" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="B1167" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="B1168" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="B1169" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="B1170" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="B1171" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="B1172" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="B1173" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="B1174" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="B1175" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="B1176" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="B1177" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="B1178" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="B1179" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B1180" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="B1181" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B1182" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="B1183" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B1184" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B1185" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2292</v>
+        <v>2261</v>
       </c>
       <c r="B1186" t="s">
-        <v>2323</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2293</v>
+        <v>2262</v>
       </c>
       <c r="B1187" t="s">
-        <v>2324</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="B1188" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
       <c r="B1189" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="B1190" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="B1191" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="B1192" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B1193" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="B1194" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
       <c r="B1195" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B1196" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="B1197" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="B1198" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="B1199" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="B1200" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
       <c r="B1201" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B1202" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="B1203" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="B1204" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="B1205" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B1206" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="B1207" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
       <c r="B1208" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B1209" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="B1210" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
       <c r="B1211" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="B1212" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="B1213" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B1214" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="B1215" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>2318</v>
+      </c>
       <c r="B1216" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="B1217" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1218" t="s">
-        <v>2355</v>
-      </c>
       <c r="B1218" t="s">
-        <v>2381</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2356</v>
+        <v>2320</v>
       </c>
       <c r="B1219" t="s">
-        <v>2382</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="B1220" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="B1221" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="B1222" t="s">
-        <v>2385</v>
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2382</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1224" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B1224" s="1"/>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1225" t="s">
-        <v>2360</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>2386</v>
+      <c r="A1224" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2383</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1226" t="s">
-        <v>2361</v>
-      </c>
-      <c r="B1226" t="s">
-        <v>2387</v>
-      </c>
+      <c r="A1226" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="B1227" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="B1228" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="B1229" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="B1230" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
       <c r="B1231" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="B1232" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="B1233" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="B1234" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
       <c r="B1235" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="B1236" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="B1237" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="B1238" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
       <c r="B1239" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="B1240" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="B1241" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B1242" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B1243" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="B1244" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="B1245" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2407</v>
+        <v>2377</v>
       </c>
       <c r="B1246" t="s">
-        <v>2436</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2408</v>
+        <v>2378</v>
       </c>
       <c r="B1247" t="s">
-        <v>2437</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="B1248" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="B1249" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B1250" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B1251" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B1252" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="B1253" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B1254" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B1255" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B1256" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="B1257" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>2415</v>
+      </c>
       <c r="B1258" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2419</v>
+        <v>2416</v>
       </c>
       <c r="B1259" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1260" t="s">
-        <v>2420</v>
-      </c>
       <c r="B1260" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="B1261" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="B1262" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="B1263" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B1264" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="B1265" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="B1266" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="B1267" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B1268" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="B1269" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="B1270" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="B1271" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>2428</v>
+      </c>
       <c r="B1272" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2432</v>
+        <v>2429</v>
       </c>
       <c r="B1273" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1274" t="s">
-        <v>2433</v>
-      </c>
       <c r="B1274" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="B1275" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
       <c r="B1276" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>2432</v>
+      </c>
       <c r="B1277" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2468</v>
+        <v>2433</v>
       </c>
       <c r="B1278" t="s">
-        <v>2490</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1279" t="s">
-        <v>2469</v>
-      </c>
       <c r="B1279" t="s">
-        <v>2491</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="B1280" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
       <c r="B1281" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="B1282" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="B1283" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="B1284" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
       <c r="B1285" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="B1286" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="B1287" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="B1288" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="B1289" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="B1290" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B1291" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="B1292" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="B1293" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="B1294" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="B1295" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="B1296" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
       <c r="B1297" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="B1298" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B1300" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1300" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B1300" s="1"/>
-    </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1301" t="s">
-        <v>2489</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>2510</v>
-      </c>
-    </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1302" t="s">
-        <v>2511</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>2538</v>
-      </c>
+      <c r="A1302" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2512</v>
+        <v>2487</v>
       </c>
       <c r="B1303" t="s">
-        <v>2539</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="B1304" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="B1305" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
       <c r="B1306" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="B1307" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>2513</v>
+      </c>
       <c r="B1308" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2517</v>
+        <v>2514</v>
       </c>
       <c r="B1309" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1310" t="s">
-        <v>2518</v>
-      </c>
       <c r="B1310" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
       <c r="B1311" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="B1312" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="B1313" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="B1314" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="B1315" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B1316" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B1317" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="B1318" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="B1319" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B1320" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="B1321" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="B1322" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B1323" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="B1324" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="B1325" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="B1326" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="B1327" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B1328" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="B1329" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2566</v>
+        <v>2534</v>
       </c>
       <c r="B1330" t="s">
-        <v>2598</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2567</v>
+        <v>2535</v>
       </c>
       <c r="B1331" t="s">
-        <v>2599</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B1332" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B1333" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="B1334" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="B1335" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
       <c r="B1336" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B1337" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>2570</v>
+      </c>
       <c r="B1338" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2574</v>
+        <v>2571</v>
       </c>
       <c r="B1339" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1340" t="s">
-        <v>2575</v>
-      </c>
       <c r="B1340" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="B1341" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B1342" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="B1343" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="B1344" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
       <c r="B1345" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="B1346" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="B1347" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="B1348" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
       <c r="B1349" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="B1350" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="B1351" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="B1352" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="B1353" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="B1354" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="B1355" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B1356" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="B1357" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="B1358" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="B1359" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="B1360" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="B1361" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>2593</v>
+      </c>
       <c r="B1362" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2597</v>
+        <v>2594</v>
       </c>
       <c r="B1363" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1364" t="s">
-        <v>2632</v>
-      </c>
       <c r="B1364" t="s">
-        <v>2647</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2633</v>
+        <v>2595</v>
       </c>
       <c r="B1365" t="s">
-        <v>2648</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="B1366" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="B1367" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
       <c r="B1368" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="B1369" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="B1370" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
       <c r="B1371" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="B1372" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="B1373" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="B1374" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1377" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1378" t="s">
         <v>2657</v>
       </c>
     </row>
-    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1375" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1376" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1378" s="1" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B1378" s="1"/>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1379" t="s">
-        <v>2643</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>2660</v>
-      </c>
-    </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1380" t="s">
-        <v>2644</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>2661</v>
-      </c>
+      <c r="A1380" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
       <c r="B1381" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="B1382" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2664</v>
+        <v>2643</v>
       </c>
       <c r="B1383" t="s">
-        <v>2692</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2665</v>
+        <v>2644</v>
       </c>
       <c r="B1384" t="s">
-        <v>2693</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="B1385" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="B1386" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
       <c r="B1387" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="B1388" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
       <c r="B1389" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="B1390" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
       <c r="B1391" t="s">
-        <v>2700</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="B1392" t="s">
-        <v>2701</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
       <c r="B1393" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="B1394" t="s">
-        <v>2703</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
       <c r="B1395" t="s">
-        <v>2704</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="B1396" t="s">
-        <v>2705</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
       <c r="B1397" t="s">
-        <v>2706</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>2675</v>
+      </c>
       <c r="B1398" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B1399" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1400" t="s">
-        <v>2680</v>
-      </c>
       <c r="B1400" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="B1401" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
       <c r="B1402" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="B1403" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
       <c r="B1404" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="B1405" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
       <c r="B1406" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
       <c r="B1407" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
       <c r="B1408" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="B1409" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
       <c r="B1410" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="B1411" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2721</v>
+        <v>2688</v>
       </c>
       <c r="B1412" t="s">
-        <v>2756</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2722</v>
+        <v>2689</v>
       </c>
       <c r="B1413" t="s">
-        <v>2757</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="B1414" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="B1415" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
       <c r="B1416" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
       <c r="B1417" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
       <c r="B1418" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="B1419" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
       <c r="B1420" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
       <c r="B1421" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="B1422" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="B1423" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="B1424" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="B1425" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="B1426" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
       <c r="B1427" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
       <c r="B1428" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="B1429" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
       <c r="B1430" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
       <c r="B1431" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="B1432" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="B1433" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="B1434" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
       <c r="B1435" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="B1436" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="B1437" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="B1438" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2783</v>
+        <v>2744</v>
       </c>
       <c r="B1439" t="s">
-        <v>2784</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="B1440" t="s">
-        <v>2785</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>2781</v>
+      </c>
       <c r="B1441" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="B1442" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1443" t="s">
-        <v>2750</v>
-      </c>
       <c r="B1443" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
       <c r="B1444" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="B1445" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="B1446" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="B1447" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
       <c r="B1448" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2798</v>
+        <v>2752</v>
       </c>
       <c r="B1449" t="s">
-        <v>2804</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>2753</v>
+      </c>
       <c r="B1450" t="s">
-        <v>2805</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>2796</v>
+      </c>
       <c r="B1451" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1452" t="s">
-        <v>2799</v>
-      </c>
       <c r="B1452" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="B1454" t="s">
-        <v>2809</v>
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1455" t="s">
+        <v>2806</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1456" s="1" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B1456" s="1"/>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1457" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>2810</v>
+      <c r="A1456" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>2807</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1458" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B1458" t="s">
+      <c r="A1458" s="1" t="s">
         <v>2811</v>
       </c>
+      <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="B1459" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2814</v>
+        <v>2800</v>
       </c>
       <c r="B1460" t="s">
-        <v>2833</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2815</v>
+        <v>2801</v>
       </c>
       <c r="B1461" t="s">
-        <v>2834</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
       <c r="B1462" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="B1463" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2818</v>
+        <v>2814</v>
       </c>
       <c r="B1464" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="B1465" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="B1466" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="B1467" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="B1468" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="B1469" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="B1470" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
       <c r="B1471" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="B1472" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="B1473" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>2824</v>
+      </c>
       <c r="B1474" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="B1475" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B1477" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1478" t="s">
-        <v>2830</v>
-      </c>
       <c r="B1478" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="B1479" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="B1480" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2854</v>
+        <v>2829</v>
       </c>
       <c r="B1481" t="s">
-        <v>2886</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2855</v>
+        <v>2830</v>
       </c>
       <c r="B1482" t="s">
-        <v>2887</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="B1483" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="B1484" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
       <c r="B1485" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="B1486" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="B1487" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
       <c r="B1488" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="B1489" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="B1490" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
       <c r="B1491" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="B1492" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="B1493" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="B1494" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B1495" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="B1496" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="B1497" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="B1498" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="B1499" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="B1500" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="B1501" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="B1502" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="B1503" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="B1504" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="B1505" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="B1506" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="B1507" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
       <c r="B1508" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="B1509" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="B1510" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
       <c r="B1511" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="B1512" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2918</v>
+        <v>2882</v>
       </c>
       <c r="B1513" t="s">
-        <v>2948</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2919</v>
+        <v>2883</v>
       </c>
       <c r="B1514" t="s">
-        <v>2949</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="B1515" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="B1516" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B1517" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="B1518" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="B1519" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="B1520" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B1521" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B1522" t="s">
-        <v>2397</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="B1523" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>2925</v>
+      </c>
       <c r="B1524" t="s">
-        <v>2958</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="B1525" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1526" t="s">
-        <v>2930</v>
-      </c>
       <c r="B1526" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="B1527" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B1528" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="B1529" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="B1530" t="s">
-        <v>2964</v>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1531" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>2961</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1532" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="B1532" s="1"/>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1533" t="s">
-        <v>2935</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>2965</v>
+      <c r="A1532" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>2962</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1534" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B1534" t="s">
-        <v>2966</v>
-      </c>
+      <c r="A1534" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="B1535" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="B1536" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="B1537" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="B1538" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="B1539" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="B1540" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="B1541" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="B1542" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="B1543" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="B1544" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="B1545" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2978</v>
+        <v>2944</v>
       </c>
       <c r="B1546" t="s">
-        <v>3008</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1547" t="s">
+        <v>2945</v>
+      </c>
       <c r="B1547" t="s">
-        <v>3009</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="B1548" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1549" t="s">
-        <v>2980</v>
-      </c>
       <c r="B1549" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B1550" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="B1551" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="B1552" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1553" t="s">
+        <v>2980</v>
+      </c>
       <c r="B1553" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="B1554" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1555" t="s">
-        <v>2985</v>
-      </c>
       <c r="B1555" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B1556" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="B1557" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="B1558" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="B1559" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="B1560" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B1561" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="B1562" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B1563" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="B1564" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="B1565" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="B1566" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B1567" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="B1568" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B1569" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B1570" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B1571" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="B1572" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="B1573" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B1574" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B1575" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B1576" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B1577" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>3040</v>
+        <v>3004</v>
       </c>
       <c r="B1578" t="s">
-        <v>3050</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3041</v>
+        <v>3005</v>
       </c>
       <c r="B1579" t="s">
-        <v>3051</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="B1580" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B1581" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="B1582" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="B1583" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="B1584" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="B1585" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="B1586" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="B1587" t="s">
-        <v>3059</v>
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1588" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1589" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>3057</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1532:B1532"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A1534:B1534"/>
     <mergeCell ref="A384:B384"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A75:B75"/>
@@ -40369,18 +40380,13 @@
     <mergeCell ref="A310:B310"/>
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
-    <mergeCell ref="A1000:B1000"/>
-    <mergeCell ref="A1074:B1074"/>
+    <mergeCell ref="A1002:B1002"/>
+    <mergeCell ref="A1076:B1076"/>
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
     <mergeCell ref="A671:B671"/>
     <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1150:B1150"/>
-    <mergeCell ref="A1224:B1224"/>
-    <mergeCell ref="A1300:B1300"/>
-    <mergeCell ref="A1378:B1378"/>
-    <mergeCell ref="A1456:B1456"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="3061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="3063">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27673,6 +27673,14 @@
     <rPh sb="6" eb="7">
       <t>yue</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page 416</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -27999,10 +28007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1589"/>
+  <dimension ref="A1:B1591"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A958" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A967" sqref="A967:XFD967"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1544" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1554" sqref="B1554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35551,4827 +35559,4836 @@
         <v>1850</v>
       </c>
     </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A968" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B968" s="1"/>
+    </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1851</v>
+        <v>1919</v>
       </c>
       <c r="B969" t="s">
-        <v>1866</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1852</v>
+        <v>1920</v>
       </c>
       <c r="B970" t="s">
-        <v>1867</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1853</v>
+        <v>1921</v>
       </c>
       <c r="B971" t="s">
-        <v>1868</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1854</v>
+        <v>1922</v>
       </c>
       <c r="B972" t="s">
-        <v>1869</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1855</v>
+        <v>1923</v>
       </c>
       <c r="B973" t="s">
-        <v>1870</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1856</v>
+        <v>1924</v>
       </c>
       <c r="B974" t="s">
-        <v>1871</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1857</v>
+        <v>1925</v>
       </c>
       <c r="B975" t="s">
-        <v>1872</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1858</v>
+        <v>1926</v>
       </c>
       <c r="B976" t="s">
-        <v>1873</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1859</v>
+        <v>1927</v>
       </c>
       <c r="B977" t="s">
-        <v>1874</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1860</v>
+        <v>1928</v>
       </c>
       <c r="B978" t="s">
-        <v>1875</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1861</v>
+        <v>1929</v>
       </c>
       <c r="B979" t="s">
-        <v>1876</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1862</v>
+        <v>1930</v>
       </c>
       <c r="B980" t="s">
-        <v>1877</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>1931</v>
+      </c>
       <c r="B981" t="s">
-        <v>1878</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1863</v>
+        <v>1932</v>
       </c>
       <c r="B982" t="s">
-        <v>1879</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1864</v>
+        <v>1933</v>
       </c>
       <c r="B983" t="s">
-        <v>1880</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1865</v>
+        <v>1934</v>
       </c>
       <c r="B984" t="s">
-        <v>1881</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1889</v>
+        <v>1935</v>
       </c>
       <c r="B985" t="s">
-        <v>1903</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1890</v>
+        <v>1936</v>
       </c>
       <c r="B986" t="s">
-        <v>1904</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1891</v>
+        <v>1937</v>
       </c>
       <c r="B987" t="s">
-        <v>1905</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1892</v>
+        <v>1938</v>
       </c>
       <c r="B988" t="s">
-        <v>1906</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1893</v>
+        <v>1939</v>
       </c>
       <c r="B989" t="s">
-        <v>1907</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1894</v>
+        <v>1940</v>
       </c>
       <c r="B990" t="s">
-        <v>1908</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1895</v>
+        <v>1941</v>
       </c>
       <c r="B991" t="s">
-        <v>1909</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1896</v>
+        <v>1942</v>
       </c>
       <c r="B992" t="s">
-        <v>1910</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1897</v>
+        <v>1943</v>
       </c>
       <c r="B993" t="s">
-        <v>1911</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1898</v>
+        <v>1970</v>
       </c>
       <c r="B994" t="s">
-        <v>1912</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>1971</v>
+      </c>
       <c r="B995" t="s">
-        <v>1913</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1899</v>
+        <v>1972</v>
       </c>
       <c r="B996" t="s">
-        <v>1914</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1900</v>
+        <v>1973</v>
       </c>
       <c r="B997" t="s">
-        <v>1915</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1901</v>
+        <v>1974</v>
       </c>
       <c r="B998" t="s">
-        <v>1916</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1902</v>
+        <v>1975</v>
       </c>
       <c r="B999" t="s">
-        <v>1917</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1918</v>
+        <v>1976</v>
       </c>
       <c r="B1000" t="s">
-        <v>1944</v>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1" t="s">
-        <v>2208</v>
-      </c>
-      <c r="B1002" s="1"/>
+      <c r="A1002" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1993</v>
+      </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1919</v>
+        <v>1979</v>
       </c>
       <c r="B1003" t="s">
-        <v>1945</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="B1004" t="s">
-        <v>1946</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1921</v>
+        <v>1981</v>
       </c>
       <c r="B1005" t="s">
-        <v>1947</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1922</v>
+        <v>1982</v>
       </c>
       <c r="B1006" t="s">
-        <v>1948</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1007" t="s">
-        <v>1923</v>
-      </c>
       <c r="B1007" t="s">
-        <v>1949</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1924</v>
+        <v>1983</v>
       </c>
       <c r="B1008" t="s">
-        <v>1950</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1925</v>
+        <v>1984</v>
       </c>
       <c r="B1009" t="s">
-        <v>1951</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1926</v>
+        <v>2001</v>
       </c>
       <c r="B1010" t="s">
-        <v>1952</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1927</v>
+        <v>2002</v>
       </c>
       <c r="B1011" t="s">
-        <v>1953</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1928</v>
+        <v>2003</v>
       </c>
       <c r="B1012" t="s">
-        <v>1954</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1929</v>
+        <v>2004</v>
       </c>
       <c r="B1013" t="s">
-        <v>1955</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1930</v>
+        <v>2005</v>
       </c>
       <c r="B1014" t="s">
-        <v>1956</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1931</v>
+        <v>2006</v>
       </c>
       <c r="B1015" t="s">
-        <v>1957</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1932</v>
+        <v>2007</v>
       </c>
       <c r="B1016" t="s">
-        <v>1958</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1933</v>
+        <v>2008</v>
       </c>
       <c r="B1017" t="s">
-        <v>1959</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1934</v>
+        <v>2009</v>
       </c>
       <c r="B1018" t="s">
-        <v>1960</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1935</v>
+        <v>2010</v>
       </c>
       <c r="B1019" t="s">
-        <v>1961</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1936</v>
+        <v>2011</v>
       </c>
       <c r="B1020" t="s">
-        <v>1962</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1937</v>
+        <v>2012</v>
       </c>
       <c r="B1021" t="s">
-        <v>1963</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1938</v>
+        <v>2013</v>
       </c>
       <c r="B1022" t="s">
-        <v>1964</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1939</v>
+        <v>2014</v>
       </c>
       <c r="B1023" t="s">
-        <v>1965</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1940</v>
+        <v>2015</v>
       </c>
       <c r="B1024" t="s">
-        <v>1966</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1941</v>
+        <v>2016</v>
       </c>
       <c r="B1025" t="s">
-        <v>1967</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1942</v>
+        <v>2017</v>
       </c>
       <c r="B1026" t="s">
-        <v>1968</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1943</v>
+        <v>2018</v>
       </c>
       <c r="B1027" t="s">
-        <v>1969</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1970</v>
+        <v>2019</v>
       </c>
       <c r="B1028" t="s">
-        <v>1985</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1971</v>
+        <v>2020</v>
       </c>
       <c r="B1029" t="s">
-        <v>1986</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1972</v>
+        <v>2021</v>
       </c>
       <c r="B1030" t="s">
-        <v>1987</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1973</v>
+        <v>2022</v>
       </c>
       <c r="B1031" t="s">
-        <v>1988</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1974</v>
+        <v>2023</v>
       </c>
       <c r="B1032" t="s">
-        <v>1989</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1975</v>
+        <v>2024</v>
       </c>
       <c r="B1033" t="s">
-        <v>1990</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1976</v>
+        <v>2025</v>
       </c>
       <c r="B1034" t="s">
-        <v>1991</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1977</v>
+        <v>2026</v>
       </c>
       <c r="B1035" t="s">
-        <v>1992</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1978</v>
+        <v>2027</v>
       </c>
       <c r="B1036" t="s">
-        <v>1993</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1979</v>
+        <v>2028</v>
       </c>
       <c r="B1037" t="s">
-        <v>1994</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1980</v>
+        <v>2029</v>
       </c>
       <c r="B1038" t="s">
-        <v>1995</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1981</v>
+        <v>2030</v>
       </c>
       <c r="B1039" t="s">
-        <v>1996</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1982</v>
+        <v>2031</v>
       </c>
       <c r="B1040" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1041" t="s">
-        <v>1998</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1042" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>1999</v>
-      </c>
+      <c r="A1042" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1042" s="1"/>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1984</v>
+        <v>2063</v>
       </c>
       <c r="B1043" t="s">
-        <v>2000</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>2001</v>
+        <v>2064</v>
       </c>
       <c r="B1044" t="s">
-        <v>2032</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>2002</v>
+        <v>2065</v>
       </c>
       <c r="B1045" t="s">
-        <v>2033</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>2003</v>
+        <v>2066</v>
       </c>
       <c r="B1046" t="s">
-        <v>2034</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>2004</v>
+        <v>2067</v>
       </c>
       <c r="B1047" t="s">
-        <v>2035</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>2005</v>
+        <v>2068</v>
       </c>
       <c r="B1048" t="s">
-        <v>2036</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>2006</v>
+        <v>2069</v>
       </c>
       <c r="B1049" t="s">
-        <v>2037</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>2007</v>
+        <v>2070</v>
       </c>
       <c r="B1050" t="s">
-        <v>2038</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>2008</v>
+        <v>2071</v>
       </c>
       <c r="B1051" t="s">
-        <v>2039</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>2009</v>
+        <v>2072</v>
       </c>
       <c r="B1052" t="s">
-        <v>2040</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>2010</v>
+        <v>2073</v>
       </c>
       <c r="B1053" t="s">
-        <v>2041</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>2011</v>
+        <v>2074</v>
       </c>
       <c r="B1054" t="s">
-        <v>2042</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>2012</v>
+        <v>2075</v>
       </c>
       <c r="B1055" t="s">
-        <v>2043</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>2013</v>
+        <v>2076</v>
       </c>
       <c r="B1056" t="s">
-        <v>2044</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1057" t="s">
-        <v>2014</v>
-      </c>
       <c r="B1057" t="s">
-        <v>2045</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2015</v>
+        <v>2077</v>
       </c>
       <c r="B1058" t="s">
-        <v>2046</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>2016</v>
+        <v>2078</v>
       </c>
       <c r="B1059" t="s">
-        <v>2047</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>2017</v>
+        <v>2098</v>
       </c>
       <c r="B1060" t="s">
-        <v>2048</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>2018</v>
+        <v>2099</v>
       </c>
       <c r="B1061" t="s">
-        <v>2049</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2019</v>
+        <v>2101</v>
       </c>
       <c r="B1062" t="s">
-        <v>2050</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2020</v>
+        <v>2102</v>
       </c>
       <c r="B1063" t="s">
-        <v>2051</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>2021</v>
+        <v>2103</v>
       </c>
       <c r="B1064" t="s">
-        <v>2052</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2022</v>
+        <v>2104</v>
       </c>
       <c r="B1065" t="s">
-        <v>2053</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2023</v>
+        <v>2105</v>
       </c>
       <c r="B1066" t="s">
-        <v>2054</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2024</v>
+        <v>2106</v>
       </c>
       <c r="B1067" t="s">
-        <v>2055</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2025</v>
+        <v>2107</v>
       </c>
       <c r="B1068" t="s">
-        <v>2056</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2026</v>
+        <v>2108</v>
       </c>
       <c r="B1069" t="s">
-        <v>2057</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2027</v>
+        <v>2109</v>
       </c>
       <c r="B1070" t="s">
-        <v>2058</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2028</v>
+        <v>2110</v>
       </c>
       <c r="B1071" t="s">
-        <v>2059</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2029</v>
+        <v>2111</v>
       </c>
       <c r="B1072" t="s">
-        <v>2060</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2030</v>
+        <v>2112</v>
       </c>
       <c r="B1073" t="s">
-        <v>2061</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2031</v>
+        <v>2113</v>
       </c>
       <c r="B1074" t="s">
-        <v>2062</v>
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1076" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B1076" s="1"/>
+      <c r="A1076" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2154</v>
+      </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1077" t="s">
-        <v>2063</v>
-      </c>
       <c r="B1077" t="s">
-        <v>2079</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2064</v>
+        <v>2132</v>
       </c>
       <c r="B1078" t="s">
-        <v>2080</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2065</v>
+        <v>2133</v>
       </c>
       <c r="B1079" t="s">
-        <v>2081</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2066</v>
+        <v>2134</v>
       </c>
       <c r="B1080" t="s">
-        <v>2082</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2067</v>
+        <v>2135</v>
       </c>
       <c r="B1081" t="s">
-        <v>2083</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2068</v>
+        <v>2136</v>
       </c>
       <c r="B1082" t="s">
-        <v>2084</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2069</v>
+        <v>2137</v>
       </c>
       <c r="B1083" t="s">
-        <v>2085</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2070</v>
+        <v>2138</v>
       </c>
       <c r="B1084" t="s">
-        <v>2086</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1085" t="s">
-        <v>2071</v>
-      </c>
       <c r="B1085" t="s">
-        <v>2087</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2072</v>
+        <v>2139</v>
       </c>
       <c r="B1086" t="s">
-        <v>2088</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2073</v>
+        <v>2140</v>
       </c>
       <c r="B1087" t="s">
-        <v>2089</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2074</v>
+        <v>2141</v>
       </c>
       <c r="B1088" t="s">
-        <v>2090</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2075</v>
+        <v>2142</v>
       </c>
       <c r="B1089" t="s">
-        <v>2091</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2076</v>
+        <v>2143</v>
       </c>
       <c r="B1090" t="s">
-        <v>2092</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>2144</v>
+      </c>
       <c r="B1091" t="s">
-        <v>2093</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2077</v>
+        <v>2145</v>
       </c>
       <c r="B1092" t="s">
-        <v>2094</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2078</v>
+        <v>2146</v>
       </c>
       <c r="B1093" t="s">
-        <v>2095</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2098</v>
+        <v>2147</v>
       </c>
       <c r="B1094" t="s">
-        <v>2115</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2099</v>
+        <v>2148</v>
       </c>
       <c r="B1095" t="s">
-        <v>2116</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2101</v>
+        <v>2149</v>
       </c>
       <c r="B1096" t="s">
-        <v>2117</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2102</v>
+        <v>2150</v>
       </c>
       <c r="B1097" t="s">
-        <v>2118</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2103</v>
+        <v>2151</v>
       </c>
       <c r="B1098" t="s">
-        <v>2119</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2104</v>
+        <v>2152</v>
       </c>
       <c r="B1099" t="s">
-        <v>2120</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2105</v>
+        <v>2153</v>
       </c>
       <c r="B1100" t="s">
-        <v>2121</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2106</v>
+        <v>2179</v>
       </c>
       <c r="B1101" t="s">
-        <v>2122</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2107</v>
+        <v>2180</v>
       </c>
       <c r="B1102" t="s">
-        <v>2123</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2108</v>
+        <v>2181</v>
       </c>
       <c r="B1103" t="s">
-        <v>2124</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2109</v>
+        <v>2182</v>
       </c>
       <c r="B1104" t="s">
-        <v>2125</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2110</v>
+        <v>2183</v>
       </c>
       <c r="B1105" t="s">
-        <v>2126</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2111</v>
+        <v>2184</v>
       </c>
       <c r="B1106" t="s">
-        <v>2127</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2112</v>
+        <v>2185</v>
       </c>
       <c r="B1107" t="s">
-        <v>2128</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2113</v>
+        <v>2186</v>
       </c>
       <c r="B1108" t="s">
-        <v>2129</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2114</v>
+        <v>2187</v>
       </c>
       <c r="B1109" t="s">
-        <v>2130</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2131</v>
+        <v>2188</v>
       </c>
       <c r="B1110" t="s">
-        <v>2154</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>2189</v>
+      </c>
       <c r="B1111" t="s">
-        <v>2155</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2132</v>
+        <v>2210</v>
       </c>
       <c r="B1112" t="s">
-        <v>2156</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2133</v>
+        <v>2211</v>
       </c>
       <c r="B1113" t="s">
-        <v>2157</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2134</v>
+        <v>2212</v>
       </c>
       <c r="B1114" t="s">
-        <v>2158</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2135</v>
+        <v>2213</v>
       </c>
       <c r="B1115" t="s">
-        <v>2159</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2136</v>
+        <v>2214</v>
       </c>
       <c r="B1116" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1117" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>2161</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1118" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>2162</v>
-      </c>
+      <c r="A1118" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1118" s="1"/>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>2215</v>
+      </c>
       <c r="B1119" t="s">
-        <v>2163</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2139</v>
+        <v>2216</v>
       </c>
       <c r="B1120" t="s">
-        <v>2164</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2140</v>
+        <v>2217</v>
       </c>
       <c r="B1121" t="s">
-        <v>2165</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2141</v>
+        <v>2218</v>
       </c>
       <c r="B1122" t="s">
-        <v>2166</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2142</v>
+        <v>2219</v>
       </c>
       <c r="B1123" t="s">
-        <v>2167</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2143</v>
+        <v>2220</v>
       </c>
       <c r="B1124" t="s">
-        <v>2168</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2144</v>
+        <v>2221</v>
       </c>
       <c r="B1125" t="s">
-        <v>2169</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2145</v>
+        <v>2222</v>
       </c>
       <c r="B1126" t="s">
-        <v>2170</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2146</v>
+        <v>2236</v>
       </c>
       <c r="B1127" t="s">
-        <v>2171</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2147</v>
+        <v>2237</v>
       </c>
       <c r="B1128" t="s">
-        <v>2172</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2148</v>
+        <v>2238</v>
       </c>
       <c r="B1129" t="s">
-        <v>2173</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2149</v>
+        <v>2239</v>
       </c>
       <c r="B1130" t="s">
-        <v>2174</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2150</v>
+        <v>2240</v>
       </c>
       <c r="B1131" t="s">
-        <v>2175</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2151</v>
+        <v>2241</v>
       </c>
       <c r="B1132" t="s">
-        <v>2176</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2152</v>
+        <v>2242</v>
       </c>
       <c r="B1133" t="s">
-        <v>2177</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2153</v>
+        <v>2243</v>
       </c>
       <c r="B1134" t="s">
-        <v>2178</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2179</v>
+        <v>2244</v>
       </c>
       <c r="B1135" t="s">
-        <v>2190</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2180</v>
+        <v>2245</v>
       </c>
       <c r="B1136" t="s">
-        <v>2191</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2181</v>
+        <v>2246</v>
       </c>
       <c r="B1137" t="s">
-        <v>2192</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2182</v>
+        <v>2247</v>
       </c>
       <c r="B1138" t="s">
-        <v>2193</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2183</v>
+        <v>2248</v>
       </c>
       <c r="B1139" t="s">
-        <v>2194</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2184</v>
+        <v>2249</v>
       </c>
       <c r="B1140" t="s">
-        <v>2195</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2185</v>
+        <v>2250</v>
       </c>
       <c r="B1141" t="s">
-        <v>2196</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2186</v>
+        <v>2251</v>
       </c>
       <c r="B1142" t="s">
-        <v>2197</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2187</v>
+        <v>2252</v>
       </c>
       <c r="B1143" t="s">
-        <v>2198</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2188</v>
+        <v>2253</v>
       </c>
       <c r="B1144" t="s">
-        <v>2199</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2189</v>
+        <v>2254</v>
       </c>
       <c r="B1145" t="s">
-        <v>2200</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2210</v>
+        <v>2255</v>
       </c>
       <c r="B1146" t="s">
-        <v>2223</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2211</v>
+        <v>2256</v>
       </c>
       <c r="B1147" t="s">
-        <v>2224</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2212</v>
+        <v>2257</v>
       </c>
       <c r="B1148" t="s">
-        <v>2225</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2213</v>
+        <v>2258</v>
       </c>
       <c r="B1149" t="s">
-        <v>2226</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2214</v>
+        <v>2259</v>
       </c>
       <c r="B1150" t="s">
-        <v>2227</v>
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2287</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1152" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B1152" s="1"/>
+      <c r="A1152" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2288</v>
+      </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2215</v>
+        <v>2262</v>
       </c>
       <c r="B1153" t="s">
-        <v>2228</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2216</v>
+        <v>2290</v>
       </c>
       <c r="B1154" t="s">
-        <v>2229</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2217</v>
+        <v>2291</v>
       </c>
       <c r="B1155" t="s">
-        <v>2230</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2218</v>
+        <v>2292</v>
       </c>
       <c r="B1156" t="s">
-        <v>2231</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2219</v>
+        <v>2293</v>
       </c>
       <c r="B1157" t="s">
-        <v>2232</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2220</v>
+        <v>2294</v>
       </c>
       <c r="B1158" t="s">
-        <v>2233</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2221</v>
+        <v>2295</v>
       </c>
       <c r="B1159" t="s">
-        <v>2234</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2222</v>
+        <v>2296</v>
       </c>
       <c r="B1160" t="s">
-        <v>2235</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2236</v>
+        <v>2297</v>
       </c>
       <c r="B1161" t="s">
-        <v>2263</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2237</v>
+        <v>2298</v>
       </c>
       <c r="B1162" t="s">
-        <v>2264</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2238</v>
+        <v>2299</v>
       </c>
       <c r="B1163" t="s">
-        <v>2265</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2239</v>
+        <v>2300</v>
       </c>
       <c r="B1164" t="s">
-        <v>2266</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2240</v>
+        <v>2301</v>
       </c>
       <c r="B1165" t="s">
-        <v>2267</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2241</v>
+        <v>2302</v>
       </c>
       <c r="B1166" t="s">
-        <v>2268</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2242</v>
+        <v>2303</v>
       </c>
       <c r="B1167" t="s">
-        <v>2269</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2243</v>
+        <v>2304</v>
       </c>
       <c r="B1168" t="s">
-        <v>2270</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2244</v>
+        <v>2305</v>
       </c>
       <c r="B1169" t="s">
-        <v>2271</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2245</v>
+        <v>2306</v>
       </c>
       <c r="B1170" t="s">
-        <v>2272</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2246</v>
+        <v>2307</v>
       </c>
       <c r="B1171" t="s">
-        <v>2273</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2247</v>
+        <v>2308</v>
       </c>
       <c r="B1172" t="s">
-        <v>2274</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2248</v>
+        <v>2309</v>
       </c>
       <c r="B1173" t="s">
-        <v>2275</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2249</v>
+        <v>2310</v>
       </c>
       <c r="B1174" t="s">
-        <v>2276</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2250</v>
+        <v>2311</v>
       </c>
       <c r="B1175" t="s">
-        <v>2277</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="B1176" t="s">
-        <v>2278</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2252</v>
+        <v>2313</v>
       </c>
       <c r="B1177" t="s">
-        <v>2279</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2253</v>
+        <v>2314</v>
       </c>
       <c r="B1178" t="s">
-        <v>2280</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2254</v>
+        <v>2315</v>
       </c>
       <c r="B1179" t="s">
-        <v>2281</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2255</v>
+        <v>2316</v>
       </c>
       <c r="B1180" t="s">
-        <v>2282</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2256</v>
+        <v>2317</v>
       </c>
       <c r="B1181" t="s">
-        <v>2283</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2257</v>
+        <v>2318</v>
       </c>
       <c r="B1182" t="s">
-        <v>2284</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2258</v>
+        <v>2319</v>
       </c>
       <c r="B1183" t="s">
-        <v>2285</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1184" t="s">
-        <v>2259</v>
-      </c>
       <c r="B1184" t="s">
-        <v>2286</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2260</v>
+        <v>2320</v>
       </c>
       <c r="B1185" t="s">
-        <v>2287</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2261</v>
+        <v>2353</v>
       </c>
       <c r="B1186" t="s">
-        <v>2288</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2262</v>
+        <v>2354</v>
       </c>
       <c r="B1187" t="s">
-        <v>2289</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2290</v>
+        <v>2355</v>
       </c>
       <c r="B1188" t="s">
-        <v>2321</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2291</v>
+        <v>2356</v>
       </c>
       <c r="B1189" t="s">
-        <v>2322</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2292</v>
+        <v>2357</v>
       </c>
       <c r="B1190" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1191" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>2324</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1192" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B1192" t="s">
-        <v>2325</v>
-      </c>
+      <c r="A1192" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1192" s="1"/>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2295</v>
+        <v>2358</v>
       </c>
       <c r="B1193" t="s">
-        <v>2326</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2296</v>
+        <v>2359</v>
       </c>
       <c r="B1194" t="s">
-        <v>2327</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2297</v>
+        <v>2360</v>
       </c>
       <c r="B1195" t="s">
-        <v>2328</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2298</v>
+        <v>2361</v>
       </c>
       <c r="B1196" t="s">
-        <v>2329</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2299</v>
+        <v>2362</v>
       </c>
       <c r="B1197" t="s">
-        <v>2330</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2300</v>
+        <v>2363</v>
       </c>
       <c r="B1198" t="s">
-        <v>2331</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2301</v>
+        <v>2364</v>
       </c>
       <c r="B1199" t="s">
-        <v>2332</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2302</v>
+        <v>2365</v>
       </c>
       <c r="B1200" t="s">
-        <v>2333</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2303</v>
+        <v>2366</v>
       </c>
       <c r="B1201" t="s">
-        <v>2334</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2304</v>
+        <v>2367</v>
       </c>
       <c r="B1202" t="s">
-        <v>2335</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2305</v>
+        <v>2368</v>
       </c>
       <c r="B1203" t="s">
-        <v>2336</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2306</v>
+        <v>2369</v>
       </c>
       <c r="B1204" t="s">
-        <v>2337</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2307</v>
+        <v>2370</v>
       </c>
       <c r="B1205" t="s">
-        <v>2338</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2308</v>
+        <v>2371</v>
       </c>
       <c r="B1206" t="s">
-        <v>2339</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2309</v>
+        <v>2372</v>
       </c>
       <c r="B1207" t="s">
-        <v>2340</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2310</v>
+        <v>2373</v>
       </c>
       <c r="B1208" t="s">
-        <v>2341</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2311</v>
+        <v>2374</v>
       </c>
       <c r="B1209" t="s">
-        <v>2342</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2312</v>
+        <v>2375</v>
       </c>
       <c r="B1210" t="s">
-        <v>2343</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2313</v>
+        <v>2376</v>
       </c>
       <c r="B1211" t="s">
-        <v>2344</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2314</v>
+        <v>2377</v>
       </c>
       <c r="B1212" t="s">
-        <v>2345</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2315</v>
+        <v>2378</v>
       </c>
       <c r="B1213" t="s">
-        <v>2346</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2316</v>
+        <v>2405</v>
       </c>
       <c r="B1214" t="s">
-        <v>2347</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2317</v>
+        <v>2406</v>
       </c>
       <c r="B1215" t="s">
-        <v>2348</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2318</v>
+        <v>2407</v>
       </c>
       <c r="B1216" t="s">
-        <v>2349</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2319</v>
+        <v>2408</v>
       </c>
       <c r="B1217" t="s">
-        <v>2350</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>2409</v>
+      </c>
       <c r="B1218" t="s">
-        <v>2351</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2320</v>
+        <v>2410</v>
       </c>
       <c r="B1219" t="s">
-        <v>2352</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2353</v>
+        <v>2411</v>
       </c>
       <c r="B1220" t="s">
-        <v>2379</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2354</v>
+        <v>2412</v>
       </c>
       <c r="B1221" t="s">
-        <v>2380</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2355</v>
+        <v>2413</v>
       </c>
       <c r="B1222" t="s">
-        <v>2381</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2356</v>
+        <v>2414</v>
       </c>
       <c r="B1223" t="s">
-        <v>2382</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2357</v>
+        <v>2415</v>
       </c>
       <c r="B1224" t="s">
-        <v>2383</v>
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2445</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1226" s="1" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B1226" s="1"/>
+      <c r="B1226" t="s">
+        <v>2446</v>
+      </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2358</v>
+        <v>2417</v>
       </c>
       <c r="B1227" t="s">
-        <v>2384</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2359</v>
+        <v>2418</v>
       </c>
       <c r="B1228" t="s">
-        <v>2385</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2360</v>
+        <v>2419</v>
       </c>
       <c r="B1229" t="s">
-        <v>2386</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2361</v>
+        <v>2420</v>
       </c>
       <c r="B1230" t="s">
-        <v>2387</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2362</v>
+        <v>2421</v>
       </c>
       <c r="B1231" t="s">
-        <v>2388</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2363</v>
+        <v>2422</v>
       </c>
       <c r="B1232" t="s">
-        <v>2389</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2364</v>
+        <v>2423</v>
       </c>
       <c r="B1233" t="s">
-        <v>2390</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2365</v>
+        <v>2424</v>
       </c>
       <c r="B1234" t="s">
-        <v>2391</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2366</v>
+        <v>2425</v>
       </c>
       <c r="B1235" t="s">
-        <v>2392</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2367</v>
+        <v>2426</v>
       </c>
       <c r="B1236" t="s">
-        <v>2393</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2368</v>
+        <v>2427</v>
       </c>
       <c r="B1237" t="s">
-        <v>2394</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2369</v>
+        <v>2428</v>
       </c>
       <c r="B1238" t="s">
-        <v>2395</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2370</v>
+        <v>2429</v>
       </c>
       <c r="B1239" t="s">
-        <v>2396</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1240" t="s">
-        <v>2371</v>
-      </c>
       <c r="B1240" t="s">
-        <v>2397</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2372</v>
+        <v>2430</v>
       </c>
       <c r="B1241" t="s">
-        <v>2398</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2373</v>
+        <v>2431</v>
       </c>
       <c r="B1242" t="s">
-        <v>2399</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2374</v>
+        <v>2432</v>
       </c>
       <c r="B1243" t="s">
-        <v>2400</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2375</v>
+        <v>2433</v>
       </c>
       <c r="B1244" t="s">
-        <v>2401</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1245" t="s">
-        <v>2376</v>
-      </c>
       <c r="B1245" t="s">
-        <v>2402</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2377</v>
+        <v>2466</v>
       </c>
       <c r="B1246" t="s">
-        <v>2403</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2378</v>
+        <v>2467</v>
       </c>
       <c r="B1247" t="s">
-        <v>2404</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2405</v>
+        <v>2468</v>
       </c>
       <c r="B1248" t="s">
-        <v>2434</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2406</v>
+        <v>2469</v>
       </c>
       <c r="B1249" t="s">
-        <v>2435</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2407</v>
+        <v>2470</v>
       </c>
       <c r="B1250" t="s">
-        <v>2436</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2408</v>
+        <v>2471</v>
       </c>
       <c r="B1251" t="s">
-        <v>2437</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2409</v>
+        <v>2472</v>
       </c>
       <c r="B1252" t="s">
-        <v>2438</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2410</v>
+        <v>2473</v>
       </c>
       <c r="B1253" t="s">
-        <v>2439</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2411</v>
+        <v>2474</v>
       </c>
       <c r="B1254" t="s">
-        <v>2440</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2412</v>
+        <v>2475</v>
       </c>
       <c r="B1255" t="s">
-        <v>2441</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2413</v>
+        <v>2476</v>
       </c>
       <c r="B1256" t="s">
-        <v>2442</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2414</v>
+        <v>2477</v>
       </c>
       <c r="B1257" t="s">
-        <v>2443</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2415</v>
+        <v>2478</v>
       </c>
       <c r="B1258" t="s">
-        <v>2444</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2416</v>
+        <v>2479</v>
       </c>
       <c r="B1259" t="s">
-        <v>2445</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>2480</v>
+      </c>
       <c r="B1260" t="s">
-        <v>2446</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2417</v>
+        <v>2481</v>
       </c>
       <c r="B1261" t="s">
-        <v>2447</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2418</v>
+        <v>2482</v>
       </c>
       <c r="B1262" t="s">
-        <v>2448</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2419</v>
+        <v>2483</v>
       </c>
       <c r="B1263" t="s">
-        <v>2449</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2420</v>
+        <v>2484</v>
       </c>
       <c r="B1264" t="s">
-        <v>2450</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2421</v>
+        <v>2485</v>
       </c>
       <c r="B1265" t="s">
-        <v>2451</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2422</v>
+        <v>2486</v>
       </c>
       <c r="B1266" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1267" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B1267" t="s">
-        <v>2453</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1268" t="s">
-        <v>2424</v>
-      </c>
-      <c r="B1268" t="s">
-        <v>2454</v>
-      </c>
+      <c r="A1268" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1268" s="1"/>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2425</v>
+        <v>2487</v>
       </c>
       <c r="B1269" t="s">
-        <v>2455</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2426</v>
+        <v>2509</v>
       </c>
       <c r="B1270" t="s">
-        <v>2456</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2427</v>
+        <v>2510</v>
       </c>
       <c r="B1271" t="s">
-        <v>2457</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2428</v>
+        <v>2511</v>
       </c>
       <c r="B1272" t="s">
-        <v>2458</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2429</v>
+        <v>2512</v>
       </c>
       <c r="B1273" t="s">
-        <v>2459</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>2513</v>
+      </c>
       <c r="B1274" t="s">
-        <v>2460</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2430</v>
+        <v>2514</v>
       </c>
       <c r="B1275" t="s">
-        <v>2461</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1276" t="s">
-        <v>2431</v>
-      </c>
       <c r="B1276" t="s">
-        <v>2462</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2432</v>
+        <v>2515</v>
       </c>
       <c r="B1277" t="s">
-        <v>2463</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2433</v>
+        <v>2516</v>
       </c>
       <c r="B1278" t="s">
-        <v>2464</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>2517</v>
+      </c>
       <c r="B1279" t="s">
-        <v>2465</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2466</v>
+        <v>2518</v>
       </c>
       <c r="B1280" t="s">
-        <v>2488</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2467</v>
+        <v>2519</v>
       </c>
       <c r="B1281" t="s">
-        <v>2489</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2468</v>
+        <v>2520</v>
       </c>
       <c r="B1282" t="s">
-        <v>2490</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2469</v>
+        <v>2521</v>
       </c>
       <c r="B1283" t="s">
-        <v>2491</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2470</v>
+        <v>2522</v>
       </c>
       <c r="B1284" t="s">
-        <v>2492</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2471</v>
+        <v>2523</v>
       </c>
       <c r="B1285" t="s">
-        <v>2493</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2472</v>
+        <v>2524</v>
       </c>
       <c r="B1286" t="s">
-        <v>2494</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2473</v>
+        <v>2525</v>
       </c>
       <c r="B1287" t="s">
-        <v>2495</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2474</v>
+        <v>2526</v>
       </c>
       <c r="B1288" t="s">
-        <v>2496</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2475</v>
+        <v>2527</v>
       </c>
       <c r="B1289" t="s">
-        <v>2497</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2476</v>
+        <v>2528</v>
       </c>
       <c r="B1290" t="s">
-        <v>2498</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2477</v>
+        <v>2529</v>
       </c>
       <c r="B1291" t="s">
-        <v>2499</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2478</v>
+        <v>2530</v>
       </c>
       <c r="B1292" t="s">
-        <v>2500</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2479</v>
+        <v>2531</v>
       </c>
       <c r="B1293" t="s">
-        <v>2501</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2480</v>
+        <v>2532</v>
       </c>
       <c r="B1294" t="s">
-        <v>2502</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2481</v>
+        <v>2533</v>
       </c>
       <c r="B1295" t="s">
-        <v>2503</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2482</v>
+        <v>2534</v>
       </c>
       <c r="B1296" t="s">
-        <v>2504</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2483</v>
+        <v>2535</v>
       </c>
       <c r="B1297" t="s">
-        <v>2505</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2484</v>
+        <v>2564</v>
       </c>
       <c r="B1298" t="s">
-        <v>2506</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2485</v>
+        <v>2565</v>
       </c>
       <c r="B1299" t="s">
-        <v>2507</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2486</v>
+        <v>2566</v>
       </c>
       <c r="B1300" t="s">
-        <v>574</v>
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1302" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B1302" s="1"/>
+      <c r="A1302" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>2600</v>
+      </c>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2487</v>
+        <v>2569</v>
       </c>
       <c r="B1303" t="s">
-        <v>2508</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2509</v>
+        <v>2570</v>
       </c>
       <c r="B1304" t="s">
-        <v>2536</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2510</v>
+        <v>2571</v>
       </c>
       <c r="B1305" t="s">
-        <v>2537</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1306" t="s">
-        <v>2511</v>
-      </c>
       <c r="B1306" t="s">
-        <v>2538</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2512</v>
+        <v>2572</v>
       </c>
       <c r="B1307" t="s">
-        <v>2539</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2513</v>
+        <v>2573</v>
       </c>
       <c r="B1308" t="s">
-        <v>2540</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2514</v>
+        <v>2574</v>
       </c>
       <c r="B1309" t="s">
-        <v>2541</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>2575</v>
+      </c>
       <c r="B1310" t="s">
-        <v>2542</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2515</v>
+        <v>2576</v>
       </c>
       <c r="B1311" t="s">
-        <v>2543</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2516</v>
+        <v>2577</v>
       </c>
       <c r="B1312" t="s">
-        <v>2544</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2517</v>
+        <v>2578</v>
       </c>
       <c r="B1313" t="s">
-        <v>2545</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2518</v>
+        <v>2579</v>
       </c>
       <c r="B1314" t="s">
-        <v>2546</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2519</v>
+        <v>2580</v>
       </c>
       <c r="B1315" t="s">
-        <v>2547</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2520</v>
+        <v>2581</v>
       </c>
       <c r="B1316" t="s">
-        <v>2548</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2521</v>
+        <v>2582</v>
       </c>
       <c r="B1317" t="s">
-        <v>2549</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2522</v>
+        <v>2583</v>
       </c>
       <c r="B1318" t="s">
-        <v>2550</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2523</v>
+        <v>2584</v>
       </c>
       <c r="B1319" t="s">
-        <v>2551</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2524</v>
+        <v>2585</v>
       </c>
       <c r="B1320" t="s">
-        <v>2552</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2525</v>
+        <v>2586</v>
       </c>
       <c r="B1321" t="s">
-        <v>2553</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2526</v>
+        <v>2587</v>
       </c>
       <c r="B1322" t="s">
-        <v>2554</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2527</v>
+        <v>2588</v>
       </c>
       <c r="B1323" t="s">
-        <v>2555</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2528</v>
+        <v>2589</v>
       </c>
       <c r="B1324" t="s">
-        <v>2556</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2529</v>
+        <v>2590</v>
       </c>
       <c r="B1325" t="s">
-        <v>2557</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2530</v>
+        <v>2591</v>
       </c>
       <c r="B1326" t="s">
-        <v>2558</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2531</v>
+        <v>2592</v>
       </c>
       <c r="B1327" t="s">
-        <v>2559</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2532</v>
+        <v>2593</v>
       </c>
       <c r="B1328" t="s">
-        <v>2560</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2533</v>
+        <v>2594</v>
       </c>
       <c r="B1329" t="s">
-        <v>2561</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1330" t="s">
-        <v>2534</v>
-      </c>
       <c r="B1330" t="s">
-        <v>2562</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2535</v>
+        <v>2595</v>
       </c>
       <c r="B1331" t="s">
-        <v>2563</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2564</v>
+        <v>2630</v>
       </c>
       <c r="B1332" t="s">
-        <v>2596</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2565</v>
+        <v>2631</v>
       </c>
       <c r="B1333" t="s">
-        <v>2597</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2566</v>
+        <v>2632</v>
       </c>
       <c r="B1334" t="s">
-        <v>2598</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2567</v>
+        <v>2633</v>
       </c>
       <c r="B1335" t="s">
-        <v>2599</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2568</v>
+        <v>2634</v>
       </c>
       <c r="B1336" t="s">
-        <v>2600</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2569</v>
+        <v>2635</v>
       </c>
       <c r="B1337" t="s">
-        <v>2601</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2570</v>
+        <v>2636</v>
       </c>
       <c r="B1338" t="s">
-        <v>2602</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2571</v>
+        <v>2637</v>
       </c>
       <c r="B1339" t="s">
-        <v>2603</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>2638</v>
+      </c>
       <c r="B1340" t="s">
-        <v>2604</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2572</v>
+        <v>2639</v>
       </c>
       <c r="B1341" t="s">
-        <v>2605</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2573</v>
+        <v>2640</v>
       </c>
       <c r="B1342" t="s">
-        <v>2606</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1343" t="s">
-        <v>2574</v>
-      </c>
       <c r="B1343" t="s">
-        <v>2607</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1344" t="s">
-        <v>2575</v>
-      </c>
       <c r="B1344" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1345" t="s">
-        <v>2576</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>2609</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1346" t="s">
-        <v>2577</v>
-      </c>
-      <c r="B1346" t="s">
-        <v>2610</v>
-      </c>
+      <c r="A1346" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1346" s="1"/>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2578</v>
+        <v>2641</v>
       </c>
       <c r="B1347" t="s">
-        <v>2611</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2579</v>
+        <v>2642</v>
       </c>
       <c r="B1348" t="s">
-        <v>2612</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2580</v>
+        <v>2643</v>
       </c>
       <c r="B1349" t="s">
-        <v>2613</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2581</v>
+        <v>2644</v>
       </c>
       <c r="B1350" t="s">
-        <v>2614</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2582</v>
+        <v>2662</v>
       </c>
       <c r="B1351" t="s">
-        <v>2615</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2583</v>
+        <v>2663</v>
       </c>
       <c r="B1352" t="s">
-        <v>2616</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2584</v>
+        <v>2664</v>
       </c>
       <c r="B1353" t="s">
-        <v>2617</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2585</v>
+        <v>2665</v>
       </c>
       <c r="B1354" t="s">
-        <v>2618</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2586</v>
+        <v>2666</v>
       </c>
       <c r="B1355" t="s">
-        <v>2619</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2587</v>
+        <v>2667</v>
       </c>
       <c r="B1356" t="s">
-        <v>2620</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2588</v>
+        <v>2668</v>
       </c>
       <c r="B1357" t="s">
-        <v>2621</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2589</v>
+        <v>2669</v>
       </c>
       <c r="B1358" t="s">
-        <v>2622</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2590</v>
+        <v>2670</v>
       </c>
       <c r="B1359" t="s">
-        <v>2623</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2591</v>
+        <v>2671</v>
       </c>
       <c r="B1360" t="s">
-        <v>2624</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2592</v>
+        <v>2672</v>
       </c>
       <c r="B1361" t="s">
-        <v>2625</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2593</v>
+        <v>2673</v>
       </c>
       <c r="B1362" t="s">
-        <v>2626</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2594</v>
+        <v>2674</v>
       </c>
       <c r="B1363" t="s">
-        <v>2627</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>2675</v>
+      </c>
       <c r="B1364" t="s">
-        <v>2628</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2595</v>
+        <v>2676</v>
       </c>
       <c r="B1365" t="s">
-        <v>2629</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1366" t="s">
-        <v>2630</v>
-      </c>
       <c r="B1366" t="s">
-        <v>2645</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2631</v>
+        <v>2677</v>
       </c>
       <c r="B1367" t="s">
-        <v>2646</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2632</v>
+        <v>2678</v>
       </c>
       <c r="B1368" t="s">
-        <v>2647</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2633</v>
+        <v>2679</v>
       </c>
       <c r="B1369" t="s">
-        <v>2648</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2634</v>
+        <v>2680</v>
       </c>
       <c r="B1370" t="s">
-        <v>2649</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2635</v>
+        <v>2681</v>
       </c>
       <c r="B1371" t="s">
-        <v>2650</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2636</v>
+        <v>2682</v>
       </c>
       <c r="B1372" t="s">
-        <v>2651</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2637</v>
+        <v>2683</v>
       </c>
       <c r="B1373" t="s">
-        <v>2652</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2638</v>
+        <v>2684</v>
       </c>
       <c r="B1374" t="s">
-        <v>2653</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2639</v>
+        <v>2685</v>
       </c>
       <c r="B1375" t="s">
-        <v>2654</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2640</v>
+        <v>2686</v>
       </c>
       <c r="B1376" t="s">
-        <v>2655</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>2687</v>
+      </c>
       <c r="B1377" t="s">
-        <v>2656</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>2688</v>
+      </c>
       <c r="B1378" t="s">
-        <v>2657</v>
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>2718</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1380" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B1380" s="1"/>
+      <c r="A1380" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>2754</v>
+      </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2641</v>
+        <v>2720</v>
       </c>
       <c r="B1381" t="s">
-        <v>2658</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2642</v>
+        <v>2721</v>
       </c>
       <c r="B1382" t="s">
-        <v>2659</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2643</v>
+        <v>2722</v>
       </c>
       <c r="B1383" t="s">
-        <v>2660</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2644</v>
+        <v>2723</v>
       </c>
       <c r="B1384" t="s">
-        <v>2661</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2662</v>
+        <v>2724</v>
       </c>
       <c r="B1385" t="s">
-        <v>2690</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2663</v>
+        <v>2725</v>
       </c>
       <c r="B1386" t="s">
-        <v>2691</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2664</v>
+        <v>2726</v>
       </c>
       <c r="B1387" t="s">
-        <v>2692</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2665</v>
+        <v>2727</v>
       </c>
       <c r="B1388" t="s">
-        <v>2693</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2666</v>
+        <v>2728</v>
       </c>
       <c r="B1389" t="s">
-        <v>2694</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2667</v>
+        <v>2729</v>
       </c>
       <c r="B1390" t="s">
-        <v>2695</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2668</v>
+        <v>2730</v>
       </c>
       <c r="B1391" t="s">
-        <v>2696</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2669</v>
+        <v>2731</v>
       </c>
       <c r="B1392" t="s">
-        <v>2697</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2670</v>
+        <v>2732</v>
       </c>
       <c r="B1393" t="s">
-        <v>2698</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2671</v>
+        <v>2733</v>
       </c>
       <c r="B1394" t="s">
-        <v>2699</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2672</v>
+        <v>2734</v>
       </c>
       <c r="B1395" t="s">
-        <v>2700</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2673</v>
+        <v>2735</v>
       </c>
       <c r="B1396" t="s">
-        <v>2701</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2674</v>
+        <v>2736</v>
       </c>
       <c r="B1397" t="s">
-        <v>2702</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2675</v>
+        <v>2737</v>
       </c>
       <c r="B1398" t="s">
-        <v>2703</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2676</v>
+        <v>2738</v>
       </c>
       <c r="B1399" t="s">
-        <v>2704</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>2739</v>
+      </c>
       <c r="B1400" t="s">
-        <v>2705</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2677</v>
+        <v>2740</v>
       </c>
       <c r="B1401" t="s">
-        <v>2706</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2678</v>
+        <v>2741</v>
       </c>
       <c r="B1402" t="s">
-        <v>2707</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2679</v>
+        <v>2742</v>
       </c>
       <c r="B1403" t="s">
-        <v>2708</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2680</v>
+        <v>2743</v>
       </c>
       <c r="B1404" t="s">
-        <v>2709</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2681</v>
+        <v>2744</v>
       </c>
       <c r="B1405" t="s">
-        <v>2710</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2682</v>
+        <v>2745</v>
       </c>
       <c r="B1406" t="s">
-        <v>2711</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2683</v>
+        <v>2781</v>
       </c>
       <c r="B1407" t="s">
-        <v>2712</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2684</v>
+        <v>2746</v>
       </c>
       <c r="B1408" t="s">
-        <v>2713</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1409" t="s">
-        <v>2685</v>
-      </c>
       <c r="B1409" t="s">
-        <v>2714</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2686</v>
+        <v>2747</v>
       </c>
       <c r="B1410" t="s">
-        <v>2715</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2687</v>
+        <v>2748</v>
       </c>
       <c r="B1411" t="s">
-        <v>2716</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2688</v>
+        <v>2749</v>
       </c>
       <c r="B1412" t="s">
-        <v>2717</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2689</v>
+        <v>2750</v>
       </c>
       <c r="B1413" t="s">
-        <v>2718</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2719</v>
+        <v>2751</v>
       </c>
       <c r="B1414" t="s">
-        <v>2754</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2720</v>
+        <v>2752</v>
       </c>
       <c r="B1415" t="s">
-        <v>2755</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2721</v>
+        <v>2753</v>
       </c>
       <c r="B1416" t="s">
-        <v>2756</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2722</v>
+        <v>2796</v>
       </c>
       <c r="B1417" t="s">
-        <v>2757</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1418" t="s">
-        <v>2723</v>
-      </c>
       <c r="B1418" t="s">
-        <v>2758</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1419" t="s">
-        <v>2724</v>
-      </c>
       <c r="B1419" t="s">
-        <v>2759</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2725</v>
+        <v>2797</v>
       </c>
       <c r="B1420" t="s">
-        <v>2760</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1421" t="s">
-        <v>2726</v>
-      </c>
       <c r="B1421" t="s">
-        <v>2761</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2727</v>
+        <v>2798</v>
       </c>
       <c r="B1422" t="s">
-        <v>2762</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1423" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B1423" t="s">
-        <v>2763</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1424" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B1424" t="s">
-        <v>2764</v>
-      </c>
+      <c r="A1424" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B1424" s="1"/>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2730</v>
+        <v>2799</v>
       </c>
       <c r="B1425" t="s">
-        <v>2765</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2731</v>
+        <v>2800</v>
       </c>
       <c r="B1426" t="s">
-        <v>2766</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2732</v>
+        <v>2801</v>
       </c>
       <c r="B1427" t="s">
-        <v>2767</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2733</v>
+        <v>2812</v>
       </c>
       <c r="B1428" t="s">
-        <v>2768</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2734</v>
+        <v>2813</v>
       </c>
       <c r="B1429" t="s">
-        <v>2769</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2735</v>
+        <v>2814</v>
       </c>
       <c r="B1430" t="s">
-        <v>2770</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2736</v>
+        <v>2815</v>
       </c>
       <c r="B1431" t="s">
-        <v>2771</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2737</v>
+        <v>2816</v>
       </c>
       <c r="B1432" t="s">
-        <v>2772</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2738</v>
+        <v>2817</v>
       </c>
       <c r="B1433" t="s">
-        <v>2773</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2739</v>
+        <v>2818</v>
       </c>
       <c r="B1434" t="s">
-        <v>2774</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2740</v>
+        <v>2819</v>
       </c>
       <c r="B1435" t="s">
-        <v>2775</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2741</v>
+        <v>2820</v>
       </c>
       <c r="B1436" t="s">
-        <v>2776</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2742</v>
+        <v>2821</v>
       </c>
       <c r="B1437" t="s">
-        <v>2777</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2743</v>
+        <v>2822</v>
       </c>
       <c r="B1438" t="s">
-        <v>2778</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2744</v>
+        <v>2823</v>
       </c>
       <c r="B1439" t="s">
-        <v>2779</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2745</v>
+        <v>2824</v>
       </c>
       <c r="B1440" t="s">
-        <v>2780</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2781</v>
+        <v>2825</v>
       </c>
       <c r="B1441" t="s">
-        <v>2782</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1442" t="s">
-        <v>2746</v>
-      </c>
       <c r="B1442" t="s">
-        <v>2783</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>2826</v>
+      </c>
       <c r="B1443" t="s">
-        <v>2784</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1444" t="s">
-        <v>2747</v>
-      </c>
       <c r="B1444" t="s">
-        <v>2785</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2748</v>
+        <v>2827</v>
       </c>
       <c r="B1445" t="s">
-        <v>2786</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2749</v>
+        <v>2828</v>
       </c>
       <c r="B1446" t="s">
-        <v>2787</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2750</v>
+        <v>2829</v>
       </c>
       <c r="B1447" t="s">
-        <v>2788</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2751</v>
+        <v>2830</v>
       </c>
       <c r="B1448" t="s">
-        <v>2789</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2752</v>
+        <v>2852</v>
       </c>
       <c r="B1449" t="s">
-        <v>2790</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2753</v>
+        <v>2853</v>
       </c>
       <c r="B1450" t="s">
-        <v>2791</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2796</v>
+        <v>2854</v>
       </c>
       <c r="B1451" t="s">
-        <v>2802</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>2855</v>
+      </c>
       <c r="B1452" t="s">
-        <v>2803</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>2856</v>
+      </c>
       <c r="B1453" t="s">
-        <v>2804</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2797</v>
+        <v>2857</v>
       </c>
       <c r="B1454" t="s">
-        <v>2805</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>2858</v>
+      </c>
       <c r="B1455" t="s">
-        <v>2806</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2798</v>
+        <v>2859</v>
       </c>
       <c r="B1456" t="s">
-        <v>2807</v>
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>2892</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1458" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B1458" s="1"/>
+      <c r="A1458" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>2893</v>
+      </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2799</v>
+        <v>2862</v>
       </c>
       <c r="B1459" t="s">
-        <v>2808</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2800</v>
+        <v>2863</v>
       </c>
       <c r="B1460" t="s">
-        <v>2809</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2801</v>
+        <v>2864</v>
       </c>
       <c r="B1461" t="s">
-        <v>2810</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2812</v>
+        <v>2865</v>
       </c>
       <c r="B1462" t="s">
-        <v>2831</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2813</v>
+        <v>2866</v>
       </c>
       <c r="B1463" t="s">
-        <v>2832</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2814</v>
+        <v>2867</v>
       </c>
       <c r="B1464" t="s">
-        <v>2833</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2815</v>
+        <v>2868</v>
       </c>
       <c r="B1465" t="s">
-        <v>2834</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2816</v>
+        <v>2869</v>
       </c>
       <c r="B1466" t="s">
-        <v>2835</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2817</v>
+        <v>2870</v>
       </c>
       <c r="B1467" t="s">
-        <v>2836</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2818</v>
+        <v>2871</v>
       </c>
       <c r="B1468" t="s">
-        <v>2837</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2819</v>
+        <v>2872</v>
       </c>
       <c r="B1469" t="s">
-        <v>2838</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2820</v>
+        <v>2873</v>
       </c>
       <c r="B1470" t="s">
-        <v>2839</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2821</v>
+        <v>2874</v>
       </c>
       <c r="B1471" t="s">
-        <v>2840</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2822</v>
+        <v>2875</v>
       </c>
       <c r="B1472" t="s">
-        <v>2841</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2823</v>
+        <v>2876</v>
       </c>
       <c r="B1473" t="s">
-        <v>2842</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2824</v>
+        <v>2877</v>
       </c>
       <c r="B1474" t="s">
-        <v>2843</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2825</v>
+        <v>2878</v>
       </c>
       <c r="B1475" t="s">
-        <v>2844</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1476" t="s">
+        <v>2879</v>
+      </c>
       <c r="B1476" t="s">
-        <v>2845</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2826</v>
+        <v>2880</v>
       </c>
       <c r="B1477" t="s">
-        <v>2846</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>2881</v>
+      </c>
       <c r="B1478" t="s">
-        <v>2847</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2827</v>
+        <v>2882</v>
       </c>
       <c r="B1479" t="s">
-        <v>2848</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2828</v>
+        <v>2883</v>
       </c>
       <c r="B1480" t="s">
-        <v>2849</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2829</v>
+        <v>2916</v>
       </c>
       <c r="B1481" t="s">
-        <v>2850</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2830</v>
+        <v>2917</v>
       </c>
       <c r="B1482" t="s">
-        <v>2851</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2852</v>
+        <v>2918</v>
       </c>
       <c r="B1483" t="s">
-        <v>2884</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2853</v>
+        <v>2919</v>
       </c>
       <c r="B1484" t="s">
-        <v>2885</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2854</v>
+        <v>2920</v>
       </c>
       <c r="B1485" t="s">
-        <v>2886</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2855</v>
+        <v>2921</v>
       </c>
       <c r="B1486" t="s">
-        <v>2887</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2856</v>
+        <v>2922</v>
       </c>
       <c r="B1487" t="s">
-        <v>2888</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2857</v>
+        <v>2923</v>
       </c>
       <c r="B1488" t="s">
-        <v>2889</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2858</v>
+        <v>2924</v>
       </c>
       <c r="B1489" t="s">
-        <v>2890</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2859</v>
+        <v>2925</v>
       </c>
       <c r="B1490" t="s">
-        <v>2891</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2860</v>
+        <v>2926</v>
       </c>
       <c r="B1491" t="s">
-        <v>2892</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1492" t="s">
-        <v>2861</v>
-      </c>
       <c r="B1492" t="s">
-        <v>2893</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2862</v>
+        <v>2927</v>
       </c>
       <c r="B1493" t="s">
-        <v>2894</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2863</v>
+        <v>2928</v>
       </c>
       <c r="B1494" t="s">
-        <v>2895</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2864</v>
+        <v>2929</v>
       </c>
       <c r="B1495" t="s">
-        <v>2896</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2865</v>
+        <v>2930</v>
       </c>
       <c r="B1496" t="s">
-        <v>2897</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2866</v>
+        <v>2931</v>
       </c>
       <c r="B1497" t="s">
-        <v>2898</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2867</v>
+        <v>2932</v>
       </c>
       <c r="B1498" t="s">
-        <v>2899</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1499" t="s">
-        <v>2868</v>
-      </c>
-      <c r="B1499" t="s">
-        <v>2900</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1500" t="s">
-        <v>2869</v>
-      </c>
-      <c r="B1500" t="s">
-        <v>2901</v>
-      </c>
+      <c r="A1500" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1500" s="1"/>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2870</v>
+        <v>2933</v>
       </c>
       <c r="B1501" t="s">
-        <v>2902</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2871</v>
+        <v>2934</v>
       </c>
       <c r="B1502" t="s">
-        <v>2903</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2872</v>
+        <v>2935</v>
       </c>
       <c r="B1503" t="s">
-        <v>2904</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2873</v>
+        <v>2936</v>
       </c>
       <c r="B1504" t="s">
-        <v>2905</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2874</v>
+        <v>2937</v>
       </c>
       <c r="B1505" t="s">
-        <v>2906</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2875</v>
+        <v>2938</v>
       </c>
       <c r="B1506" t="s">
-        <v>2907</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2876</v>
+        <v>2939</v>
       </c>
       <c r="B1507" t="s">
-        <v>2908</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2877</v>
+        <v>2940</v>
       </c>
       <c r="B1508" t="s">
-        <v>2909</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2878</v>
+        <v>2941</v>
       </c>
       <c r="B1509" t="s">
-        <v>2910</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2879</v>
+        <v>2942</v>
       </c>
       <c r="B1510" t="s">
-        <v>2911</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2880</v>
+        <v>2943</v>
       </c>
       <c r="B1511" t="s">
-        <v>2912</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2881</v>
+        <v>2944</v>
       </c>
       <c r="B1512" t="s">
-        <v>2913</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2882</v>
+        <v>2945</v>
       </c>
       <c r="B1513" t="s">
-        <v>2914</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2883</v>
+        <v>2976</v>
       </c>
       <c r="B1514" t="s">
-        <v>2915</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1515" t="s">
-        <v>2916</v>
-      </c>
       <c r="B1515" t="s">
-        <v>2946</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2917</v>
+        <v>2977</v>
       </c>
       <c r="B1516" t="s">
-        <v>2947</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2918</v>
+        <v>2978</v>
       </c>
       <c r="B1517" t="s">
-        <v>2948</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2919</v>
+        <v>2979</v>
       </c>
       <c r="B1518" t="s">
-        <v>2949</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2920</v>
+        <v>2980</v>
       </c>
       <c r="B1519" t="s">
-        <v>2950</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2921</v>
+        <v>2981</v>
       </c>
       <c r="B1520" t="s">
-        <v>2951</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1521" t="s">
-        <v>2922</v>
-      </c>
       <c r="B1521" t="s">
-        <v>2952</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2923</v>
+        <v>2982</v>
       </c>
       <c r="B1522" t="s">
-        <v>2953</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2924</v>
+        <v>2983</v>
       </c>
       <c r="B1523" t="s">
-        <v>2954</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2925</v>
+        <v>2984</v>
       </c>
       <c r="B1524" t="s">
-        <v>2395</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2926</v>
+        <v>2985</v>
       </c>
       <c r="B1525" t="s">
-        <v>2955</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>2986</v>
+      </c>
       <c r="B1526" t="s">
-        <v>2956</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2927</v>
+        <v>2987</v>
       </c>
       <c r="B1527" t="s">
-        <v>2957</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2928</v>
+        <v>2988</v>
       </c>
       <c r="B1528" t="s">
-        <v>2958</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2929</v>
+        <v>2989</v>
       </c>
       <c r="B1529" t="s">
-        <v>2959</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2930</v>
+        <v>2990</v>
       </c>
       <c r="B1530" t="s">
-        <v>2960</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2931</v>
+        <v>2991</v>
       </c>
       <c r="B1531" t="s">
-        <v>2961</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2932</v>
+        <v>2992</v>
       </c>
       <c r="B1532" t="s">
-        <v>2962</v>
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>3025</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1534" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B1534" s="1"/>
+      <c r="A1534" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>3026</v>
+      </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2933</v>
+        <v>2995</v>
       </c>
       <c r="B1535" t="s">
-        <v>2963</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2934</v>
+        <v>2996</v>
       </c>
       <c r="B1536" t="s">
-        <v>2964</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2935</v>
+        <v>2997</v>
       </c>
       <c r="B1537" t="s">
-        <v>2965</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2936</v>
+        <v>2998</v>
       </c>
       <c r="B1538" t="s">
-        <v>2966</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2937</v>
+        <v>2999</v>
       </c>
       <c r="B1539" t="s">
-        <v>2967</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2938</v>
+        <v>3000</v>
       </c>
       <c r="B1540" t="s">
-        <v>2968</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2939</v>
+        <v>3001</v>
       </c>
       <c r="B1541" t="s">
-        <v>2969</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2940</v>
+        <v>3002</v>
       </c>
       <c r="B1542" t="s">
-        <v>2970</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2941</v>
+        <v>3003</v>
       </c>
       <c r="B1543" t="s">
-        <v>2971</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2942</v>
+        <v>3004</v>
       </c>
       <c r="B1544" t="s">
-        <v>2972</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2943</v>
+        <v>3005</v>
       </c>
       <c r="B1545" t="s">
-        <v>2973</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2944</v>
+        <v>3038</v>
       </c>
       <c r="B1546" t="s">
-        <v>2974</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2945</v>
+        <v>3039</v>
       </c>
       <c r="B1547" t="s">
-        <v>2975</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2976</v>
+        <v>3040</v>
       </c>
       <c r="B1548" t="s">
-        <v>3006</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549" t="s">
+        <v>3041</v>
+      </c>
       <c r="B1549" t="s">
-        <v>3007</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2977</v>
+        <v>3042</v>
       </c>
       <c r="B1550" t="s">
-        <v>3008</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2978</v>
+        <v>3043</v>
       </c>
       <c r="B1551" t="s">
-        <v>3009</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2979</v>
+        <v>3044</v>
       </c>
       <c r="B1552" t="s">
-        <v>3010</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2980</v>
+        <v>3045</v>
       </c>
       <c r="B1553" t="s">
-        <v>3011</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2981</v>
+        <v>3046</v>
       </c>
       <c r="B1554" t="s">
-        <v>3012</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555" t="s">
+        <v>3047</v>
+      </c>
       <c r="B1555" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1556" t="s">
-        <v>2982</v>
-      </c>
-      <c r="B1556" t="s">
-        <v>3014</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1557" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B1557" t="s">
-        <v>3015</v>
-      </c>
+      <c r="A1557" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1557" s="1"/>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2984</v>
+        <v>1851</v>
       </c>
       <c r="B1558" t="s">
-        <v>3016</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2985</v>
+        <v>1852</v>
       </c>
       <c r="B1559" t="s">
-        <v>3017</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2986</v>
+        <v>1853</v>
       </c>
       <c r="B1560" t="s">
-        <v>3018</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2987</v>
+        <v>1854</v>
       </c>
       <c r="B1561" t="s">
-        <v>3019</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2988</v>
+        <v>1855</v>
       </c>
       <c r="B1562" t="s">
-        <v>3020</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2989</v>
+        <v>1856</v>
       </c>
       <c r="B1563" t="s">
-        <v>3021</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2990</v>
+        <v>1857</v>
       </c>
       <c r="B1564" t="s">
-        <v>3022</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2991</v>
+        <v>1858</v>
       </c>
       <c r="B1565" t="s">
-        <v>3023</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2992</v>
+        <v>1859</v>
       </c>
       <c r="B1566" t="s">
-        <v>3024</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2993</v>
+        <v>1860</v>
       </c>
       <c r="B1567" t="s">
-        <v>3025</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2994</v>
+        <v>1861</v>
       </c>
       <c r="B1568" t="s">
-        <v>3026</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2995</v>
+        <v>1862</v>
       </c>
       <c r="B1569" t="s">
-        <v>3027</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1570" t="s">
-        <v>2996</v>
-      </c>
       <c r="B1570" t="s">
-        <v>3028</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2997</v>
+        <v>1863</v>
       </c>
       <c r="B1571" t="s">
-        <v>3029</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2998</v>
+        <v>1864</v>
       </c>
       <c r="B1572" t="s">
-        <v>3030</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2999</v>
+        <v>1865</v>
       </c>
       <c r="B1573" t="s">
-        <v>3031</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>3000</v>
+        <v>1889</v>
       </c>
       <c r="B1574" t="s">
-        <v>3032</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>3001</v>
+        <v>1890</v>
       </c>
       <c r="B1575" t="s">
-        <v>3033</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>3002</v>
+        <v>1891</v>
       </c>
       <c r="B1576" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1577" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B1577" t="s">
-        <v>3035</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1578" t="s">
-        <v>3004</v>
-      </c>
-      <c r="B1578" t="s">
-        <v>3036</v>
-      </c>
+      <c r="A1578" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1578" s="1"/>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3005</v>
+        <v>1892</v>
       </c>
       <c r="B1579" t="s">
-        <v>3037</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3038</v>
+        <v>1893</v>
       </c>
       <c r="B1580" t="s">
-        <v>3048</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3039</v>
+        <v>1894</v>
       </c>
       <c r="B1581" t="s">
-        <v>3049</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3040</v>
+        <v>1895</v>
       </c>
       <c r="B1582" t="s">
-        <v>3050</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3041</v>
+        <v>1896</v>
       </c>
       <c r="B1583" t="s">
-        <v>3051</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3042</v>
+        <v>1897</v>
       </c>
       <c r="B1584" t="s">
-        <v>3052</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3043</v>
+        <v>1898</v>
       </c>
       <c r="B1585" t="s">
-        <v>3053</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1586" t="s">
-        <v>3044</v>
-      </c>
       <c r="B1586" t="s">
-        <v>3054</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3045</v>
+        <v>1899</v>
       </c>
       <c r="B1587" t="s">
-        <v>3055</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3046</v>
+        <v>1900</v>
       </c>
       <c r="B1588" t="s">
-        <v>3056</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3047</v>
+        <v>1901</v>
       </c>
       <c r="B1589" t="s">
-        <v>3057</v>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1590" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>1944</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A1534:B1534"/>
+  <mergeCells count="23">
+    <mergeCell ref="A1578:B1578"/>
+    <mergeCell ref="A1557:B1557"/>
+    <mergeCell ref="A1500:B1500"/>
     <mergeCell ref="A384:B384"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A75:B75"/>
@@ -40380,13 +40397,18 @@
     <mergeCell ref="A310:B310"/>
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
-    <mergeCell ref="A1002:B1002"/>
-    <mergeCell ref="A1076:B1076"/>
+    <mergeCell ref="A968:B968"/>
+    <mergeCell ref="A1042:B1042"/>
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
     <mergeCell ref="A671:B671"/>
     <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1118:B1118"/>
+    <mergeCell ref="A1192:B1192"/>
+    <mergeCell ref="A1268:B1268"/>
+    <mergeCell ref="A1346:B1346"/>
+    <mergeCell ref="A1424:B1424"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="3063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="3129">
   <si>
     <t>warehouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27681,6 +27681,657 @@
   </si>
   <si>
     <t>page 416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plebeian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putrefy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaglet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eugenic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sloven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pusillanimous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confiscate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misgiving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begrudge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inscribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marvel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draconian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fusty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skittish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tatty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chasten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full-blown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ocular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhubard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depraved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.平民  adj.平民的；平庸的，粗俗的</t>
+    <rPh sb="2" eb="3">
+      <t>ping'min</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping'min</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ping'yong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cu'su</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.齐奏，齐唱；一致，协调</t>
+    <rPh sb="2" eb="3">
+      <t>qi'zou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi'chang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi'zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xie'tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.使腐烂</t>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'lan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.小鹰</t>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.反驳，驳斥</t>
+    <rPh sb="2" eb="3">
+      <t>fan'bo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bo'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj优生(学)的</t>
+    <rPh sb="3" eb="4">
+      <t>you'sheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.驯服的；沉闷的，平淡的</t>
+    <rPh sb="4" eb="5">
+      <t>xun'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen'men</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ping'dan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.不修边幅的人</t>
+    <rPh sb="2" eb="3">
+      <t>bu'xiu'bian'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.弄脏，污辱</t>
+    <rPh sb="2" eb="3">
+      <t>nong'zang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.胆小的</t>
+    <rPh sb="4" eb="5">
+      <t>dan'xiao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 搏斗，战斗</t>
+    <rPh sb="6" eb="7">
+      <t>bo'dou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhan'dou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.加速，加快，促进</t>
+    <rPh sb="2" eb="3">
+      <t>jia'su</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'kuai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cu'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.没收，充公</t>
+    <rPh sb="2" eb="3">
+      <t>mo'shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chong'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪开，躲避</t>
+    <rPh sb="2" eb="3">
+      <t>shan'kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duo'bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.招呼，致意，致敬</t>
+    <rPh sb="2" eb="3">
+      <t>zhao'hu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.疑虑</t>
+    <rPh sb="2" eb="3">
+      <t>yi'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 闲逛，漫步</t>
+    <rPh sb="6" eb="7">
+      <t>xian'guang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>man'bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.吝啬，勉强给</t>
+    <rPh sb="2" eb="3">
+      <t>lin'se</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mian'qiang'gei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(在某物上)写、题写</t>
+    <rPh sb="3" eb="4">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mou'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.对……感到惊异  n.奇迹</t>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gan'dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jing'yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>qi'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.严厉的，严酷的</t>
+    <rPh sb="4" eb="5">
+      <t>yan'li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yan'ku</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.腐臭的；陈腐的，过时的</t>
+    <rPh sb="4" eb="5">
+      <t>fu'chou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen'fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guo'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.轻浮的，活泼的</t>
+    <rPh sb="4" eb="5">
+      <t>qing'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>huo'po</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.破旧的，褴褛的；破败的</t>
+    <rPh sb="4" eb="5">
+      <t>po'jiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lan'lv</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>po'bai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.(通过惩罚而使坏习惯等)改正；磨炼</t>
+    <rPh sb="3" eb="4">
+      <t>tong'guo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>er</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huai'xi'guan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gai'zheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mo'lian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.成熟的；(花)盛开的；全面的，完善的</t>
+    <rPh sb="4" eb="5">
+      <t>cheng'shu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sheng'kai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>quan'mian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wan'shan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.温顺</t>
+    <rPh sb="2" eb="3">
+      <t>wen'sun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.眼睛的；视觉的</t>
+    <rPh sb="4" eb="5">
+      <t>yan'jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi'jue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.逃避责任的</t>
+    <rPh sb="4" eb="5">
+      <t>tao'bi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ze'ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.逃学者，逃避者，玩忽职守者</t>
+    <rPh sb="2" eb="3">
+      <t>tao'xue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tao'bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zeh</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wan'hu'zhi'shou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.[植物]大黄；激烈的争论，热烈的讨论</t>
+    <rPh sb="3" eb="4">
+      <t>zhi'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da'huang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji'lie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zheng'lun</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>re'lie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.堕落的，腐化的</t>
+    <rPh sb="4" eb="5">
+      <t>duo'luo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu'hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.闪烁，闪耀</t>
+    <rPh sb="2" eb="3">
+      <t>shan'shuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shan'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.灿烂的光华；诱惑力，魅力</t>
+    <rPh sb="2" eb="3">
+      <t>chan'lan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guang'hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'ho'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mei'li</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -28007,10 +28658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1591"/>
+  <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1544" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1554" sqref="B1554"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1061" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1043" sqref="B1043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35892,4503 +36543,4776 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>2001</v>
+        <v>3063</v>
       </c>
       <c r="B1010" t="s">
-        <v>2032</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>2002</v>
+        <v>3064</v>
       </c>
       <c r="B1011" t="s">
-        <v>2033</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>2003</v>
+        <v>3065</v>
       </c>
       <c r="B1012" t="s">
-        <v>2034</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>2004</v>
+        <v>3066</v>
       </c>
       <c r="B1013" t="s">
-        <v>2035</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>2005</v>
+        <v>3067</v>
       </c>
       <c r="B1014" t="s">
-        <v>2036</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>2006</v>
+        <v>3068</v>
       </c>
       <c r="B1015" t="s">
-        <v>2037</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>2007</v>
+        <v>3069</v>
       </c>
       <c r="B1016" t="s">
-        <v>2038</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>2008</v>
+        <v>3070</v>
       </c>
       <c r="B1017" t="s">
-        <v>2039</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>2009</v>
+        <v>3071</v>
       </c>
       <c r="B1018" t="s">
-        <v>2040</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>2010</v>
+        <v>3072</v>
       </c>
       <c r="B1019" t="s">
-        <v>2041</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>2011</v>
+        <v>3073</v>
       </c>
       <c r="B1020" t="s">
-        <v>2042</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>2012</v>
+        <v>3074</v>
       </c>
       <c r="B1021" t="s">
-        <v>2043</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>2013</v>
+        <v>3075</v>
       </c>
       <c r="B1022" t="s">
-        <v>2044</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>2014</v>
+        <v>3076</v>
       </c>
       <c r="B1023" t="s">
-        <v>2045</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>2015</v>
+        <v>3077</v>
       </c>
       <c r="B1024" t="s">
-        <v>2046</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>2016</v>
+        <v>3078</v>
       </c>
       <c r="B1025" t="s">
-        <v>2047</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>2017</v>
+        <v>3079</v>
       </c>
       <c r="B1026" t="s">
-        <v>2048</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>2018</v>
+        <v>3080</v>
       </c>
       <c r="B1027" t="s">
-        <v>2049</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>2019</v>
+        <v>3081</v>
       </c>
       <c r="B1028" t="s">
-        <v>2050</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>2020</v>
+        <v>3082</v>
       </c>
       <c r="B1029" t="s">
-        <v>2051</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>2021</v>
+        <v>3083</v>
       </c>
       <c r="B1030" t="s">
-        <v>2052</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>2022</v>
+        <v>3084</v>
       </c>
       <c r="B1031" t="s">
-        <v>2053</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>2023</v>
+        <v>3085</v>
       </c>
       <c r="B1032" t="s">
-        <v>2054</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>2024</v>
+        <v>3086</v>
       </c>
       <c r="B1033" t="s">
-        <v>2055</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>2025</v>
+        <v>3087</v>
       </c>
       <c r="B1034" t="s">
-        <v>2056</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>2026</v>
+        <v>3088</v>
       </c>
       <c r="B1035" t="s">
-        <v>2057</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>2027</v>
+        <v>3089</v>
       </c>
       <c r="B1036" t="s">
-        <v>2058</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>2028</v>
+        <v>3090</v>
       </c>
       <c r="B1037" t="s">
-        <v>2059</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>2029</v>
+        <v>3091</v>
       </c>
       <c r="B1038" t="s">
-        <v>2060</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1039" t="s">
-        <v>2030</v>
-      </c>
       <c r="B1039" t="s">
-        <v>2061</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>2031</v>
+        <v>3092</v>
       </c>
       <c r="B1040" t="s">
-        <v>2062</v>
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1042" s="1" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B1042" s="1"/>
+      <c r="A1042" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>3127</v>
+      </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1043" t="s">
-        <v>2063</v>
-      </c>
       <c r="B1043" t="s">
-        <v>2079</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>2064</v>
+        <v>2001</v>
       </c>
       <c r="B1044" t="s">
-        <v>2080</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>2065</v>
+        <v>2002</v>
       </c>
       <c r="B1045" t="s">
-        <v>2081</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>2066</v>
+        <v>2003</v>
       </c>
       <c r="B1046" t="s">
-        <v>2082</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>2067</v>
+        <v>2004</v>
       </c>
       <c r="B1047" t="s">
-        <v>2083</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>2068</v>
+        <v>2005</v>
       </c>
       <c r="B1048" t="s">
-        <v>2084</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>2069</v>
+        <v>2006</v>
       </c>
       <c r="B1049" t="s">
-        <v>2085</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>2070</v>
+        <v>2007</v>
       </c>
       <c r="B1050" t="s">
-        <v>2086</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>2071</v>
+        <v>2008</v>
       </c>
       <c r="B1051" t="s">
-        <v>2087</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>2072</v>
+        <v>2009</v>
       </c>
       <c r="B1052" t="s">
-        <v>2088</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>2073</v>
+        <v>2010</v>
       </c>
       <c r="B1053" t="s">
-        <v>2089</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>2074</v>
+        <v>2011</v>
       </c>
       <c r="B1054" t="s">
-        <v>2090</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>2075</v>
+        <v>2012</v>
       </c>
       <c r="B1055" t="s">
-        <v>2091</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>2076</v>
+        <v>2013</v>
       </c>
       <c r="B1056" t="s">
-        <v>2092</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>2014</v>
+      </c>
       <c r="B1057" t="s">
-        <v>2093</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2077</v>
+        <v>2015</v>
       </c>
       <c r="B1058" t="s">
-        <v>2094</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>2078</v>
+        <v>2016</v>
       </c>
       <c r="B1059" t="s">
-        <v>2095</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>2098</v>
+        <v>2017</v>
       </c>
       <c r="B1060" t="s">
-        <v>2115</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>2099</v>
+        <v>2018</v>
       </c>
       <c r="B1061" t="s">
-        <v>2116</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2101</v>
+        <v>2019</v>
       </c>
       <c r="B1062" t="s">
-        <v>2117</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2102</v>
+        <v>2020</v>
       </c>
       <c r="B1063" t="s">
-        <v>2118</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>2103</v>
+        <v>2021</v>
       </c>
       <c r="B1064" t="s">
-        <v>2119</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2104</v>
+        <v>2022</v>
       </c>
       <c r="B1065" t="s">
-        <v>2120</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2105</v>
+        <v>2023</v>
       </c>
       <c r="B1066" t="s">
-        <v>2121</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2106</v>
+        <v>2024</v>
       </c>
       <c r="B1067" t="s">
-        <v>2122</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2107</v>
+        <v>2025</v>
       </c>
       <c r="B1068" t="s">
-        <v>2123</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2108</v>
+        <v>2026</v>
       </c>
       <c r="B1069" t="s">
-        <v>2124</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2109</v>
+        <v>2027</v>
       </c>
       <c r="B1070" t="s">
-        <v>2125</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2110</v>
+        <v>2028</v>
       </c>
       <c r="B1071" t="s">
-        <v>2126</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2111</v>
+        <v>2029</v>
       </c>
       <c r="B1072" t="s">
-        <v>2127</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2112</v>
+        <v>2030</v>
       </c>
       <c r="B1073" t="s">
-        <v>2128</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2113</v>
+        <v>2031</v>
       </c>
       <c r="B1074" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>2130</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1076" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>2154</v>
-      </c>
+      <c r="A1076" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1076" s="1"/>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>2063</v>
+      </c>
       <c r="B1077" t="s">
-        <v>2155</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2132</v>
+        <v>2064</v>
       </c>
       <c r="B1078" t="s">
-        <v>2156</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2133</v>
+        <v>2065</v>
       </c>
       <c r="B1079" t="s">
-        <v>2157</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2134</v>
+        <v>2066</v>
       </c>
       <c r="B1080" t="s">
-        <v>2158</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2135</v>
+        <v>2067</v>
       </c>
       <c r="B1081" t="s">
-        <v>2159</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2136</v>
+        <v>2068</v>
       </c>
       <c r="B1082" t="s">
-        <v>2160</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2137</v>
+        <v>2069</v>
       </c>
       <c r="B1083" t="s">
-        <v>2161</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2138</v>
+        <v>2070</v>
       </c>
       <c r="B1084" t="s">
-        <v>2162</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>2071</v>
+      </c>
       <c r="B1085" t="s">
-        <v>2163</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2139</v>
+        <v>2072</v>
       </c>
       <c r="B1086" t="s">
-        <v>2164</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2140</v>
+        <v>2073</v>
       </c>
       <c r="B1087" t="s">
-        <v>2165</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2141</v>
+        <v>2074</v>
       </c>
       <c r="B1088" t="s">
-        <v>2166</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2142</v>
+        <v>2075</v>
       </c>
       <c r="B1089" t="s">
-        <v>2167</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2143</v>
+        <v>2076</v>
       </c>
       <c r="B1090" t="s">
-        <v>2168</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1091" t="s">
-        <v>2144</v>
-      </c>
       <c r="B1091" t="s">
-        <v>2169</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2145</v>
+        <v>2077</v>
       </c>
       <c r="B1092" t="s">
-        <v>2170</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2146</v>
+        <v>2078</v>
       </c>
       <c r="B1093" t="s">
-        <v>2171</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2147</v>
+        <v>2098</v>
       </c>
       <c r="B1094" t="s">
-        <v>2172</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2148</v>
+        <v>2099</v>
       </c>
       <c r="B1095" t="s">
-        <v>2173</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2149</v>
+        <v>2101</v>
       </c>
       <c r="B1096" t="s">
-        <v>2174</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2150</v>
+        <v>2102</v>
       </c>
       <c r="B1097" t="s">
-        <v>2175</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2151</v>
+        <v>2103</v>
       </c>
       <c r="B1098" t="s">
-        <v>2176</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2152</v>
+        <v>2104</v>
       </c>
       <c r="B1099" t="s">
-        <v>2177</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2153</v>
+        <v>2105</v>
       </c>
       <c r="B1100" t="s">
-        <v>2178</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2179</v>
+        <v>2106</v>
       </c>
       <c r="B1101" t="s">
-        <v>2190</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2180</v>
+        <v>2107</v>
       </c>
       <c r="B1102" t="s">
-        <v>2191</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2181</v>
+        <v>2108</v>
       </c>
       <c r="B1103" t="s">
-        <v>2192</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2182</v>
+        <v>2109</v>
       </c>
       <c r="B1104" t="s">
-        <v>2193</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2183</v>
+        <v>2110</v>
       </c>
       <c r="B1105" t="s">
-        <v>2194</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2184</v>
+        <v>2111</v>
       </c>
       <c r="B1106" t="s">
-        <v>2195</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2185</v>
+        <v>2112</v>
       </c>
       <c r="B1107" t="s">
-        <v>2196</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2186</v>
+        <v>2113</v>
       </c>
       <c r="B1108" t="s">
-        <v>2197</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2187</v>
+        <v>2114</v>
       </c>
       <c r="B1109" t="s">
-        <v>2198</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2188</v>
+        <v>2131</v>
       </c>
       <c r="B1110" t="s">
-        <v>2199</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1111" t="s">
-        <v>2189</v>
-      </c>
       <c r="B1111" t="s">
-        <v>2200</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2210</v>
+        <v>2132</v>
       </c>
       <c r="B1112" t="s">
-        <v>2223</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2211</v>
+        <v>2133</v>
       </c>
       <c r="B1113" t="s">
-        <v>2224</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2212</v>
+        <v>2134</v>
       </c>
       <c r="B1114" t="s">
-        <v>2225</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2213</v>
+        <v>2135</v>
       </c>
       <c r="B1115" t="s">
-        <v>2226</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2214</v>
+        <v>2136</v>
       </c>
       <c r="B1116" t="s">
-        <v>2227</v>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1118" s="1" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B1118" s="1"/>
+      <c r="A1118" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2162</v>
+      </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1119" t="s">
-        <v>2215</v>
-      </c>
       <c r="B1119" t="s">
-        <v>2228</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2216</v>
+        <v>2139</v>
       </c>
       <c r="B1120" t="s">
-        <v>2229</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2217</v>
+        <v>2140</v>
       </c>
       <c r="B1121" t="s">
-        <v>2230</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2218</v>
+        <v>2141</v>
       </c>
       <c r="B1122" t="s">
-        <v>2231</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2219</v>
+        <v>2142</v>
       </c>
       <c r="B1123" t="s">
-        <v>2232</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2220</v>
+        <v>2143</v>
       </c>
       <c r="B1124" t="s">
-        <v>2233</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2221</v>
+        <v>2144</v>
       </c>
       <c r="B1125" t="s">
-        <v>2234</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2222</v>
+        <v>2145</v>
       </c>
       <c r="B1126" t="s">
-        <v>2235</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2236</v>
+        <v>2146</v>
       </c>
       <c r="B1127" t="s">
-        <v>2263</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2237</v>
+        <v>2147</v>
       </c>
       <c r="B1128" t="s">
-        <v>2264</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2238</v>
+        <v>2148</v>
       </c>
       <c r="B1129" t="s">
-        <v>2265</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2239</v>
+        <v>2149</v>
       </c>
       <c r="B1130" t="s">
-        <v>2266</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2240</v>
+        <v>2150</v>
       </c>
       <c r="B1131" t="s">
-        <v>2267</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2241</v>
+        <v>2151</v>
       </c>
       <c r="B1132" t="s">
-        <v>2268</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2242</v>
+        <v>2152</v>
       </c>
       <c r="B1133" t="s">
-        <v>2269</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2243</v>
+        <v>2153</v>
       </c>
       <c r="B1134" t="s">
-        <v>2270</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2244</v>
+        <v>2179</v>
       </c>
       <c r="B1135" t="s">
-        <v>2271</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2245</v>
+        <v>2180</v>
       </c>
       <c r="B1136" t="s">
-        <v>2272</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2246</v>
+        <v>2181</v>
       </c>
       <c r="B1137" t="s">
-        <v>2273</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2247</v>
+        <v>2182</v>
       </c>
       <c r="B1138" t="s">
-        <v>2274</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2248</v>
+        <v>2183</v>
       </c>
       <c r="B1139" t="s">
-        <v>2275</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2249</v>
+        <v>2184</v>
       </c>
       <c r="B1140" t="s">
-        <v>2276</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2250</v>
+        <v>2185</v>
       </c>
       <c r="B1141" t="s">
-        <v>2277</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2251</v>
+        <v>2186</v>
       </c>
       <c r="B1142" t="s">
-        <v>2278</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2252</v>
+        <v>2187</v>
       </c>
       <c r="B1143" t="s">
-        <v>2279</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2253</v>
+        <v>2188</v>
       </c>
       <c r="B1144" t="s">
-        <v>2280</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2254</v>
+        <v>2189</v>
       </c>
       <c r="B1145" t="s">
-        <v>2281</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2255</v>
+        <v>2210</v>
       </c>
       <c r="B1146" t="s">
-        <v>2282</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2256</v>
+        <v>2211</v>
       </c>
       <c r="B1147" t="s">
-        <v>2283</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2257</v>
+        <v>2212</v>
       </c>
       <c r="B1148" t="s">
-        <v>2284</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2258</v>
+        <v>2213</v>
       </c>
       <c r="B1149" t="s">
-        <v>2285</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2259</v>
+        <v>2214</v>
       </c>
       <c r="B1150" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1151" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>2287</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1152" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>2288</v>
-      </c>
+      <c r="A1152" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1152" s="1"/>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2262</v>
+        <v>2215</v>
       </c>
       <c r="B1153" t="s">
-        <v>2289</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2290</v>
+        <v>2216</v>
       </c>
       <c r="B1154" t="s">
-        <v>2321</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2291</v>
+        <v>2217</v>
       </c>
       <c r="B1155" t="s">
-        <v>2322</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2292</v>
+        <v>2218</v>
       </c>
       <c r="B1156" t="s">
-        <v>2323</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2293</v>
+        <v>2219</v>
       </c>
       <c r="B1157" t="s">
-        <v>2324</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2294</v>
+        <v>2220</v>
       </c>
       <c r="B1158" t="s">
-        <v>2325</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2295</v>
+        <v>2221</v>
       </c>
       <c r="B1159" t="s">
-        <v>2326</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2296</v>
+        <v>2222</v>
       </c>
       <c r="B1160" t="s">
-        <v>2327</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2297</v>
+        <v>2236</v>
       </c>
       <c r="B1161" t="s">
-        <v>2328</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2298</v>
+        <v>2237</v>
       </c>
       <c r="B1162" t="s">
-        <v>2329</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2299</v>
+        <v>2238</v>
       </c>
       <c r="B1163" t="s">
-        <v>2330</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2300</v>
+        <v>2239</v>
       </c>
       <c r="B1164" t="s">
-        <v>2331</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2301</v>
+        <v>2240</v>
       </c>
       <c r="B1165" t="s">
-        <v>2332</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2302</v>
+        <v>2241</v>
       </c>
       <c r="B1166" t="s">
-        <v>2333</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2303</v>
+        <v>2242</v>
       </c>
       <c r="B1167" t="s">
-        <v>2334</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2304</v>
+        <v>2243</v>
       </c>
       <c r="B1168" t="s">
-        <v>2335</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2305</v>
+        <v>2244</v>
       </c>
       <c r="B1169" t="s">
-        <v>2336</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2306</v>
+        <v>2245</v>
       </c>
       <c r="B1170" t="s">
-        <v>2337</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2307</v>
+        <v>2246</v>
       </c>
       <c r="B1171" t="s">
-        <v>2338</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2308</v>
+        <v>2247</v>
       </c>
       <c r="B1172" t="s">
-        <v>2339</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2309</v>
+        <v>2248</v>
       </c>
       <c r="B1173" t="s">
-        <v>2340</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2310</v>
+        <v>2249</v>
       </c>
       <c r="B1174" t="s">
-        <v>2341</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2311</v>
+        <v>2250</v>
       </c>
       <c r="B1175" t="s">
-        <v>2342</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2312</v>
+        <v>2251</v>
       </c>
       <c r="B1176" t="s">
-        <v>2343</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2313</v>
+        <v>2252</v>
       </c>
       <c r="B1177" t="s">
-        <v>2344</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2314</v>
+        <v>2253</v>
       </c>
       <c r="B1178" t="s">
-        <v>2345</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2315</v>
+        <v>2254</v>
       </c>
       <c r="B1179" t="s">
-        <v>2346</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2316</v>
+        <v>2255</v>
       </c>
       <c r="B1180" t="s">
-        <v>2347</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2317</v>
+        <v>2256</v>
       </c>
       <c r="B1181" t="s">
-        <v>2348</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2318</v>
+        <v>2257</v>
       </c>
       <c r="B1182" t="s">
-        <v>2349</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2319</v>
+        <v>2258</v>
       </c>
       <c r="B1183" t="s">
-        <v>2350</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>2259</v>
+      </c>
       <c r="B1184" t="s">
-        <v>2351</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2320</v>
+        <v>2260</v>
       </c>
       <c r="B1185" t="s">
-        <v>2352</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2353</v>
+        <v>2261</v>
       </c>
       <c r="B1186" t="s">
-        <v>2379</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2354</v>
+        <v>2262</v>
       </c>
       <c r="B1187" t="s">
-        <v>2380</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2355</v>
+        <v>2290</v>
       </c>
       <c r="B1188" t="s">
-        <v>2381</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2356</v>
+        <v>2291</v>
       </c>
       <c r="B1189" t="s">
-        <v>2382</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2357</v>
+        <v>2292</v>
       </c>
       <c r="B1190" t="s">
-        <v>2383</v>
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2324</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1192" s="1" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B1192" s="1"/>
+      <c r="A1192" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2325</v>
+      </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2358</v>
+        <v>2295</v>
       </c>
       <c r="B1193" t="s">
-        <v>2384</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2359</v>
+        <v>2296</v>
       </c>
       <c r="B1194" t="s">
-        <v>2385</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2360</v>
+        <v>2297</v>
       </c>
       <c r="B1195" t="s">
-        <v>2386</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2361</v>
+        <v>2298</v>
       </c>
       <c r="B1196" t="s">
-        <v>2387</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2362</v>
+        <v>2299</v>
       </c>
       <c r="B1197" t="s">
-        <v>2388</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2363</v>
+        <v>2300</v>
       </c>
       <c r="B1198" t="s">
-        <v>2389</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2364</v>
+        <v>2301</v>
       </c>
       <c r="B1199" t="s">
-        <v>2390</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2365</v>
+        <v>2302</v>
       </c>
       <c r="B1200" t="s">
-        <v>2391</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2366</v>
+        <v>2303</v>
       </c>
       <c r="B1201" t="s">
-        <v>2392</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2367</v>
+        <v>2304</v>
       </c>
       <c r="B1202" t="s">
-        <v>2393</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2368</v>
+        <v>2305</v>
       </c>
       <c r="B1203" t="s">
-        <v>2394</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2369</v>
+        <v>2306</v>
       </c>
       <c r="B1204" t="s">
-        <v>2395</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2370</v>
+        <v>2307</v>
       </c>
       <c r="B1205" t="s">
-        <v>2396</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2371</v>
+        <v>2308</v>
       </c>
       <c r="B1206" t="s">
-        <v>2397</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2372</v>
+        <v>2309</v>
       </c>
       <c r="B1207" t="s">
-        <v>2398</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2373</v>
+        <v>2310</v>
       </c>
       <c r="B1208" t="s">
-        <v>2399</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2374</v>
+        <v>2311</v>
       </c>
       <c r="B1209" t="s">
-        <v>2400</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2375</v>
+        <v>2312</v>
       </c>
       <c r="B1210" t="s">
-        <v>2401</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2376</v>
+        <v>2313</v>
       </c>
       <c r="B1211" t="s">
-        <v>2402</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2377</v>
+        <v>2314</v>
       </c>
       <c r="B1212" t="s">
-        <v>2403</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2378</v>
+        <v>2315</v>
       </c>
       <c r="B1213" t="s">
-        <v>2404</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2405</v>
+        <v>2316</v>
       </c>
       <c r="B1214" t="s">
-        <v>2434</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2406</v>
+        <v>2317</v>
       </c>
       <c r="B1215" t="s">
-        <v>2435</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2407</v>
+        <v>2318</v>
       </c>
       <c r="B1216" t="s">
-        <v>2436</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2408</v>
+        <v>2319</v>
       </c>
       <c r="B1217" t="s">
-        <v>2437</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1218" t="s">
-        <v>2409</v>
-      </c>
       <c r="B1218" t="s">
-        <v>2438</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2410</v>
+        <v>2320</v>
       </c>
       <c r="B1219" t="s">
-        <v>2439</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2411</v>
+        <v>2353</v>
       </c>
       <c r="B1220" t="s">
-        <v>2440</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2412</v>
+        <v>2354</v>
       </c>
       <c r="B1221" t="s">
-        <v>2441</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2413</v>
+        <v>2355</v>
       </c>
       <c r="B1222" t="s">
-        <v>2442</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2414</v>
+        <v>2356</v>
       </c>
       <c r="B1223" t="s">
-        <v>2443</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2415</v>
+        <v>2357</v>
       </c>
       <c r="B1224" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1225" t="s">
-        <v>2416</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>2445</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1226" t="s">
-        <v>2446</v>
-      </c>
+      <c r="A1226" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2417</v>
+        <v>2358</v>
       </c>
       <c r="B1227" t="s">
-        <v>2447</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2418</v>
+        <v>2359</v>
       </c>
       <c r="B1228" t="s">
-        <v>2448</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2419</v>
+        <v>2360</v>
       </c>
       <c r="B1229" t="s">
-        <v>2449</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2420</v>
+        <v>2361</v>
       </c>
       <c r="B1230" t="s">
-        <v>2450</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2421</v>
+        <v>2362</v>
       </c>
       <c r="B1231" t="s">
-        <v>2451</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2422</v>
+        <v>2363</v>
       </c>
       <c r="B1232" t="s">
-        <v>2452</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2423</v>
+        <v>2364</v>
       </c>
       <c r="B1233" t="s">
-        <v>2453</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2424</v>
+        <v>2365</v>
       </c>
       <c r="B1234" t="s">
-        <v>2454</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2425</v>
+        <v>2366</v>
       </c>
       <c r="B1235" t="s">
-        <v>2455</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2426</v>
+        <v>2367</v>
       </c>
       <c r="B1236" t="s">
-        <v>2456</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2427</v>
+        <v>2368</v>
       </c>
       <c r="B1237" t="s">
-        <v>2457</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2428</v>
+        <v>2369</v>
       </c>
       <c r="B1238" t="s">
-        <v>2458</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2429</v>
+        <v>2370</v>
       </c>
       <c r="B1239" t="s">
-        <v>2459</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>2371</v>
+      </c>
       <c r="B1240" t="s">
-        <v>2460</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2430</v>
+        <v>2372</v>
       </c>
       <c r="B1241" t="s">
-        <v>2461</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2431</v>
+        <v>2373</v>
       </c>
       <c r="B1242" t="s">
-        <v>2462</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2432</v>
+        <v>2374</v>
       </c>
       <c r="B1243" t="s">
-        <v>2463</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2433</v>
+        <v>2375</v>
       </c>
       <c r="B1244" t="s">
-        <v>2464</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>2376</v>
+      </c>
       <c r="B1245" t="s">
-        <v>2465</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2466</v>
+        <v>2377</v>
       </c>
       <c r="B1246" t="s">
-        <v>2488</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2467</v>
+        <v>2378</v>
       </c>
       <c r="B1247" t="s">
-        <v>2489</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2468</v>
+        <v>2405</v>
       </c>
       <c r="B1248" t="s">
-        <v>2490</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2469</v>
+        <v>2406</v>
       </c>
       <c r="B1249" t="s">
-        <v>2491</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2470</v>
+        <v>2407</v>
       </c>
       <c r="B1250" t="s">
-        <v>2492</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2471</v>
+        <v>2408</v>
       </c>
       <c r="B1251" t="s">
-        <v>2493</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2472</v>
+        <v>2409</v>
       </c>
       <c r="B1252" t="s">
-        <v>2494</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2473</v>
+        <v>2410</v>
       </c>
       <c r="B1253" t="s">
-        <v>2495</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2474</v>
+        <v>2411</v>
       </c>
       <c r="B1254" t="s">
-        <v>2496</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2475</v>
+        <v>2412</v>
       </c>
       <c r="B1255" t="s">
-        <v>2497</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2476</v>
+        <v>2413</v>
       </c>
       <c r="B1256" t="s">
-        <v>2498</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2477</v>
+        <v>2414</v>
       </c>
       <c r="B1257" t="s">
-        <v>2499</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2478</v>
+        <v>2415</v>
       </c>
       <c r="B1258" t="s">
-        <v>2500</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2479</v>
+        <v>2416</v>
       </c>
       <c r="B1259" t="s">
-        <v>2501</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1260" t="s">
-        <v>2480</v>
-      </c>
       <c r="B1260" t="s">
-        <v>2502</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2481</v>
+        <v>2417</v>
       </c>
       <c r="B1261" t="s">
-        <v>2503</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2482</v>
+        <v>2418</v>
       </c>
       <c r="B1262" t="s">
-        <v>2504</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2483</v>
+        <v>2419</v>
       </c>
       <c r="B1263" t="s">
-        <v>2505</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2484</v>
+        <v>2420</v>
       </c>
       <c r="B1264" t="s">
-        <v>2506</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2485</v>
+        <v>2421</v>
       </c>
       <c r="B1265" t="s">
-        <v>2507</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2486</v>
+        <v>2422</v>
       </c>
       <c r="B1266" t="s">
-        <v>574</v>
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2453</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1268" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B1268" s="1"/>
+      <c r="A1268" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2454</v>
+      </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2487</v>
+        <v>2425</v>
       </c>
       <c r="B1269" t="s">
-        <v>2508</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2509</v>
+        <v>2426</v>
       </c>
       <c r="B1270" t="s">
-        <v>2536</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2510</v>
+        <v>2427</v>
       </c>
       <c r="B1271" t="s">
-        <v>2537</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2511</v>
+        <v>2428</v>
       </c>
       <c r="B1272" t="s">
-        <v>2538</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2512</v>
+        <v>2429</v>
       </c>
       <c r="B1273" t="s">
-        <v>2539</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1274" t="s">
-        <v>2513</v>
-      </c>
       <c r="B1274" t="s">
-        <v>2540</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2514</v>
+        <v>2430</v>
       </c>
       <c r="B1275" t="s">
-        <v>2541</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>2431</v>
+      </c>
       <c r="B1276" t="s">
-        <v>2542</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2515</v>
+        <v>2432</v>
       </c>
       <c r="B1277" t="s">
-        <v>2543</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2516</v>
+        <v>2433</v>
       </c>
       <c r="B1278" t="s">
-        <v>2544</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1279" t="s">
-        <v>2517</v>
-      </c>
       <c r="B1279" t="s">
-        <v>2545</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2518</v>
+        <v>2466</v>
       </c>
       <c r="B1280" t="s">
-        <v>2546</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2519</v>
+        <v>2467</v>
       </c>
       <c r="B1281" t="s">
-        <v>2547</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2520</v>
+        <v>2468</v>
       </c>
       <c r="B1282" t="s">
-        <v>2548</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2521</v>
+        <v>2469</v>
       </c>
       <c r="B1283" t="s">
-        <v>2549</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2522</v>
+        <v>2470</v>
       </c>
       <c r="B1284" t="s">
-        <v>2550</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2523</v>
+        <v>2471</v>
       </c>
       <c r="B1285" t="s">
-        <v>2551</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2524</v>
+        <v>2472</v>
       </c>
       <c r="B1286" t="s">
-        <v>2552</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2525</v>
+        <v>2473</v>
       </c>
       <c r="B1287" t="s">
-        <v>2553</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2526</v>
+        <v>2474</v>
       </c>
       <c r="B1288" t="s">
-        <v>2554</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2527</v>
+        <v>2475</v>
       </c>
       <c r="B1289" t="s">
-        <v>2555</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2528</v>
+        <v>2476</v>
       </c>
       <c r="B1290" t="s">
-        <v>2556</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2529</v>
+        <v>2477</v>
       </c>
       <c r="B1291" t="s">
-        <v>2557</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2530</v>
+        <v>2478</v>
       </c>
       <c r="B1292" t="s">
-        <v>2558</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2531</v>
+        <v>2479</v>
       </c>
       <c r="B1293" t="s">
-        <v>2559</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2532</v>
+        <v>2480</v>
       </c>
       <c r="B1294" t="s">
-        <v>2560</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2533</v>
+        <v>2481</v>
       </c>
       <c r="B1295" t="s">
-        <v>2561</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2534</v>
+        <v>2482</v>
       </c>
       <c r="B1296" t="s">
-        <v>2562</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2535</v>
+        <v>2483</v>
       </c>
       <c r="B1297" t="s">
-        <v>2563</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2564</v>
+        <v>2484</v>
       </c>
       <c r="B1298" t="s">
-        <v>2596</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2565</v>
+        <v>2485</v>
       </c>
       <c r="B1299" t="s">
-        <v>2597</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2566</v>
+        <v>2486</v>
       </c>
       <c r="B1300" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1301" t="s">
-        <v>2567</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>2599</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1302" t="s">
-        <v>2568</v>
-      </c>
-      <c r="B1302" t="s">
-        <v>2600</v>
-      </c>
+      <c r="A1302" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2569</v>
+        <v>2487</v>
       </c>
       <c r="B1303" t="s">
-        <v>2601</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2570</v>
+        <v>2509</v>
       </c>
       <c r="B1304" t="s">
-        <v>2602</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2571</v>
+        <v>2510</v>
       </c>
       <c r="B1305" t="s">
-        <v>2603</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>2511</v>
+      </c>
       <c r="B1306" t="s">
-        <v>2604</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2572</v>
+        <v>2512</v>
       </c>
       <c r="B1307" t="s">
-        <v>2605</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2573</v>
+        <v>2513</v>
       </c>
       <c r="B1308" t="s">
-        <v>2606</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2574</v>
+        <v>2514</v>
       </c>
       <c r="B1309" t="s">
-        <v>2607</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1310" t="s">
-        <v>2575</v>
-      </c>
       <c r="B1310" t="s">
-        <v>2608</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2576</v>
+        <v>2515</v>
       </c>
       <c r="B1311" t="s">
-        <v>2609</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2577</v>
+        <v>2516</v>
       </c>
       <c r="B1312" t="s">
-        <v>2610</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2578</v>
+        <v>2517</v>
       </c>
       <c r="B1313" t="s">
-        <v>2611</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2579</v>
+        <v>2518</v>
       </c>
       <c r="B1314" t="s">
-        <v>2612</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2580</v>
+        <v>2519</v>
       </c>
       <c r="B1315" t="s">
-        <v>2613</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2581</v>
+        <v>2520</v>
       </c>
       <c r="B1316" t="s">
-        <v>2614</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2582</v>
+        <v>2521</v>
       </c>
       <c r="B1317" t="s">
-        <v>2615</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2583</v>
+        <v>2522</v>
       </c>
       <c r="B1318" t="s">
-        <v>2616</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2584</v>
+        <v>2523</v>
       </c>
       <c r="B1319" t="s">
-        <v>2617</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2585</v>
+        <v>2524</v>
       </c>
       <c r="B1320" t="s">
-        <v>2618</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2586</v>
+        <v>2525</v>
       </c>
       <c r="B1321" t="s">
-        <v>2619</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2587</v>
+        <v>2526</v>
       </c>
       <c r="B1322" t="s">
-        <v>2620</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2588</v>
+        <v>2527</v>
       </c>
       <c r="B1323" t="s">
-        <v>2621</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2589</v>
+        <v>2528</v>
       </c>
       <c r="B1324" t="s">
-        <v>2622</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2590</v>
+        <v>2529</v>
       </c>
       <c r="B1325" t="s">
-        <v>2623</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2591</v>
+        <v>2530</v>
       </c>
       <c r="B1326" t="s">
-        <v>2624</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2592</v>
+        <v>2531</v>
       </c>
       <c r="B1327" t="s">
-        <v>2625</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2593</v>
+        <v>2532</v>
       </c>
       <c r="B1328" t="s">
-        <v>2626</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2594</v>
+        <v>2533</v>
       </c>
       <c r="B1329" t="s">
-        <v>2627</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>2534</v>
+      </c>
       <c r="B1330" t="s">
-        <v>2628</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2595</v>
+        <v>2535</v>
       </c>
       <c r="B1331" t="s">
-        <v>2629</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2630</v>
+        <v>2564</v>
       </c>
       <c r="B1332" t="s">
-        <v>2645</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2631</v>
+        <v>2565</v>
       </c>
       <c r="B1333" t="s">
-        <v>2646</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2632</v>
+        <v>2566</v>
       </c>
       <c r="B1334" t="s">
-        <v>2647</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2633</v>
+        <v>2567</v>
       </c>
       <c r="B1335" t="s">
-        <v>2648</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2634</v>
+        <v>2568</v>
       </c>
       <c r="B1336" t="s">
-        <v>2649</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2635</v>
+        <v>2569</v>
       </c>
       <c r="B1337" t="s">
-        <v>2650</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2636</v>
+        <v>2570</v>
       </c>
       <c r="B1338" t="s">
-        <v>2651</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2637</v>
+        <v>2571</v>
       </c>
       <c r="B1339" t="s">
-        <v>2652</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1340" t="s">
-        <v>2638</v>
-      </c>
       <c r="B1340" t="s">
-        <v>2653</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2639</v>
+        <v>2572</v>
       </c>
       <c r="B1341" t="s">
-        <v>2654</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2640</v>
+        <v>2573</v>
       </c>
       <c r="B1342" t="s">
-        <v>2655</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>2574</v>
+      </c>
       <c r="B1343" t="s">
-        <v>2656</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>2575</v>
+      </c>
       <c r="B1344" t="s">
-        <v>2657</v>
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>2609</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1346" s="1" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B1346" s="1"/>
+      <c r="A1346" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>2610</v>
+      </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2641</v>
+        <v>2578</v>
       </c>
       <c r="B1347" t="s">
-        <v>2658</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2642</v>
+        <v>2579</v>
       </c>
       <c r="B1348" t="s">
-        <v>2659</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2643</v>
+        <v>2580</v>
       </c>
       <c r="B1349" t="s">
-        <v>2660</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2644</v>
+        <v>2581</v>
       </c>
       <c r="B1350" t="s">
-        <v>2661</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2662</v>
+        <v>2582</v>
       </c>
       <c r="B1351" t="s">
-        <v>2690</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2663</v>
+        <v>2583</v>
       </c>
       <c r="B1352" t="s">
-        <v>2691</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2664</v>
+        <v>2584</v>
       </c>
       <c r="B1353" t="s">
-        <v>2692</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2665</v>
+        <v>2585</v>
       </c>
       <c r="B1354" t="s">
-        <v>2693</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2666</v>
+        <v>2586</v>
       </c>
       <c r="B1355" t="s">
-        <v>2694</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2667</v>
+        <v>2587</v>
       </c>
       <c r="B1356" t="s">
-        <v>2695</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2668</v>
+        <v>2588</v>
       </c>
       <c r="B1357" t="s">
-        <v>2696</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2669</v>
+        <v>2589</v>
       </c>
       <c r="B1358" t="s">
-        <v>2697</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2670</v>
+        <v>2590</v>
       </c>
       <c r="B1359" t="s">
-        <v>2698</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2671</v>
+        <v>2591</v>
       </c>
       <c r="B1360" t="s">
-        <v>2699</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2672</v>
+        <v>2592</v>
       </c>
       <c r="B1361" t="s">
-        <v>2700</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2673</v>
+        <v>2593</v>
       </c>
       <c r="B1362" t="s">
-        <v>2701</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="B1363" t="s">
-        <v>2702</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1364" t="s">
-        <v>2675</v>
-      </c>
       <c r="B1364" t="s">
-        <v>2703</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2676</v>
+        <v>2595</v>
       </c>
       <c r="B1365" t="s">
-        <v>2704</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>2630</v>
+      </c>
       <c r="B1366" t="s">
-        <v>2705</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2677</v>
+        <v>2631</v>
       </c>
       <c r="B1367" t="s">
-        <v>2706</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2678</v>
+        <v>2632</v>
       </c>
       <c r="B1368" t="s">
-        <v>2707</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2679</v>
+        <v>2633</v>
       </c>
       <c r="B1369" t="s">
-        <v>2708</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2680</v>
+        <v>2634</v>
       </c>
       <c r="B1370" t="s">
-        <v>2709</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2681</v>
+        <v>2635</v>
       </c>
       <c r="B1371" t="s">
-        <v>2710</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2682</v>
+        <v>2636</v>
       </c>
       <c r="B1372" t="s">
-        <v>2711</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2683</v>
+        <v>2637</v>
       </c>
       <c r="B1373" t="s">
-        <v>2712</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2684</v>
+        <v>2638</v>
       </c>
       <c r="B1374" t="s">
-        <v>2713</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2685</v>
+        <v>2639</v>
       </c>
       <c r="B1375" t="s">
-        <v>2714</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2686</v>
+        <v>2640</v>
       </c>
       <c r="B1376" t="s">
-        <v>2715</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1377" t="s">
-        <v>2687</v>
-      </c>
       <c r="B1377" t="s">
-        <v>2716</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1378" t="s">
-        <v>2688</v>
-      </c>
       <c r="B1378" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1379" t="s">
-        <v>2689</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>2718</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1380" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>2754</v>
-      </c>
+      <c r="A1380" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2720</v>
+        <v>2641</v>
       </c>
       <c r="B1381" t="s">
-        <v>2755</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2721</v>
+        <v>2642</v>
       </c>
       <c r="B1382" t="s">
-        <v>2756</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2722</v>
+        <v>2643</v>
       </c>
       <c r="B1383" t="s">
-        <v>2757</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2723</v>
+        <v>2644</v>
       </c>
       <c r="B1384" t="s">
-        <v>2758</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2724</v>
+        <v>2662</v>
       </c>
       <c r="B1385" t="s">
-        <v>2759</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2725</v>
+        <v>2663</v>
       </c>
       <c r="B1386" t="s">
-        <v>2760</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2726</v>
+        <v>2664</v>
       </c>
       <c r="B1387" t="s">
-        <v>2761</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2727</v>
+        <v>2665</v>
       </c>
       <c r="B1388" t="s">
-        <v>2762</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2728</v>
+        <v>2666</v>
       </c>
       <c r="B1389" t="s">
-        <v>2763</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2729</v>
+        <v>2667</v>
       </c>
       <c r="B1390" t="s">
-        <v>2764</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2730</v>
+        <v>2668</v>
       </c>
       <c r="B1391" t="s">
-        <v>2765</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2731</v>
+        <v>2669</v>
       </c>
       <c r="B1392" t="s">
-        <v>2766</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2732</v>
+        <v>2670</v>
       </c>
       <c r="B1393" t="s">
-        <v>2767</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2733</v>
+        <v>2671</v>
       </c>
       <c r="B1394" t="s">
-        <v>2768</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2734</v>
+        <v>2672</v>
       </c>
       <c r="B1395" t="s">
-        <v>2769</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2735</v>
+        <v>2673</v>
       </c>
       <c r="B1396" t="s">
-        <v>2770</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2736</v>
+        <v>2674</v>
       </c>
       <c r="B1397" t="s">
-        <v>2771</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2737</v>
+        <v>2675</v>
       </c>
       <c r="B1398" t="s">
-        <v>2772</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2738</v>
+        <v>2676</v>
       </c>
       <c r="B1399" t="s">
-        <v>2773</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1400" t="s">
-        <v>2739</v>
-      </c>
       <c r="B1400" t="s">
-        <v>2774</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2740</v>
+        <v>2677</v>
       </c>
       <c r="B1401" t="s">
-        <v>2775</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2741</v>
+        <v>2678</v>
       </c>
       <c r="B1402" t="s">
-        <v>2776</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2742</v>
+        <v>2679</v>
       </c>
       <c r="B1403" t="s">
-        <v>2777</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2743</v>
+        <v>2680</v>
       </c>
       <c r="B1404" t="s">
-        <v>2778</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2744</v>
+        <v>2681</v>
       </c>
       <c r="B1405" t="s">
-        <v>2779</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2745</v>
+        <v>2682</v>
       </c>
       <c r="B1406" t="s">
-        <v>2780</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2781</v>
+        <v>2683</v>
       </c>
       <c r="B1407" t="s">
-        <v>2782</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2746</v>
+        <v>2684</v>
       </c>
       <c r="B1408" t="s">
-        <v>2783</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>2685</v>
+      </c>
       <c r="B1409" t="s">
-        <v>2784</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2747</v>
+        <v>2686</v>
       </c>
       <c r="B1410" t="s">
-        <v>2785</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2748</v>
+        <v>2687</v>
       </c>
       <c r="B1411" t="s">
-        <v>2786</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2749</v>
+        <v>2688</v>
       </c>
       <c r="B1412" t="s">
-        <v>2787</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2750</v>
+        <v>2689</v>
       </c>
       <c r="B1413" t="s">
-        <v>2788</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2751</v>
+        <v>2719</v>
       </c>
       <c r="B1414" t="s">
-        <v>2789</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2752</v>
+        <v>2720</v>
       </c>
       <c r="B1415" t="s">
-        <v>2790</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2753</v>
+        <v>2721</v>
       </c>
       <c r="B1416" t="s">
-        <v>2791</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2796</v>
+        <v>2722</v>
       </c>
       <c r="B1417" t="s">
-        <v>2802</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>2723</v>
+      </c>
       <c r="B1418" t="s">
-        <v>2803</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>2724</v>
+      </c>
       <c r="B1419" t="s">
-        <v>2804</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2797</v>
+        <v>2725</v>
       </c>
       <c r="B1420" t="s">
-        <v>2805</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>2726</v>
+      </c>
       <c r="B1421" t="s">
-        <v>2806</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2798</v>
+        <v>2727</v>
       </c>
       <c r="B1422" t="s">
-        <v>2807</v>
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>2763</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1424" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B1424" s="1"/>
+      <c r="A1424" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2764</v>
+      </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2799</v>
+        <v>2730</v>
       </c>
       <c r="B1425" t="s">
-        <v>2808</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2800</v>
+        <v>2731</v>
       </c>
       <c r="B1426" t="s">
-        <v>2809</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2801</v>
+        <v>2732</v>
       </c>
       <c r="B1427" t="s">
-        <v>2810</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2812</v>
+        <v>2733</v>
       </c>
       <c r="B1428" t="s">
-        <v>2831</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2813</v>
+        <v>2734</v>
       </c>
       <c r="B1429" t="s">
-        <v>2832</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2814</v>
+        <v>2735</v>
       </c>
       <c r="B1430" t="s">
-        <v>2833</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2815</v>
+        <v>2736</v>
       </c>
       <c r="B1431" t="s">
-        <v>2834</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2816</v>
+        <v>2737</v>
       </c>
       <c r="B1432" t="s">
-        <v>2835</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2817</v>
+        <v>2738</v>
       </c>
       <c r="B1433" t="s">
-        <v>2836</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2818</v>
+        <v>2739</v>
       </c>
       <c r="B1434" t="s">
-        <v>2837</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2819</v>
+        <v>2740</v>
       </c>
       <c r="B1435" t="s">
-        <v>2838</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2820</v>
+        <v>2741</v>
       </c>
       <c r="B1436" t="s">
-        <v>2839</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2821</v>
+        <v>2742</v>
       </c>
       <c r="B1437" t="s">
-        <v>2840</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2822</v>
+        <v>2743</v>
       </c>
       <c r="B1438" t="s">
-        <v>2841</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2823</v>
+        <v>2744</v>
       </c>
       <c r="B1439" t="s">
-        <v>2842</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2824</v>
+        <v>2745</v>
       </c>
       <c r="B1440" t="s">
-        <v>2843</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2825</v>
+        <v>2781</v>
       </c>
       <c r="B1441" t="s">
-        <v>2844</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>2746</v>
+      </c>
       <c r="B1442" t="s">
-        <v>2845</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1443" t="s">
-        <v>2826</v>
-      </c>
       <c r="B1443" t="s">
-        <v>2846</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>2747</v>
+      </c>
       <c r="B1444" t="s">
-        <v>2847</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2827</v>
+        <v>2748</v>
       </c>
       <c r="B1445" t="s">
-        <v>2848</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2828</v>
+        <v>2749</v>
       </c>
       <c r="B1446" t="s">
-        <v>2849</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2829</v>
+        <v>2750</v>
       </c>
       <c r="B1447" t="s">
-        <v>2850</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2830</v>
+        <v>2751</v>
       </c>
       <c r="B1448" t="s">
-        <v>2851</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2852</v>
+        <v>2752</v>
       </c>
       <c r="B1449" t="s">
-        <v>2884</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2853</v>
+        <v>2753</v>
       </c>
       <c r="B1450" t="s">
-        <v>2885</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2854</v>
+        <v>2796</v>
       </c>
       <c r="B1451" t="s">
-        <v>2886</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1452" t="s">
-        <v>2855</v>
-      </c>
       <c r="B1452" t="s">
-        <v>2887</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1453" t="s">
-        <v>2856</v>
-      </c>
       <c r="B1453" t="s">
-        <v>2888</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2857</v>
+        <v>2797</v>
       </c>
       <c r="B1454" t="s">
-        <v>2889</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1455" t="s">
-        <v>2858</v>
-      </c>
       <c r="B1455" t="s">
-        <v>2890</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2859</v>
+        <v>2798</v>
       </c>
       <c r="B1456" t="s">
-        <v>2891</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1457" t="s">
-        <v>2860</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>2892</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1458" t="s">
-        <v>2861</v>
-      </c>
-      <c r="B1458" t="s">
-        <v>2893</v>
-      </c>
+      <c r="A1458" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2862</v>
+        <v>2799</v>
       </c>
       <c r="B1459" t="s">
-        <v>2894</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2863</v>
+        <v>2800</v>
       </c>
       <c r="B1460" t="s">
-        <v>2895</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2864</v>
+        <v>2801</v>
       </c>
       <c r="B1461" t="s">
-        <v>2896</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2865</v>
+        <v>2812</v>
       </c>
       <c r="B1462" t="s">
-        <v>2897</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2866</v>
+        <v>2813</v>
       </c>
       <c r="B1463" t="s">
-        <v>2898</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2867</v>
+        <v>2814</v>
       </c>
       <c r="B1464" t="s">
-        <v>2899</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2868</v>
+        <v>2815</v>
       </c>
       <c r="B1465" t="s">
-        <v>2900</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2869</v>
+        <v>2816</v>
       </c>
       <c r="B1466" t="s">
-        <v>2901</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2870</v>
+        <v>2817</v>
       </c>
       <c r="B1467" t="s">
-        <v>2902</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2871</v>
+        <v>2818</v>
       </c>
       <c r="B1468" t="s">
-        <v>2903</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2872</v>
+        <v>2819</v>
       </c>
       <c r="B1469" t="s">
-        <v>2904</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2873</v>
+        <v>2820</v>
       </c>
       <c r="B1470" t="s">
-        <v>2905</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2874</v>
+        <v>2821</v>
       </c>
       <c r="B1471" t="s">
-        <v>2906</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2875</v>
+        <v>2822</v>
       </c>
       <c r="B1472" t="s">
-        <v>2907</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2876</v>
+        <v>2823</v>
       </c>
       <c r="B1473" t="s">
-        <v>2908</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2877</v>
+        <v>2824</v>
       </c>
       <c r="B1474" t="s">
-        <v>2909</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2878</v>
+        <v>2825</v>
       </c>
       <c r="B1475" t="s">
-        <v>2910</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1476" t="s">
-        <v>2879</v>
-      </c>
       <c r="B1476" t="s">
-        <v>2911</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2880</v>
+        <v>2826</v>
       </c>
       <c r="B1477" t="s">
-        <v>2912</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1478" t="s">
-        <v>2881</v>
-      </c>
       <c r="B1478" t="s">
-        <v>2913</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2882</v>
+        <v>2827</v>
       </c>
       <c r="B1479" t="s">
-        <v>2914</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2883</v>
+        <v>2828</v>
       </c>
       <c r="B1480" t="s">
-        <v>2915</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2916</v>
+        <v>2829</v>
       </c>
       <c r="B1481" t="s">
-        <v>2946</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2917</v>
+        <v>2830</v>
       </c>
       <c r="B1482" t="s">
-        <v>2947</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2918</v>
+        <v>2852</v>
       </c>
       <c r="B1483" t="s">
-        <v>2948</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2919</v>
+        <v>2853</v>
       </c>
       <c r="B1484" t="s">
-        <v>2949</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2920</v>
+        <v>2854</v>
       </c>
       <c r="B1485" t="s">
-        <v>2950</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2921</v>
+        <v>2855</v>
       </c>
       <c r="B1486" t="s">
-        <v>2951</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2922</v>
+        <v>2856</v>
       </c>
       <c r="B1487" t="s">
-        <v>2952</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2923</v>
+        <v>2857</v>
       </c>
       <c r="B1488" t="s">
-        <v>2953</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2924</v>
+        <v>2858</v>
       </c>
       <c r="B1489" t="s">
-        <v>2954</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2925</v>
+        <v>2859</v>
       </c>
       <c r="B1490" t="s">
-        <v>2395</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2926</v>
+        <v>2860</v>
       </c>
       <c r="B1491" t="s">
-        <v>2955</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>2861</v>
+      </c>
       <c r="B1492" t="s">
-        <v>2956</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2927</v>
+        <v>2862</v>
       </c>
       <c r="B1493" t="s">
-        <v>2957</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2928</v>
+        <v>2863</v>
       </c>
       <c r="B1494" t="s">
-        <v>2958</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2929</v>
+        <v>2864</v>
       </c>
       <c r="B1495" t="s">
-        <v>2959</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2930</v>
+        <v>2865</v>
       </c>
       <c r="B1496" t="s">
-        <v>2960</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2931</v>
+        <v>2866</v>
       </c>
       <c r="B1497" t="s">
-        <v>2961</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2932</v>
+        <v>2867</v>
       </c>
       <c r="B1498" t="s">
-        <v>2962</v>
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>2900</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1500" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="B1500" s="1"/>
+      <c r="A1500" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>2901</v>
+      </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2933</v>
+        <v>2870</v>
       </c>
       <c r="B1501" t="s">
-        <v>2963</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2934</v>
+        <v>2871</v>
       </c>
       <c r="B1502" t="s">
-        <v>2964</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2935</v>
+        <v>2872</v>
       </c>
       <c r="B1503" t="s">
-        <v>2965</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2936</v>
+        <v>2873</v>
       </c>
       <c r="B1504" t="s">
-        <v>2966</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2937</v>
+        <v>2874</v>
       </c>
       <c r="B1505" t="s">
-        <v>2967</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2938</v>
+        <v>2875</v>
       </c>
       <c r="B1506" t="s">
-        <v>2968</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2939</v>
+        <v>2876</v>
       </c>
       <c r="B1507" t="s">
-        <v>2969</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2940</v>
+        <v>2877</v>
       </c>
       <c r="B1508" t="s">
-        <v>2970</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2941</v>
+        <v>2878</v>
       </c>
       <c r="B1509" t="s">
-        <v>2971</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2942</v>
+        <v>2879</v>
       </c>
       <c r="B1510" t="s">
-        <v>2972</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2943</v>
+        <v>2880</v>
       </c>
       <c r="B1511" t="s">
-        <v>2973</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2944</v>
+        <v>2881</v>
       </c>
       <c r="B1512" t="s">
-        <v>2974</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2945</v>
+        <v>2882</v>
       </c>
       <c r="B1513" t="s">
-        <v>2975</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2976</v>
+        <v>2883</v>
       </c>
       <c r="B1514" t="s">
-        <v>3006</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>2916</v>
+      </c>
       <c r="B1515" t="s">
-        <v>3007</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2977</v>
+        <v>2917</v>
       </c>
       <c r="B1516" t="s">
-        <v>3008</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2978</v>
+        <v>2918</v>
       </c>
       <c r="B1517" t="s">
-        <v>3009</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2979</v>
+        <v>2919</v>
       </c>
       <c r="B1518" t="s">
-        <v>3010</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2980</v>
+        <v>2920</v>
       </c>
       <c r="B1519" t="s">
-        <v>3011</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2981</v>
+        <v>2921</v>
       </c>
       <c r="B1520" t="s">
-        <v>3012</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>2922</v>
+      </c>
       <c r="B1521" t="s">
-        <v>3013</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2982</v>
+        <v>2923</v>
       </c>
       <c r="B1522" t="s">
-        <v>3014</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2983</v>
+        <v>2924</v>
       </c>
       <c r="B1523" t="s">
-        <v>3015</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2984</v>
+        <v>2925</v>
       </c>
       <c r="B1524" t="s">
-        <v>3016</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2985</v>
+        <v>2926</v>
       </c>
       <c r="B1525" t="s">
-        <v>3017</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1526" t="s">
-        <v>2986</v>
-      </c>
       <c r="B1526" t="s">
-        <v>3018</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2987</v>
+        <v>2927</v>
       </c>
       <c r="B1527" t="s">
-        <v>3019</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2988</v>
+        <v>2928</v>
       </c>
       <c r="B1528" t="s">
-        <v>3020</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2989</v>
+        <v>2929</v>
       </c>
       <c r="B1529" t="s">
-        <v>3021</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2990</v>
+        <v>2930</v>
       </c>
       <c r="B1530" t="s">
-        <v>3022</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2991</v>
+        <v>2931</v>
       </c>
       <c r="B1531" t="s">
-        <v>3023</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2992</v>
+        <v>2932</v>
       </c>
       <c r="B1532" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1533" t="s">
-        <v>2993</v>
-      </c>
-      <c r="B1533" t="s">
-        <v>3025</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1534" t="s">
-        <v>2994</v>
-      </c>
-      <c r="B1534" t="s">
-        <v>3026</v>
-      </c>
+      <c r="A1534" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2995</v>
+        <v>2933</v>
       </c>
       <c r="B1535" t="s">
-        <v>3027</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2996</v>
+        <v>2934</v>
       </c>
       <c r="B1536" t="s">
-        <v>3028</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2997</v>
+        <v>2935</v>
       </c>
       <c r="B1537" t="s">
-        <v>3029</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2998</v>
+        <v>2936</v>
       </c>
       <c r="B1538" t="s">
-        <v>3030</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2999</v>
+        <v>2937</v>
       </c>
       <c r="B1539" t="s">
-        <v>3031</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>3000</v>
+        <v>2938</v>
       </c>
       <c r="B1540" t="s">
-        <v>3032</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>3001</v>
+        <v>2939</v>
       </c>
       <c r="B1541" t="s">
-        <v>3033</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>3002</v>
+        <v>2940</v>
       </c>
       <c r="B1542" t="s">
-        <v>3034</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>3003</v>
+        <v>2941</v>
       </c>
       <c r="B1543" t="s">
-        <v>3035</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>3004</v>
+        <v>2942</v>
       </c>
       <c r="B1544" t="s">
-        <v>3036</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>3005</v>
+        <v>2943</v>
       </c>
       <c r="B1545" t="s">
-        <v>3037</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>3038</v>
+        <v>2944</v>
       </c>
       <c r="B1546" t="s">
-        <v>3048</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>3039</v>
+        <v>2945</v>
       </c>
       <c r="B1547" t="s">
-        <v>3049</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>3040</v>
+        <v>2976</v>
       </c>
       <c r="B1548" t="s">
-        <v>3050</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1549" t="s">
-        <v>3041</v>
-      </c>
       <c r="B1549" t="s">
-        <v>3051</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>3042</v>
+        <v>2977</v>
       </c>
       <c r="B1550" t="s">
-        <v>3052</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>3043</v>
+        <v>2978</v>
       </c>
       <c r="B1551" t="s">
-        <v>3053</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>3044</v>
+        <v>2979</v>
       </c>
       <c r="B1552" t="s">
-        <v>3054</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>3045</v>
+        <v>2980</v>
       </c>
       <c r="B1553" t="s">
-        <v>3055</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>3046</v>
+        <v>2981</v>
       </c>
       <c r="B1554" t="s">
-        <v>3056</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1555" t="s">
-        <v>3047</v>
-      </c>
       <c r="B1555" t="s">
-        <v>3057</v>
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3014</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1557" s="1" t="s">
-        <v>3062</v>
-      </c>
-      <c r="B1557" s="1"/>
+      <c r="A1557" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>3015</v>
+      </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>1851</v>
+        <v>2984</v>
       </c>
       <c r="B1558" t="s">
-        <v>1866</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>1852</v>
+        <v>2985</v>
       </c>
       <c r="B1559" t="s">
-        <v>1867</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>1853</v>
+        <v>2986</v>
       </c>
       <c r="B1560" t="s">
-        <v>1868</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>1854</v>
+        <v>2987</v>
       </c>
       <c r="B1561" t="s">
-        <v>1869</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>1855</v>
+        <v>2988</v>
       </c>
       <c r="B1562" t="s">
-        <v>1870</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>1856</v>
+        <v>2989</v>
       </c>
       <c r="B1563" t="s">
-        <v>1871</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>1857</v>
+        <v>2990</v>
       </c>
       <c r="B1564" t="s">
-        <v>1872</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>1858</v>
+        <v>2991</v>
       </c>
       <c r="B1565" t="s">
-        <v>1873</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>1859</v>
+        <v>2992</v>
       </c>
       <c r="B1566" t="s">
-        <v>1874</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>1860</v>
+        <v>2993</v>
       </c>
       <c r="B1567" t="s">
-        <v>1875</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>1861</v>
+        <v>2994</v>
       </c>
       <c r="B1568" t="s">
-        <v>1876</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>1862</v>
+        <v>2995</v>
       </c>
       <c r="B1569" t="s">
-        <v>1877</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570" t="s">
+        <v>2996</v>
+      </c>
       <c r="B1570" t="s">
-        <v>1878</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>1863</v>
+        <v>2997</v>
       </c>
       <c r="B1571" t="s">
-        <v>1879</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>1864</v>
+        <v>2998</v>
       </c>
       <c r="B1572" t="s">
-        <v>1880</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>1865</v>
+        <v>2999</v>
       </c>
       <c r="B1573" t="s">
-        <v>1881</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="B1574" t="s">
-        <v>1903</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>1890</v>
+        <v>3001</v>
       </c>
       <c r="B1575" t="s">
-        <v>1904</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>1891</v>
+        <v>3002</v>
       </c>
       <c r="B1576" t="s">
-        <v>1905</v>
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>3035</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1578" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B1578" s="1"/>
+      <c r="A1578" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>3036</v>
+      </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>1892</v>
+        <v>3005</v>
       </c>
       <c r="B1579" t="s">
-        <v>1906</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>1893</v>
+        <v>3038</v>
       </c>
       <c r="B1580" t="s">
-        <v>1907</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>1894</v>
+        <v>3039</v>
       </c>
       <c r="B1581" t="s">
-        <v>1908</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>1895</v>
+        <v>3040</v>
       </c>
       <c r="B1582" t="s">
-        <v>1909</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>1896</v>
+        <v>3041</v>
       </c>
       <c r="B1583" t="s">
-        <v>1910</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>1897</v>
+        <v>3042</v>
       </c>
       <c r="B1584" t="s">
-        <v>1911</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>1898</v>
+        <v>3043</v>
       </c>
       <c r="B1585" t="s">
-        <v>1912</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586" t="s">
+        <v>3044</v>
+      </c>
       <c r="B1586" t="s">
-        <v>1913</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>1899</v>
+        <v>3045</v>
       </c>
       <c r="B1587" t="s">
-        <v>1914</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>1900</v>
+        <v>3046</v>
       </c>
       <c r="B1588" t="s">
-        <v>1915</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B1591" s="1"/>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1592" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1593" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1599" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1601" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1602" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1603" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1604" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1605" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1606" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1607" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1608" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1609" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1610" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1612" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1612" s="1"/>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1613" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1614" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1615" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1616" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1620" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623" t="s">
         <v>1901</v>
       </c>
-      <c r="B1589" t="s">
+      <c r="B1623" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1590" t="s">
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624" t="s">
         <v>1902</v>
       </c>
-      <c r="B1590" t="s">
+      <c r="B1624" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1591" t="s">
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625" t="s">
         <v>1918</v>
       </c>
-      <c r="B1591" t="s">
+      <c r="B1625" t="s">
         <v>1944</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1578:B1578"/>
-    <mergeCell ref="A1557:B1557"/>
-    <mergeCell ref="A1500:B1500"/>
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
+    <mergeCell ref="A1612:B1612"/>
+    <mergeCell ref="A1591:B1591"/>
+    <mergeCell ref="A1534:B1534"/>
     <mergeCell ref="A384:B384"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A75:B75"/>
@@ -40398,17 +41322,10 @@
     <mergeCell ref="A818:B818"/>
     <mergeCell ref="A895:B895"/>
     <mergeCell ref="A968:B968"/>
-    <mergeCell ref="A1042:B1042"/>
+    <mergeCell ref="A1076:B1076"/>
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1118:B1118"/>
-    <mergeCell ref="A1192:B1192"/>
-    <mergeCell ref="A1268:B1268"/>
-    <mergeCell ref="A1346:B1346"/>
-    <mergeCell ref="A1424:B1424"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -18431,16 +18431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.欢腾，欢庆</t>
-    <rPh sb="2" eb="3">
-      <t>huan teng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>huan qing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.拘泥小节；小气地给</t>
     <rPh sb="2" eb="3">
       <t>ju ni</t>
@@ -27496,34 +27486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.沟，槽，辙；(刻出)字沟；习惯</t>
-    <rPh sb="2" eb="3">
-      <t>gou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhe</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>gou</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>xi guan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.狗舍，狗窝</t>
     <rPh sb="2" eb="3">
       <t>gou</t>
@@ -27575,19 +27537,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>huo yue</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.神话动物；梦幻</t>
-    <rPh sb="2" eb="3">
-      <t>shen hua</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dong uw</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>meng huan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28331,6 +28280,63 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>mei'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.欢腾，欢庆</t>
+    <rPh sb="2" eb="3">
+      <t>huan teng</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>huan qing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.沟，槽，辙；(刻出的)字沟；习惯</t>
+    <rPh sb="2" eb="3">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gou</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xi guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.神话怪物；梦幻</t>
+    <rPh sb="2" eb="3">
+      <t>shen hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>meng huan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28660,8 +28666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1061" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1043" sqref="B1043"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1573" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1586" sqref="B1586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30397,7 +30403,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B222" t="s">
         <v>422</v>
@@ -31074,7 +31080,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B310" s="1"/>
     </row>
@@ -31653,7 +31659,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B384" s="1"/>
     </row>
@@ -32147,7 +32153,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B447" s="1"/>
     </row>
@@ -32728,7 +32734,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B522" s="1"/>
     </row>
@@ -33312,7 +33318,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B597" s="1"/>
     </row>
@@ -33891,7 +33897,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B671" s="1"/>
     </row>
@@ -34470,7 +34476,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B745" s="1"/>
     </row>
@@ -35044,7 +35050,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B818" s="1"/>
     </row>
@@ -35537,7 +35543,7 @@
         <v>1679</v>
       </c>
       <c r="B881" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35561,7 +35567,7 @@
         <v>1682</v>
       </c>
       <c r="B884" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -35638,7 +35644,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B895" s="1"/>
     </row>
@@ -36212,7 +36218,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B968" s="1"/>
     </row>
@@ -36543,268 +36549,268 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="B1010" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="B1011" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="B1012" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="B1013" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="B1014" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="B1015" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="B1016" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="B1017" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="B1018" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="B1019" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="B1020" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="B1021" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="B1022" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="B1023" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="B1024" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="B1025" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="B1026" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="B1027" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="B1028" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="B1029" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="B1030" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="B1031" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="B1032" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="B1033" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="B1034" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="B1035" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="B1036" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="B1037" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="B1038" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="B1040" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="B1041" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="B1042" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
@@ -37012,7 +37018,7 @@
         <v>2026</v>
       </c>
       <c r="B1069" t="s">
-        <v>2057</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
@@ -37020,7 +37026,7 @@
         <v>2027</v>
       </c>
       <c r="B1070" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
@@ -37028,7 +37034,7 @@
         <v>2028</v>
       </c>
       <c r="B1071" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
@@ -37036,7 +37042,7 @@
         <v>2029</v>
       </c>
       <c r="B1072" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
@@ -37044,7 +37050,7 @@
         <v>2030</v>
       </c>
       <c r="B1073" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
@@ -37052,1761 +37058,1761 @@
         <v>2031</v>
       </c>
       <c r="B1074" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" s="1" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1076" s="1"/>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1077" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1078" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1079" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1080" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1081" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1082" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1083" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1084" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1085" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1086" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1087" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1088" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1089" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1090" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1091" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1092" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B1093" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1094" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1095" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1096" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1097" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1098" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1099" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1100" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1101" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1102" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1103" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1104" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1105" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1106" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1107" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1108" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1109" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1110" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1112" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1113" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1114" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1115" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1116" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1117" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1118" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1119" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1120" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1121" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1122" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B1123" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1124" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1125" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1126" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1127" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1128" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1129" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1130" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1131" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1132" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1133" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B1134" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1135" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1136" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1137" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1138" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1139" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1140" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1141" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1142" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B1143" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B1144" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B1145" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1146" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1147" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1148" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1149" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1150" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1152" s="1"/>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1153" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B1154" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1155" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1156" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1157" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1158" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1159" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1160" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1161" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1162" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1163" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1164" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1165" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1166" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1167" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1168" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B1169" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B1170" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B1171" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B1172" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B1173" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B1174" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B1175" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1176" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1177" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1178" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1179" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1180" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B1181" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1182" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1183" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1184" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1185" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1186" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B1187" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1188" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1189" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1190" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1191" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1192" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B1193" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1194" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B1195" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1196" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1197" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1198" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1199" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1200" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1201" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1202" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1203" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1204" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1205" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1206" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1207" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1208" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1209" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1210" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1211" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1212" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1213" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1214" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B1215" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1216" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1217" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1219" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1220" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1221" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1222" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1223" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1224" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1227" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1228" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1229" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1230" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1231" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1232" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1233" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1234" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1235" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1236" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1237" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1238" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1239" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1240" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1241" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1242" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B1243" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1244" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1245" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1246" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1247" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1248" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1249" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1250" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1251" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1252" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1253" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1254" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1255" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1256" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1257" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1258" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1259" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1261" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1262" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1263" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1264" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1265" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B1266" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1267" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1268" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1269" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1270" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1271" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B1272" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B1273" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B1275" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1276" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1277" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B1278" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1280" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1281" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1282" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1283" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1284" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1285" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1286" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1287" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1288" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1289" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1290" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1291" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1292" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1293" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1294" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1295" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B1296" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B1297" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B1298" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B1299" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1300" t="s">
         <v>574</v>
@@ -38814,2504 +38820,2497 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B1303" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1304" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1305" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1306" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1307" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1308" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1309" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B1311" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1312" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1313" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1314" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1315" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1316" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1317" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1318" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1319" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1320" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1321" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1322" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B1323" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B1324" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B1325" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B1326" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B1327" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B1328" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B1329" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B1330" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B1331" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1332" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1333" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1334" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1335" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1336" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1337" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1338" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1339" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1341" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B1342" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B1343" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B1344" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B1345" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B1346" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B1347" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B1348" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B1349" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B1350" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B1351" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B1352" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B1353" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B1354" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B1355" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B1356" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B1357" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B1358" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B1359" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B1360" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B1361" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1362" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B1363" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1364" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B1365" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B1366" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B1367" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B1368" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B1369" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B1370" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B1371" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B1372" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B1373" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B1374" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B1375" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B1376" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1377" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B1381" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B1382" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B1383" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B1384" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1385" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1386" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1387" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1388" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1389" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1390" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1391" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1392" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1393" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1394" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1395" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1396" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1397" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1398" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1399" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1400" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1401" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1402" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1403" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1404" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1405" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1406" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B1407" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B1408" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B1409" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B1410" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B1411" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B1412" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B1413" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1414" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1415" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1416" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1417" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1418" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1419" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1420" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1421" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1422" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1423" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1424" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1425" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1426" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1427" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1428" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1429" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1430" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1431" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1432" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1433" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1434" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1435" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1436" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1437" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1438" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1439" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1440" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B1441" t="s">
         <v>2781</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1442" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1443" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B1444" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B1445" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B1446" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B1447" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B1448" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B1449" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B1450" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B1451" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1452" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1454" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1455" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1456" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1459" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1460" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B1461" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1462" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1463" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1464" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1465" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1466" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1467" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1468" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1469" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1470" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1471" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1472" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1473" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1474" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1475" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B1477" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1479" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1480" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1481" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B1482" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1483" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1484" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1485" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1486" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1487" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1488" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1489" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1490" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1491" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1492" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1493" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1494" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1495" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1496" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1497" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1498" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1499" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1500" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1501" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1502" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1503" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1504" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1505" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1506" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1507" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1508" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1509" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1510" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1511" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1512" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1513" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B1514" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1515" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1516" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1517" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1518" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1519" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1520" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1521" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1522" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1523" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1524" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1525" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1527" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1528" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1529" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B1530" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1531" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B1532" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B1535" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1536" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1537" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B1538" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1539" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B1540" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B1541" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B1542" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1543" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B1544" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B1545" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B1546" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="B1547" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1548" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1550" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1551" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1552" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1553" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1554" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1556" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1557" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1558" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1559" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1560" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1561" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1562" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1563" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1564" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1565" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1566" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1567" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1568" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B1569" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1570" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1571" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1572" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B1573" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1574" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1575" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1576" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B1577" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B1578" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B1579" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1580" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B1581" t="s">
-        <v>3049</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B1582" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B1583" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B1584" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B1585" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B1586" t="s">
-        <v>3054</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B1587" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B1588" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B1589" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>1851</v>
+        <v>1892</v>
       </c>
       <c r="B1592" t="s">
-        <v>1866</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>1852</v>
+        <v>1893</v>
       </c>
       <c r="B1593" t="s">
-        <v>1867</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>1853</v>
+        <v>1894</v>
       </c>
       <c r="B1594" t="s">
-        <v>1868</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>1854</v>
+        <v>1895</v>
       </c>
       <c r="B1595" t="s">
-        <v>1869</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>1855</v>
+        <v>1896</v>
       </c>
       <c r="B1596" t="s">
-        <v>1870</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>1856</v>
+        <v>1897</v>
       </c>
       <c r="B1597" t="s">
-        <v>1871</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>1857</v>
+        <v>1898</v>
       </c>
       <c r="B1598" t="s">
-        <v>1872</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1599" t="s">
-        <v>1858</v>
-      </c>
       <c r="B1599" t="s">
-        <v>1873</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>1859</v>
+        <v>1899</v>
       </c>
       <c r="B1600" t="s">
-        <v>1874</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>1860</v>
+        <v>1900</v>
       </c>
       <c r="B1601" t="s">
-        <v>1875</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>1861</v>
+        <v>1901</v>
       </c>
       <c r="B1602" t="s">
-        <v>1876</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>1862</v>
+        <v>1902</v>
       </c>
       <c r="B1603" t="s">
-        <v>1877</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1604" t="s">
+        <v>1918</v>
+      </c>
       <c r="B1604" t="s">
-        <v>1878</v>
-      </c>
-    </row>
-    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1605" t="s">
-        <v>1863</v>
-      </c>
-      <c r="B1605" t="s">
-        <v>1879</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1606" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B1606" t="s">
-        <v>1880</v>
-      </c>
+      <c r="A1606" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1606" s="1"/>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="B1607" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
-        <v>1889</v>
+        <v>1852</v>
       </c>
       <c r="B1608" t="s">
-        <v>1903</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>1890</v>
+        <v>1853</v>
       </c>
       <c r="B1609" t="s">
-        <v>1904</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>1891</v>
+        <v>1854</v>
       </c>
       <c r="B1610" t="s">
-        <v>1905</v>
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1611" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1612" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="B1612" s="1"/>
+      <c r="A1612" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>1871</v>
+      </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>1892</v>
+        <v>1857</v>
       </c>
       <c r="B1613" t="s">
-        <v>1906</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
-        <v>1893</v>
+        <v>1858</v>
       </c>
       <c r="B1614" t="s">
-        <v>1907</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
-        <v>1894</v>
+        <v>1859</v>
       </c>
       <c r="B1615" t="s">
-        <v>1908</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
-        <v>1895</v>
+        <v>1860</v>
       </c>
       <c r="B1616" t="s">
-        <v>1909</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
-        <v>1896</v>
+        <v>1861</v>
       </c>
       <c r="B1617" t="s">
-        <v>1910</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>1897</v>
+        <v>1862</v>
       </c>
       <c r="B1618" t="s">
-        <v>1911</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1619" t="s">
-        <v>1898</v>
-      </c>
       <c r="B1619" t="s">
-        <v>1912</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620" t="s">
+        <v>1863</v>
+      </c>
       <c r="B1620" t="s">
-        <v>1913</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
-        <v>1899</v>
+        <v>1864</v>
       </c>
       <c r="B1621" t="s">
-        <v>1914</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
-        <v>1900</v>
+        <v>1865</v>
       </c>
       <c r="B1622" t="s">
-        <v>1915</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>1901</v>
+        <v>1889</v>
       </c>
       <c r="B1623" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
-        <v>1902</v>
+        <v>1890</v>
       </c>
       <c r="B1624" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
-        <v>1918</v>
+        <v>1891</v>
       </c>
       <c r="B1625" t="s">
-        <v>1944</v>
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
-    <mergeCell ref="A1612:B1612"/>
     <mergeCell ref="A1591:B1591"/>
+    <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
     <mergeCell ref="A384:B384"/>
     <mergeCell ref="A1:B1"/>
@@ -41326,6 +41325,13 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -17101,22 +17101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.不稳定的，不变的；</t>
-    <rPh sb="4" eb="5">
-      <t>bu wen ding</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bu bian</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(脾气)温和的</t>
     <rPh sb="1" eb="2">
       <t>pi qi</t>
@@ -28337,6 +28321,19 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>meng huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.稳定的，不变的；</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu bian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28666,8 +28663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1573" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1586" sqref="B1586"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1607" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D1616" sqref="D1616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30403,7 +30400,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B222" t="s">
         <v>422</v>
@@ -31080,7 +31077,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B310" s="1"/>
     </row>
@@ -31659,7 +31656,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B384" s="1"/>
     </row>
@@ -32153,7 +32150,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B447" s="1"/>
     </row>
@@ -32734,7 +32731,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B522" s="1"/>
     </row>
@@ -33318,7 +33315,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B597" s="1"/>
     </row>
@@ -33897,7 +33894,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B671" s="1"/>
     </row>
@@ -34476,7 +34473,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B745" s="1"/>
     </row>
@@ -35050,7 +35047,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B818" s="1"/>
     </row>
@@ -35543,7 +35540,7 @@
         <v>1679</v>
       </c>
       <c r="B881" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35567,7 +35564,7 @@
         <v>1682</v>
       </c>
       <c r="B884" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -35644,7 +35641,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B895" s="1"/>
     </row>
@@ -36218,2601 +36215,2601 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B968" s="1"/>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B969" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B970" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B971" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B972" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B973" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B974" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B975" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B976" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B977" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B978" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B979" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B980" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B981" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B982" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B983" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B984" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B985" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B986" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B987" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B988" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B989" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B990" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B991" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B992" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B993" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B994" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B995" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B996" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B997" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B998" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B999" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1000" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1001" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1002" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1003" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1004" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1005" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B1006" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1007" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B1008" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B1009" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="B1010" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1011" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B1012" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B1013" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B1014" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B1015" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="B1016" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B1017" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B1018" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B1019" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B1020" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B1021" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B1022" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B1023" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B1024" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B1025" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B1026" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B1027" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B1028" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B1029" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1030" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B1031" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B1032" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B1033" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B1034" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="B1035" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="B1036" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B1037" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B1038" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B1040" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="B1041" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B1042" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1044" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1045" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1046" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1047" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1048" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1049" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1050" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1051" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1052" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1053" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1054" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1055" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1056" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1057" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1058" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1059" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1060" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1061" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1062" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1063" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1064" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1065" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1066" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1067" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1068" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1069" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1070" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1071" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B1072" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1073" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1074" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" s="1" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1076" s="1"/>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1077" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1078" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1079" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1080" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1081" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1082" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1083" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1084" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1085" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1086" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1087" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1088" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1089" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B1090" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1091" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B1092" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B1093" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1094" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1095" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1096" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1097" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1098" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1099" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1100" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1101" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1102" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1103" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1104" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1105" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1106" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1107" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1108" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1109" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1110" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1112" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1113" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1114" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1115" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1116" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1117" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1118" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1119" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1120" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1121" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1122" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1123" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B1124" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1125" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1126" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1127" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1128" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1129" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1130" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1131" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B1132" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B1133" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B1134" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1135" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1136" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1137" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1138" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1139" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1140" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1141" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1142" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1143" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B1144" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B1145" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1146" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1147" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1148" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1149" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1150" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B1152" s="1"/>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1153" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1154" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B1155" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1156" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1157" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1158" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1159" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1160" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1161" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1162" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1163" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1164" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1165" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1166" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1167" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1168" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1169" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B1170" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B1171" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B1172" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B1173" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B1174" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B1175" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B1176" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1177" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1178" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1179" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1180" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1181" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B1182" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1183" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1184" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B1185" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B1186" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B1187" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1188" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1189" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1190" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1191" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1192" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1193" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B1194" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1195" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B1196" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1197" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1198" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1199" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1200" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1201" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1202" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1203" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1204" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1205" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1206" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1207" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1208" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1209" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1210" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1211" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1212" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1213" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B1214" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B1215" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B1216" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1217" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1219" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1220" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1221" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1222" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1223" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1224" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1227" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1228" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1229" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1230" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1231" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1232" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1233" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1234" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1235" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1236" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1237" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1238" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1239" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1240" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1241" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1242" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1243" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B1244" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1245" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1246" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1247" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B1248" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1249" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1250" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1251" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1252" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1253" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1254" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1255" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1256" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1257" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1258" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1259" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1261" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1262" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1263" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1264" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1265" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1266" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B1267" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1268" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1269" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1270" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1271" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1272" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B1273" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B1275" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B1276" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B1277" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B1278" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1280" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1281" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1282" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1283" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1284" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1285" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1286" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1287" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1288" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1289" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1290" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1291" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1292" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1293" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1294" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1295" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1296" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B1297" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B1298" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B1299" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B1300" t="s">
         <v>574</v>
@@ -38820,2234 +38817,2234 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1303" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1304" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1305" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1306" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1307" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1308" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1309" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1311" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B1312" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1313" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1314" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1315" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1316" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1317" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1318" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1319" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1320" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1321" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1322" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1323" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B1324" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B1325" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B1326" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B1327" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B1328" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B1329" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B1330" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B1331" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1332" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1333" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1334" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1335" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1336" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1337" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1338" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1339" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1341" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1342" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B1343" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B1344" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B1345" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B1346" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B1347" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B1348" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B1349" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B1350" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B1351" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B1352" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B1353" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B1354" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B1355" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B1356" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B1357" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B1358" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B1359" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B1360" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B1361" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B1362" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B1363" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1364" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B1365" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B1366" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B1367" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B1368" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B1369" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B1370" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B1371" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B1372" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B1373" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B1374" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B1375" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B1376" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1377" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B1381" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B1382" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B1383" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B1384" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1385" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1386" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1387" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1388" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1389" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1390" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1391" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1392" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1393" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1394" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1395" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1396" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1397" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1398" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1399" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1400" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1401" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1402" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1403" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1404" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1405" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1406" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1407" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B1408" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B1409" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B1410" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B1411" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B1412" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B1413" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1414" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1415" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1416" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1417" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1418" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1419" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1420" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1421" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1422" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1423" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1424" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1425" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1426" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1427" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1428" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1429" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1430" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1431" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1432" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1433" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1434" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1435" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1436" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1437" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1438" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1439" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1440" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B1441" t="s">
         <v>2780</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1442" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1443" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1444" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B1445" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B1446" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B1447" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B1448" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B1449" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B1450" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1451" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1452" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B1454" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1455" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1456" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B1459" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B1460" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1461" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1462" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1463" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1464" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1465" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1466" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1467" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1468" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1469" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1470" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1471" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1472" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1473" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1474" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1475" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B1477" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B1479" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B1480" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B1481" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B1482" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B1483" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1484" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1485" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1486" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1487" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1488" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1489" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1490" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1491" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1492" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1493" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1494" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1495" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1496" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1497" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1498" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1499" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1500" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1501" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1502" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1503" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1504" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1505" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1506" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1507" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1508" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1509" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B1510" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B1511" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="B1512" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="B1513" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="B1514" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1515" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1516" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1517" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1518" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1519" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1520" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1521" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1522" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1523" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1524" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1525" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1527" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1528" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1529" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1530" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B1531" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1532" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B1535" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B1536" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1537" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1538" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B1539" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1540" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="B1541" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="B1542" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="B1543" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B1544" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="B1545" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="B1546" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="B1547" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1548" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1550" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1551" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1552" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1553" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1554" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1556" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1557" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1558" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1559" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1560" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1561" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1562" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1563" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1564" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1565" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1566" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1567" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1568" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1569" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B1570" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1571" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1572" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1573" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B1574" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B1575" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B1576" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B1577" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B1578" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B1579" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B1580" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1581" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B1582" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B1583" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B1584" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B1585" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B1586" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B1587" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B1588" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B1589" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
@@ -41104,12 +41101,12 @@
         <v>1898</v>
       </c>
       <c r="B1598" t="s">
-        <v>1912</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1599" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
@@ -41117,7 +41114,7 @@
         <v>1899</v>
       </c>
       <c r="B1600" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
@@ -41125,7 +41122,7 @@
         <v>1900</v>
       </c>
       <c r="B1601" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
@@ -41133,7 +41130,7 @@
         <v>1901</v>
       </c>
       <c r="B1602" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
@@ -41141,20 +41138,20 @@
         <v>1902</v>
       </c>
       <c r="B1603" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B1604" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B1606" s="1"/>
     </row>
@@ -41309,6 +41306,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
     <mergeCell ref="A1591:B1591"/>
     <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
@@ -41325,13 +41329,6 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -20309,16 +20309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.洒满，散播</t>
-    <rPh sb="2" eb="3">
-      <t>sa man</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>san bo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj.可渗透的饿，可通过的</t>
     <rPh sb="4" eb="5">
       <t>ke</t>
@@ -20621,10 +20611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>imbile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>orotund</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28340,6 +28326,20 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>chu'qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imbibe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.撒满，散播</t>
+    <rPh sb="2" eb="3">
+      <t>sa</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>san bo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28669,8 +28669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A315" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1165" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1175" sqref="B1175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28703,7 +28703,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -31188,7 +31188,7 @@
         <v>597</v>
       </c>
       <c r="B323" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -35546,7 +35546,7 @@
         <v>1677</v>
       </c>
       <c r="B881" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35570,7 +35570,7 @@
         <v>1680</v>
       </c>
       <c r="B884" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -36552,268 +36552,268 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="B1010" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="B1011" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="B1012" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="B1013" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="B1014" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="B1015" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B1016" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="B1017" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="B1018" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="B1019" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="B1020" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="B1021" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="B1022" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="B1023" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="B1024" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B1025" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B1026" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="B1027" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="B1028" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="B1029" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="B1030" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B1031" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="B1032" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="B1033" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="B1034" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="B1035" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B1036" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="B1037" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="B1038" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="B1040" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="B1041" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="B1042" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
@@ -37021,7 +37021,7 @@
         <v>2023</v>
       </c>
       <c r="B1069" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
@@ -37655,7 +37655,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="B1152" s="1"/>
     </row>
@@ -37840,7 +37840,7 @@
         <v>2246</v>
       </c>
       <c r="B1175" t="s">
-        <v>2273</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
@@ -37848,7 +37848,7 @@
         <v>2247</v>
       </c>
       <c r="B1176" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
@@ -37856,7 +37856,7 @@
         <v>2248</v>
       </c>
       <c r="B1177" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
@@ -37864,7 +37864,7 @@
         <v>2249</v>
       </c>
       <c r="B1178" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
@@ -37872,7 +37872,7 @@
         <v>2250</v>
       </c>
       <c r="B1179" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
@@ -37880,7 +37880,7 @@
         <v>2251</v>
       </c>
       <c r="B1180" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
@@ -37888,7 +37888,7 @@
         <v>2252</v>
       </c>
       <c r="B1181" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -37896,7 +37896,7 @@
         <v>2253</v>
       </c>
       <c r="B1182" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
@@ -37904,7 +37904,7 @@
         <v>2254</v>
       </c>
       <c r="B1183" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
@@ -37912,7 +37912,7 @@
         <v>2255</v>
       </c>
       <c r="B1184" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
@@ -37920,7 +37920,7 @@
         <v>2256</v>
       </c>
       <c r="B1185" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
@@ -37928,7 +37928,7 @@
         <v>2257</v>
       </c>
       <c r="B1186" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
@@ -37936,886 +37936,886 @@
         <v>2258</v>
       </c>
       <c r="B1187" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1188" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1189" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1190" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1191" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1192" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1193" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1194" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1195" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1196" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B1197" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1198" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B1199" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1200" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1201" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1202" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1203" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1204" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1205" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1206" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1207" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1208" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1209" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1210" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1211" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1212" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1213" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>2312</v>
+        <v>3127</v>
       </c>
       <c r="B1214" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="B1215" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="B1216" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B1217" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B1219" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1220" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1221" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B1222" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1223" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1224" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B1227" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B1228" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B1229" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B1230" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B1231" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1232" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B1233" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B1234" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B1235" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B1236" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B1237" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B1238" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B1239" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B1240" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B1241" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B1242" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1243" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B1244" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B1245" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B1246" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B1247" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B1248" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="B1249" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B1250" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="B1251" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1252" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B1253" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="B1254" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="B1255" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="B1256" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B1257" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B1258" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="B1259" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B1261" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="B1262" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B1263" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B1264" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B1265" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="B1266" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B1267" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="B1268" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B1269" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B1270" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="B1271" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="B1272" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="B1273" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B1275" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B1276" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="B1277" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="B1278" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1280" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="B1281" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="B1282" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="B1283" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="B1284" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B1285" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="B1286" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="B1287" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="B1288" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="B1289" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B1290" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="B1291" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="B1292" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="B1293" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B1294" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="B1295" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B1296" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B1297" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B1298" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="B1299" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="B1300" t="s">
         <v>573</v>
@@ -38823,2234 +38823,2234 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="B1303" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B1304" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="B1305" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="B1306" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B1307" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B1308" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B1309" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B1311" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1312" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B1313" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="B1314" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B1315" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B1316" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B1317" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B1318" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B1319" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B1320" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="B1321" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B1322" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="B1323" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B1324" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="B1325" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="B1326" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B1327" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="B1328" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B1329" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B1330" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B1331" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1332" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1333" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B1334" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="B1335" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="B1336" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="B1337" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="B1338" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="B1339" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B1341" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B1342" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B1343" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="B1344" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B1345" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="B1346" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="B1347" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="B1348" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="B1349" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B1350" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="B1351" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="B1352" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="B1353" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="B1354" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="B1355" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="B1356" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B1357" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="B1358" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="B1359" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="B1360" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B1361" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="B1362" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="B1363" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1364" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="B1365" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B1366" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B1367" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B1368" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B1369" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B1370" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B1371" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B1372" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B1373" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B1374" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B1375" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B1376" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1377" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="B1381" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B1382" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="B1383" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B1384" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B1385" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B1386" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B1387" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B1388" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="B1389" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B1390" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B1391" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B1392" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B1393" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B1394" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B1395" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B1396" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B1397" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B1398" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B1399" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1400" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B1401" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B1402" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="B1403" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="B1404" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="B1405" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="B1406" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="B1407" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="B1408" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B1409" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="B1410" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="B1411" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="B1412" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="B1413" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B1414" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B1415" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B1416" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B1417" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B1418" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B1419" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B1420" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B1421" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B1422" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B1423" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B1424" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B1425" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B1426" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="B1427" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B1428" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="B1429" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B1430" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="B1431" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B1432" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="B1433" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B1434" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="B1435" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="B1436" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="B1437" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="B1438" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="B1439" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="B1440" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="B1441" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="B1442" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1443" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="B1444" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="B1445" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B1446" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="B1447" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B1448" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="B1449" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B1450" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="B1451" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1452" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="B1454" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1455" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="B1456" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="1" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="B1459" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B1460" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="B1461" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="B1462" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="B1463" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="B1464" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="B1465" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="B1466" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="B1467" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="B1468" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="B1469" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="B1470" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="B1471" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="B1472" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="B1473" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="B1474" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="B1475" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="B1477" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B1479" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="B1480" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="B1481" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="B1482" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="B1483" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B1484" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="B1485" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B1486" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="B1487" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B1488" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="B1489" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B1490" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="B1491" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B1492" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="B1493" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="B1494" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="B1495" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="B1496" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="B1497" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B1498" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="B1499" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="B1500" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="B1501" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B1502" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="B1503" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B1504" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B1505" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B1506" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="B1507" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B1508" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="B1509" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="B1510" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="B1511" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B1512" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B1513" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="B1514" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="B1515" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="B1516" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="B1517" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="B1518" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="B1519" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B1520" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="B1521" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1522" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B1523" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B1524" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B1525" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B1527" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B1528" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B1529" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B1530" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B1531" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B1532" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B1535" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B1536" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B1537" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B1538" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B1539" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B1540" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B1541" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B1542" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B1543" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B1544" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B1545" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="B1546" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="B1547" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="B1548" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B1550" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B1551" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B1552" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="B1553" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B1554" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="B1556" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B1557" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="B1558" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B1559" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="B1560" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B1561" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="B1562" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B1563" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B1564" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B1565" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B1566" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B1567" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B1568" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B1569" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B1570" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B1571" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B1572" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B1573" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="B1574" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="B1575" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="B1576" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="B1577" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="B1578" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="B1579" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="B1580" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="B1581" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B1582" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B1583" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="B1584" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="B1585" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B1586" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="B1587" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="B1588" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="B1589" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
@@ -41107,7 +41107,7 @@
         <v>1896</v>
       </c>
       <c r="B1598" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
@@ -41157,7 +41157,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" s="1" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="B1606" s="1"/>
     </row>
@@ -41312,6 +41312,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
     <mergeCell ref="A1591:B1591"/>
     <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
@@ -41328,13 +41335,6 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -20309,31 +20309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.可渗透的饿，可通过的</t>
-    <rPh sb="4" eb="5">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shen tou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>d</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>e</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.意志，决断力</t>
     <rPh sb="2" eb="3">
       <t>yi zhi</t>
@@ -26048,28 +26023,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v.潜行，悄悄踱步  n.四处觅寻，徘徊</t>
-    <rPh sb="2" eb="3">
-      <t>qian xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qiao qiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>duo bu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>si chu</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>mi xun</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>pai huai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj./adv. 滚烫的(地)</t>
     <rPh sb="10" eb="11">
       <t>gun tang</t>
@@ -28340,6 +28293,50 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>san bo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可渗透的，可通过的</t>
+    <rPh sb="4" eb="5">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen tou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.潜行，悄悄踱步  n.四处觅食，徘徊</t>
+    <rPh sb="2" eb="3">
+      <t>qian xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qiao qiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo bu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>si chu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mi'shi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>pai huai</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28669,8 +28666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1165" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1175" sqref="B1175"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1495" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1505" sqref="B1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28703,7 +28700,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -31188,7 +31185,7 @@
         <v>597</v>
       </c>
       <c r="B323" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -35546,7 +35543,7 @@
         <v>1677</v>
       </c>
       <c r="B881" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35570,7 +35567,7 @@
         <v>1680</v>
       </c>
       <c r="B884" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -36552,268 +36549,268 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="B1010" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="B1011" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="B1012" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="B1013" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="B1014" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="B1015" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="B1016" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="B1017" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B1018" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="B1019" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="B1020" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="B1021" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="B1022" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="B1023" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="B1024" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="B1025" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="B1026" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B1027" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B1028" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="B1029" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="B1030" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="B1031" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="B1032" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B1033" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="B1034" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="B1035" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="B1036" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="B1037" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B1038" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="B1040" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="B1041" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="B1042" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
@@ -37021,7 +37018,7 @@
         <v>2023</v>
       </c>
       <c r="B1069" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
@@ -37655,7 +37652,7 @@
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1152" s="1"/>
     </row>
@@ -37840,7 +37837,7 @@
         <v>2246</v>
       </c>
       <c r="B1175" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
@@ -37848,7 +37845,7 @@
         <v>2247</v>
       </c>
       <c r="B1176" t="s">
-        <v>2273</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
@@ -37856,7 +37853,7 @@
         <v>2248</v>
       </c>
       <c r="B1177" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
@@ -37864,7 +37861,7 @@
         <v>2249</v>
       </c>
       <c r="B1178" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
@@ -37872,7 +37869,7 @@
         <v>2250</v>
       </c>
       <c r="B1179" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
@@ -37880,7 +37877,7 @@
         <v>2251</v>
       </c>
       <c r="B1180" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
@@ -37888,7 +37885,7 @@
         <v>2252</v>
       </c>
       <c r="B1181" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
@@ -37896,7 +37893,7 @@
         <v>2253</v>
       </c>
       <c r="B1182" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
@@ -37904,7 +37901,7 @@
         <v>2254</v>
       </c>
       <c r="B1183" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
@@ -37912,7 +37909,7 @@
         <v>2255</v>
       </c>
       <c r="B1184" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
@@ -37920,7 +37917,7 @@
         <v>2256</v>
       </c>
       <c r="B1185" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
@@ -37928,7 +37925,7 @@
         <v>2257</v>
       </c>
       <c r="B1186" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
@@ -37936,886 +37933,886 @@
         <v>2258</v>
       </c>
       <c r="B1187" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1188" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1189" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1190" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1191" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1192" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1193" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1194" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1195" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1196" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1197" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B1198" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1199" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B1200" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1201" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1202" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1203" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1204" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1205" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1206" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1207" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1208" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1209" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1210" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1211" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1212" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1213" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="B1214" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1215" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1216" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1217" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B1219" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1220" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1221" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1222" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1223" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1224" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1227" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1228" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1229" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1230" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1231" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1232" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1233" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1234" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1235" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1236" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1237" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1238" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1239" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1240" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1241" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1242" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1243" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1244" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1245" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1246" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1247" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1248" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B1249" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B1250" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B1251" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1252" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B1253" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1254" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1255" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1256" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1257" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1258" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1259" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1261" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1262" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1263" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1264" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1265" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1266" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1267" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1268" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1269" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1270" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1271" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B1272" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1273" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1275" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1276" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1277" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B1278" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1280" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1281" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1282" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B1283" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B1284" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1285" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1286" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1287" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1288" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1289" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1290" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1291" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1292" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1293" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1294" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1295" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1296" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1297" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1298" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1299" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1300" t="s">
         <v>573</v>
@@ -38823,2234 +38820,2234 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1303" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1304" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1305" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B1306" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B1307" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B1308" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1309" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1311" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1312" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1313" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1314" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1315" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1316" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B1317" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1318" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1319" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1320" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1321" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1322" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1323" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1324" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1325" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1326" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1327" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1328" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B1329" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B1330" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B1331" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1332" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B1333" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1334" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1335" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1336" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1337" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1338" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1339" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1341" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1342" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1343" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1344" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1345" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1346" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1347" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B1348" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B1349" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B1350" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B1351" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B1352" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B1353" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B1354" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B1355" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B1356" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B1357" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B1358" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B1359" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B1360" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B1361" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B1362" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B1363" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1364" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B1365" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1366" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1367" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1368" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B1369" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B1370" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B1371" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B1372" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B1373" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B1374" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B1375" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B1376" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1377" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B1381" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B1382" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B1383" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B1384" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1385" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1386" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1387" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1388" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1389" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1390" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1391" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1392" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1393" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1394" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1395" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1396" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1397" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1398" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1399" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1400" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1401" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1402" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1403" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1404" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1405" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1406" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1407" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1408" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1409" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1410" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1411" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1412" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B1413" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1414" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1415" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B1416" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1417" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1418" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1419" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1420" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1421" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1422" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1423" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1424" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1425" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1426" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1427" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1428" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1429" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1430" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1431" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1432" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1433" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1434" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1435" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1436" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1437" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1438" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1439" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1440" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B1441" t="s">
         <v>2775</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1442" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1443" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1444" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1445" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1446" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1447" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1448" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1449" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B1450" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B1451" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1452" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B1454" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1455" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1456" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1459" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1460" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B1461" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1462" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B1463" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1464" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1465" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1466" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1467" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1468" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1469" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1470" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1471" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1472" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1473" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1474" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1475" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1477" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1479" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1480" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1481" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B1482" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1483" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1484" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1485" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1486" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B1487" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B1488" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1489" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1490" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1491" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1492" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1493" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1494" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1495" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1496" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1497" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1498" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1499" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1500" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1501" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1502" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1503" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1504" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1505" t="s">
-        <v>2900</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1506" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1507" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1508" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1509" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1510" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1511" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1512" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1513" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B1514" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="B1515" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="B1516" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="B1517" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="B1518" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="B1519" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="B1520" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="B1521" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B1522" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="B1523" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1524" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B1525" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B1527" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B1528" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B1529" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B1530" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B1531" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B1532" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B1535" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B1536" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B1537" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B1538" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B1539" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B1540" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B1541" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B1542" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B1543" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B1544" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="B1545" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="B1546" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="B1547" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="B1548" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B1550" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="B1551" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B1552" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B1553" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B1554" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="B1556" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B1557" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="B1558" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B1559" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="B1560" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B1561" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="B1562" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B1563" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="B1564" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B1565" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B1566" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B1567" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B1568" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B1569" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B1570" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B1571" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B1572" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B1573" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B1574" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B1575" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="B1576" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="B1577" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="B1578" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="B1579" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="B1580" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="B1581" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="B1582" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="B1583" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B1584" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B1585" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="B1586" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="B1587" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="B1588" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="B1589" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
@@ -41107,7 +41104,7 @@
         <v>1896</v>
       </c>
       <c r="B1598" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
@@ -41157,7 +41154,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" s="1" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="B1606" s="1"/>
     </row>
@@ -41312,13 +41309,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
     <mergeCell ref="A1591:B1591"/>
     <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
@@ -41335,6 +41325,13 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -16454,19 +16454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n./v. 瞥见，偷看；初见</t>
-    <rPh sb="6" eb="7">
-      <t>pie jian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tou kan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>chu jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.安排；决定；栖息</t>
     <rPh sb="2" eb="3">
       <t>an pai</t>
@@ -27925,28 +27912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adj.腐臭的；陈腐的，过时的</t>
-    <rPh sb="4" eb="5">
-      <t>fu'chou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chen'fu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>guo'shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>de</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adj.轻浮的，活泼的</t>
     <rPh sb="4" eb="5">
       <t>qing'fu</t>
@@ -28337,6 +28302,44 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>pai huai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n./v. 瞥见，偷看；初现</t>
+    <rPh sb="6" eb="7">
+      <t>pie jian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tou kan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>chu jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.霉臭的；陈腐的，过时的</t>
+    <rPh sb="4" eb="5">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chen'fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guo'shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28666,8 +28669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1495" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1505" sqref="B1505"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1021" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1031" sqref="B1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28700,7 +28703,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -28980,7 +28983,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -29409,7 +29412,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B95" t="s">
         <v>189</v>
@@ -29417,7 +29420,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B96" t="s">
         <v>190</v>
@@ -29540,7 +29543,7 @@
         <v>205</v>
       </c>
       <c r="B111" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -29668,7 +29671,7 @@
         <v>221</v>
       </c>
       <c r="B127" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -29825,7 +29828,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B148" s="1"/>
     </row>
@@ -30403,7 +30406,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B222" t="s">
         <v>421</v>
@@ -30499,7 +30502,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B235" s="1"/>
     </row>
@@ -31080,7 +31083,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B310" s="1"/>
     </row>
@@ -31185,7 +31188,7 @@
         <v>597</v>
       </c>
       <c r="B323" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -31659,7 +31662,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B384" s="1"/>
     </row>
@@ -32153,7 +32156,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B447" s="1"/>
     </row>
@@ -32734,7 +32737,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B522" s="1"/>
     </row>
@@ -33318,7 +33321,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B597" s="1"/>
     </row>
@@ -33897,7 +33900,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B671" s="1"/>
     </row>
@@ -34476,7 +34479,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B745" s="1"/>
     </row>
@@ -35050,7 +35053,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B818" s="1"/>
     </row>
@@ -35543,7 +35546,7 @@
         <v>1677</v>
       </c>
       <c r="B881" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35567,7 +35570,7 @@
         <v>1680</v>
       </c>
       <c r="B884" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -35644,7 +35647,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B895" s="1"/>
     </row>
@@ -36205,7 +36208,7 @@
         <v>1814</v>
       </c>
       <c r="B965" t="s">
-        <v>1847</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
@@ -36213,2606 +36216,2606 @@
         <v>1815</v>
       </c>
       <c r="B966" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B968" s="1"/>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B969" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B970" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B971" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B972" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B973" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B974" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B975" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B976" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B977" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B978" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B979" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B980" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B981" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B982" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B983" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B984" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B985" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B986" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B987" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B988" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B989" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B990" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B991" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B992" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B993" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B994" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B995" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B996" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B997" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B998" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B999" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B1000" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B1001" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B1002" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B1003" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B1004" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B1005" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B1006" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1007" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1008" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B1009" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B1010" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B1011" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B1012" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="B1013" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="B1014" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="B1015" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="B1016" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="B1017" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B1018" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B1019" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B1020" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B1021" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B1022" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="B1023" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B1024" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B1025" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B1026" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B1027" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="B1028" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="B1029" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="B1030" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="B1031" t="s">
-        <v>3106</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B1032" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B1033" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="B1034" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="B1035" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B1036" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="B1037" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="B1038" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="B1040" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="B1041" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="B1042" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B1044" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B1045" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1046" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B1047" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B1048" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B1049" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1050" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B1051" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B1052" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B1053" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B1054" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B1055" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B1056" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B1057" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1058" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1059" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1060" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1061" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B1062" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B1063" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B1064" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B1065" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B1066" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B1067" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1068" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B1069" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1070" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1071" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1072" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1073" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B1074" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1076" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B1076" s="1"/>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1077" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B1078" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B1079" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B1080" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B1081" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B1082" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B1083" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1084" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B1085" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B1086" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1087" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1088" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1089" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1090" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1091" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B1092" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B1093" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1094" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1095" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1096" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1097" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1098" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1099" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1100" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1101" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1102" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B1103" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B1104" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B1105" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B1106" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B1107" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B1108" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1109" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B1110" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B1112" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B1113" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B1114" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B1115" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B1116" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B1117" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B1118" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1119" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B1120" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B1121" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B1122" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B1123" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B1124" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B1125" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B1126" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B1127" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B1128" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B1129" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B1130" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B1131" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B1132" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B1133" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B1134" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B1135" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B1136" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B1137" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1138" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1139" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1140" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1141" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B1142" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B1143" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B1144" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1145" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B1146" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B1147" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B1148" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B1149" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B1150" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1152" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B1152" s="1"/>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B1153" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B1154" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B1155" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B1156" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1157" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B1158" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B1159" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1160" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B1161" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B1162" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B1163" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B1164" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B1165" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B1166" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B1167" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B1168" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B1169" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B1170" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B1171" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B1172" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B1173" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B1174" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B1175" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B1176" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B1177" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B1178" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B1179" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B1180" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B1181" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="B1182" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B1183" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B1184" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B1185" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B1186" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B1187" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B1188" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B1189" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B1190" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="B1191" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B1192" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="B1193" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="B1194" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="B1195" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="B1196" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="B1197" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B1198" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B1199" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B1200" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B1201" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B1202" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="B1203" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B1204" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="B1205" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B1206" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B1207" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B1208" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="B1209" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B1210" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="B1211" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="B1212" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B1213" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="B1214" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B1215" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B1216" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B1217" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B1219" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1220" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1221" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1222" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1223" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1224" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1226" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B1226" s="1"/>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1227" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1228" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1229" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1230" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1231" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1232" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1233" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1234" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1235" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1236" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1237" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1238" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1239" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B1240" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1241" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1242" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1243" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1244" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1245" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B1246" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1247" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B1248" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B1249" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B1250" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B1251" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B1252" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B1253" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B1254" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B1255" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B1256" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B1257" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B1258" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B1259" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1260" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B1261" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B1262" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B1263" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B1264" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B1265" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B1266" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B1267" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B1268" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B1269" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B1270" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B1271" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B1272" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B1273" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B1275" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B1276" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B1277" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B1278" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B1280" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B1281" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1282" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B1283" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B1284" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B1285" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1286" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B1287" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B1288" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B1289" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1290" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1291" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B1292" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B1293" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B1294" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1295" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1296" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B1297" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B1298" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B1299" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1300" t="s">
         <v>573</v>
@@ -38820,2495 +38823,2502 @@
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1302" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B1302" s="1"/>
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B1303" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B1304" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B1305" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B1306" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B1307" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B1308" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B1309" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1311" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B1312" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B1313" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B1314" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B1315" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B1316" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1317" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B1318" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1319" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1320" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B1321" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1322" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1323" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1324" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1325" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1326" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1327" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1328" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B1329" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B1330" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B1331" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B1332" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B1333" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B1334" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B1335" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B1336" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B1337" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B1338" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B1339" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B1341" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B1342" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B1343" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B1344" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B1345" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B1346" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B1347" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B1348" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B1349" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B1350" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B1351" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B1352" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B1353" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B1354" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B1355" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B1356" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B1357" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B1358" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B1359" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B1360" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B1361" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B1362" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B1363" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1364" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B1365" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B1366" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B1367" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B1368" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B1369" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B1370" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B1371" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B1372" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B1373" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B1374" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B1375" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B1376" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1377" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1380" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1380" s="1"/>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B1381" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B1382" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B1383" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B1384" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B1385" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B1386" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B1387" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B1388" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B1389" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B1390" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B1391" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B1392" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B1393" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B1394" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B1395" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B1396" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B1397" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B1398" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B1399" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1400" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B1401" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B1402" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B1403" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B1404" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B1405" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B1406" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B1407" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B1408" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B1409" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B1410" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B1411" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B1412" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B1413" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B1414" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B1415" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B1416" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B1417" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B1418" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B1419" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B1420" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B1421" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B1422" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B1423" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B1424" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B1425" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B1426" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B1427" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B1428" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B1429" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B1430" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B1431" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B1432" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B1433" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B1434" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B1435" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B1436" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B1437" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B1438" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="B1439" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B1440" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B1441" t="s">
         <v>2774</v>
-      </c>
-      <c r="B1441" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B1442" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1443" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B1444" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B1445" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B1446" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B1447" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B1448" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B1449" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B1450" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B1451" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1452" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1453" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B1454" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1455" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B1456" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1458" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B1458" s="1"/>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B1459" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B1460" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1461" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1462" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B1463" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B1464" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1465" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B1466" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1467" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B1468" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B1469" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1470" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B1471" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B1472" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1473" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B1474" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B1475" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1477" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1479" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B1479" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B1480" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1481" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B1481" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1482" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B1482" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="B1483" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="B1484" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B1485" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B1486" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="B1487" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B1488" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="B1489" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="B1490" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B1491" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B1492" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B1493" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B1494" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B1495" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B1496" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B1497" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B1498" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B1499" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B1500" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B1501" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B1502" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B1503" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B1504" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B1505" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B1506" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B1507" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B1508" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B1509" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B1510" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B1511" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B1512" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B1513" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B1514" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B1515" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B1516" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="B1517" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="B1518" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B1519" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="B1520" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="B1521" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="B1522" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="B1523" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="B1524" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="B1525" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="B1527" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="B1528" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B1529" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B1530" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B1531" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B1532" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B1535" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B1536" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B1537" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B1538" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B1539" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B1540" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="B1541" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="B1542" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="B1543" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="B1544" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="B1545" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="B1546" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="B1547" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B1548" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B1550" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B1551" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B1552" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B1553" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B1554" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B1556" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B1557" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B1558" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B1559" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B1560" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B1561" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B1562" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B1563" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B1564" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B1565" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B1566" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B1567" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B1568" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B1569" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B1570" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B1571" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B1572" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B1573" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B1574" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B1575" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B1576" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B1577" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B1578" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="B1579" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B1580" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B1581" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B1582" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B1583" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B1584" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B1585" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B1586" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B1587" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B1588" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B1589" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1592" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B1593" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1594" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1595" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B1596" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1597" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B1598" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1599" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1600" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1601" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B1602" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B1603" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B1604" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B1606" s="1"/>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1607" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1608" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B1609" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B1610" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1611" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B1612" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1613" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B1614" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B1615" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1616" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B1617" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B1618" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1619" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B1620" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B1621" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B1622" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B1623" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1624" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B1625" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
     <mergeCell ref="A1591:B1591"/>
     <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
@@ -41325,13 +41335,6 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vocabulary_part III.xlsx
+++ b/vocabulary_part III.xlsx
@@ -25308,13 +25308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n.先知者，先知</t>
-    <rPh sb="6" eb="7">
-      <t>xian zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">(=plow)n.犁  v.犁地 </t>
     <rPh sb="9" eb="10">
       <t>li</t>
@@ -25522,19 +25515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使羞愧，是窘迫</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xiu kui</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi jiong po</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n.(口头或书面猛烈的)抨击</t>
     <rPh sb="3" eb="4">
       <t>kou tou</t>
@@ -28340,6 +28320,29 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.先觉者，先知</t>
+    <rPh sb="3" eb="4">
+      <t>jue</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使羞愧，使窘迫</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiu kui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -28669,8 +28672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1625"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1021" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1031" sqref="B1031"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A1468" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1478" sqref="B1478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28703,7 +28706,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -31188,7 +31191,7 @@
         <v>597</v>
       </c>
       <c r="B323" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -35546,7 +35549,7 @@
         <v>1677</v>
       </c>
       <c r="B881" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -35570,7 +35573,7 @@
         <v>1680</v>
       </c>
       <c r="B884" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -36208,7 +36211,7 @@
         <v>1814</v>
       </c>
       <c r="B965" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
@@ -36552,268 +36555,268 @@
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B1010" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="B1011" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="B1012" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="B1013" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="B1014" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="B1015" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="B1016" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="B1017" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="B1018" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="B1019" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="B1020" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="B1021" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="B1022" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="B1023" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="B1024" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="B1025" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="B1026" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="B1027" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="B1028" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="B1029" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B1030" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B1031" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="B1032" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="B1033" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="B1034" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="B1035" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B1036" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="B1037" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="B1038" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
       <c r="B1040" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="B1041" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
       <c r="B1042" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1043" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
@@ -37021,7 +37024,7 @@
         <v>2022</v>
       </c>
       <c r="B1069" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.2">
@@ -37840,7 +37843,7 @@
         <v>2245</v>
       </c>
       <c r="B1175" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
@@ -37848,7 +37851,7 @@
         <v>2246</v>
       </c>
       <c r="B1176" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
@@ -38149,7 +38152,7 @@
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="B1214" t="s">
         <v>2339</v>
@@ -40054,7 +40057,7 @@
         <v>2804</v>
       </c>
       <c r="B1462" t="s">
-        <v>2823</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
@@ -40062,7 +40065,7 @@
         <v>2805</v>
       </c>
       <c r="B1463" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
@@ -40070,7 +40073,7 @@
         <v>2806</v>
       </c>
       <c r="B1464" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
@@ -40078,7 +40081,7 @@
         <v>2807</v>
       </c>
       <c r="B1465" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
@@ -40086,7 +40089,7 @@
         <v>2808</v>
       </c>
       <c r="B1466" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
@@ -40094,7 +40097,7 @@
         <v>2809</v>
       </c>
       <c r="B1467" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
@@ -40102,7 +40105,7 @@
         <v>2810</v>
       </c>
       <c r="B1468" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
@@ -40110,7 +40113,7 @@
         <v>2811</v>
       </c>
       <c r="B1469" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
@@ -40118,7 +40121,7 @@
         <v>2812</v>
       </c>
       <c r="B1470" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
@@ -40126,7 +40129,7 @@
         <v>2813</v>
       </c>
       <c r="B1471" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
@@ -40134,7 +40137,7 @@
         <v>2814</v>
       </c>
       <c r="B1472" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
@@ -40142,7 +40145,7 @@
         <v>2815</v>
       </c>
       <c r="B1473" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
@@ -40150,7 +40153,7 @@
         <v>2816</v>
       </c>
       <c r="B1474" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
@@ -40158,12 +40161,12 @@
         <v>2817</v>
       </c>
       <c r="B1475" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
@@ -40171,12 +40174,12 @@
         <v>2818</v>
       </c>
       <c r="B1477" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" t="s">
-        <v>2839</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
@@ -40184,7 +40187,7 @@
         <v>2819</v>
       </c>
       <c r="B1479" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
@@ -40192,7 +40195,7 @@
         <v>2820</v>
       </c>
       <c r="B1480" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
@@ -40200,7 +40203,7 @@
         <v>2821</v>
       </c>
       <c r="B1481" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
@@ -40208,340 +40211,340 @@
         <v>2822</v>
       </c>
       <c r="B1482" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1483" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B1483" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1484" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B1484" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1485" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B1485" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1486" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B1486" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1487" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="B1487" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B1488" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1489" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="B1489" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1490" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B1490" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1491" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="B1491" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1492" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B1492" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="B1493" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1494" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B1494" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="B1495" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1496" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B1496" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="B1497" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1498" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="B1498" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="B1499" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="B1500" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1501" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="B1501" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="B1502" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1503" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="B1503" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="B1504" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1505" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="B1505" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1506" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B1506" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="B1507" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1508" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B1508" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B1509" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1510" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B1510" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="B1511" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B1512" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="B1513" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="B1514" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B1515" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="B1516" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="B1517" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="B1518" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1519" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="B1519" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1520" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="B1520" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1521" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="B1521" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="B1522" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1523" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="B1523" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1524" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="B1524" t="s">
         <v>2387</v>
@@ -40549,508 +40552,508 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="B1525" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1526" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1527" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="B1527" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1528" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="B1528" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="B1529" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B1530" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="B1531" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="B1532" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1534" s="1" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="B1534" s="1"/>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="B1535" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="B1536" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="B1537" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="B1538" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="B1539" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="B1540" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="B1541" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="B1542" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="B1543" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="B1544" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="B1545" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="B1546" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1547" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="B1547" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1548" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="B1548" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1549" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="B1550" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1551" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="B1551" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="B1552" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="B1553" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="B1554" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="B1556" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B1557" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B1558" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="B1559" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B1560" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="B1561" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B1562" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="B1563" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B1564" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="B1565" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B1566" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="B1567" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B1568" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B1569" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B1570" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B1571" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B1572" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="B1573" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B1574" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="B1575" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B1576" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B1577" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="B1578" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="B1579" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="B1580" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="B1581" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="B1582" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="B1583" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="B1584" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="B1585" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="B1586" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="B1587" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="B1588" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="B1589" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1591" s="1" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="B1591" s="1"/>
     </row>
@@ -41107,7 +41110,7 @@
         <v>1895</v>
       </c>
       <c r="B1598" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
@@ -41157,7 +41160,7 @@
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1606" s="1" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="B1606" s="1"/>
     </row>
@@ -41312,13 +41315,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1380:B1380"/>
-    <mergeCell ref="A1458:B1458"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A745:B745"/>
-    <mergeCell ref="A1152:B1152"/>
-    <mergeCell ref="A1226:B1226"/>
-    <mergeCell ref="A1302:B1302"/>
     <mergeCell ref="A1591:B1591"/>
     <mergeCell ref="A1606:B1606"/>
     <mergeCell ref="A1534:B1534"/>
@@ -41335,6 +41331,13 @@
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A522:B522"/>
     <mergeCell ref="A597:B597"/>
+    <mergeCell ref="A1380:B1380"/>
+    <mergeCell ref="A1458:B1458"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A745:B745"/>
+    <mergeCell ref="A1152:B1152"/>
+    <mergeCell ref="A1226:B1226"/>
+    <mergeCell ref="A1302:B1302"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
